--- a/EPA1352-G11-A2/check_N1_df.xlsx
+++ b/EPA1352-G11-A2/check_N1_df.xlsx
@@ -516,7 +516,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -600,7 +600,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -768,7 +768,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -810,7 +810,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -852,7 +852,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,7 +894,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -936,7 +936,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -978,7 +978,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1202,7 +1202,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1244,7 +1244,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1286,7 +1286,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1604,7 +1604,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1792,7 +1792,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1882,7 +1882,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2050,7 +2050,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2184,7 +2184,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2416,7 +2416,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2562,7 +2562,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2700,7 +2700,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2742,7 +2742,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2882,7 +2882,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2966,7 +2966,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3198,7 +3198,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3288,7 +3288,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3420,7 +3420,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3558,7 +3558,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3648,7 +3648,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3982,7 +3982,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4214,7 +4214,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4256,7 +4256,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4390,7 +4390,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4480,7 +4480,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4668,7 +4668,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4710,7 +4710,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5024,7 +5024,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Others / Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5284,7 +5284,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5368,7 +5368,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5410,7 +5410,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5452,7 +5452,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5586,7 +5586,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5628,7 +5628,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -5670,7 +5670,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5796,7 +5796,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -5838,7 +5838,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5922,7 +5922,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5964,7 +5964,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6006,7 +6006,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6140,7 +6140,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6182,7 +6182,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6316,7 +6316,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6358,7 +6358,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6442,7 +6442,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6484,7 +6484,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6526,7 +6526,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6568,7 +6568,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6708,7 +6708,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6750,7 +6750,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -6792,7 +6792,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -6876,7 +6876,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6918,7 +6918,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7044,7 +7044,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7086,7 +7086,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7128,7 +7128,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7254,7 +7254,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7296,7 +7296,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7338,7 +7338,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7422,7 +7422,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7464,7 +7464,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7554,7 +7554,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7596,7 +7596,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -7638,7 +7638,7 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -7680,7 +7680,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -7722,7 +7722,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -7764,7 +7764,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7904,7 +7904,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -7946,7 +7946,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7988,7 +7988,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8078,7 +8078,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8210,7 +8210,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8252,7 +8252,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8294,7 +8294,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8384,7 +8384,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -8426,7 +8426,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8468,7 +8468,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -8552,7 +8552,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -8642,7 +8642,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -8684,7 +8684,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -8768,7 +8768,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -8810,7 +8810,7 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -8852,7 +8852,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -8894,7 +8894,7 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -8936,7 +8936,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -8978,7 +8978,7 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9112,7 +9112,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9154,7 +9154,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9196,7 +9196,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9238,7 +9238,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -9280,7 +9280,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -9414,7 +9414,7 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>RailRoadCrossing</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -9456,7 +9456,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -9498,7 +9498,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -9540,7 +9540,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -9674,7 +9674,7 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -9716,7 +9716,7 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -9758,7 +9758,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -9848,7 +9848,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -9982,7 +9982,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10024,7 +10024,7 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10198,7 +10198,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -10332,7 +10332,7 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -10374,7 +10374,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -10464,7 +10464,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -10604,7 +10604,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -10688,7 +10688,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -10730,7 +10730,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -10864,7 +10864,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -10906,7 +10906,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -10948,7 +10948,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11088,7 +11088,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -11360,7 +11360,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -11500,7 +11500,7 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -11590,7 +11590,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -11674,7 +11674,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -11716,7 +11716,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -11890,7 +11890,7 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -11980,7 +11980,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -12210,7 +12210,7 @@
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -12348,7 +12348,7 @@
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -12480,7 +12480,7 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -12522,7 +12522,7 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -12606,7 +12606,7 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -12696,7 +12696,7 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -12876,7 +12876,7 @@
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -13016,7 +13016,7 @@
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -13106,7 +13106,7 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -13246,7 +13246,7 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -13336,7 +13336,7 @@
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -13378,7 +13378,7 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -13462,7 +13462,7 @@
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -13552,7 +13552,7 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -13642,7 +13642,7 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -13774,7 +13774,7 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -13864,7 +13864,7 @@
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -13906,7 +13906,7 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14038,7 +14038,7 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14176,7 +14176,7 @@
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -14266,7 +14266,7 @@
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -14442,7 +14442,7 @@
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -14532,7 +14532,7 @@
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -14574,7 +14574,7 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr">
         <is>
-          <t>Others / Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -14658,7 +14658,7 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -14700,7 +14700,7 @@
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -14742,7 +14742,7 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -14784,7 +14784,7 @@
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -14826,7 +14826,7 @@
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -14910,7 +14910,7 @@
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
         <is>
-          <t>RailRoadCrossing</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -14952,7 +14952,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -15042,7 +15042,7 @@
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -15084,7 +15084,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -15126,7 +15126,7 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -15252,7 +15252,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -15294,7 +15294,7 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
-          <t>CrossRoad / KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -15336,7 +15336,7 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -15378,7 +15378,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -15554,7 +15554,7 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -15596,7 +15596,7 @@
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -15638,7 +15638,7 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -15680,7 +15680,7 @@
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -15722,7 +15722,7 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -15764,7 +15764,7 @@
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -15898,7 +15898,7 @@
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -15940,7 +15940,7 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -15982,7 +15982,7 @@
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -16024,7 +16024,7 @@
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -16066,7 +16066,7 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -16108,7 +16108,7 @@
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -16150,7 +16150,7 @@
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -16192,7 +16192,7 @@
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -16326,7 +16326,7 @@
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -16368,7 +16368,7 @@
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -16410,7 +16410,7 @@
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -16452,7 +16452,7 @@
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -16494,7 +16494,7 @@
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -16536,7 +16536,7 @@
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -16670,7 +16670,7 @@
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -16760,7 +16760,7 @@
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -16802,7 +16802,7 @@
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -16844,7 +16844,7 @@
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -16886,7 +16886,7 @@
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -16970,7 +16970,7 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -17108,7 +17108,7 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -17246,7 +17246,7 @@
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -17384,7 +17384,7 @@
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -17522,7 +17522,7 @@
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -17752,7 +17752,7 @@
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -17836,7 +17836,7 @@
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -17920,7 +17920,7 @@
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -17962,7 +17962,7 @@
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -18130,7 +18130,7 @@
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -18220,7 +18220,7 @@
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -18352,7 +18352,7 @@
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -18436,7 +18436,7 @@
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -18526,7 +18526,7 @@
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -18610,7 +18610,7 @@
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -18742,7 +18742,7 @@
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -18832,7 +18832,7 @@
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -18978,7 +18978,7 @@
       <c r="G421" t="inlineStr"/>
       <c r="H421" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -19062,7 +19062,7 @@
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -19236,7 +19236,7 @@
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -19326,7 +19326,7 @@
       <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -19452,7 +19452,7 @@
       <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -19584,7 +19584,7 @@
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -19758,7 +19758,7 @@
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -19848,7 +19848,7 @@
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -19980,7 +19980,7 @@
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -20118,7 +20118,7 @@
       <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -20160,7 +20160,7 @@
       <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -20286,7 +20286,7 @@
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -20424,7 +20424,7 @@
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -20550,7 +20550,7 @@
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -20688,7 +20688,7 @@
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -20778,7 +20778,7 @@
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -20916,7 +20916,7 @@
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -21182,7 +21182,7 @@
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -21314,7 +21314,7 @@
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -21404,7 +21404,7 @@
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -21620,7 +21620,7 @@
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -21710,7 +21710,7 @@
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -21850,7 +21850,7 @@
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -21934,7 +21934,7 @@
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -22080,7 +22080,7 @@
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -22346,7 +22346,7 @@
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -22492,7 +22492,7 @@
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -22582,7 +22582,7 @@
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -22672,7 +22672,7 @@
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -22806,7 +22806,7 @@
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -23080,7 +23080,7 @@
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -23360,7 +23360,7 @@
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -23500,7 +23500,7 @@
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -23590,7 +23590,7 @@
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -23856,7 +23856,7 @@
       <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -23898,7 +23898,7 @@
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -24038,7 +24038,7 @@
       <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -24080,7 +24080,7 @@
       <c r="G535" t="inlineStr"/>
       <c r="H535" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -24226,7 +24226,7 @@
       <c r="G538" t="inlineStr"/>
       <c r="H538" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -24402,7 +24402,7 @@
       <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -24444,7 +24444,7 @@
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -24578,7 +24578,7 @@
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -24620,7 +24620,7 @@
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -24704,7 +24704,7 @@
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -24746,7 +24746,7 @@
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -24788,7 +24788,7 @@
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -24928,7 +24928,7 @@
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -24970,7 +24970,7 @@
       <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -25146,7 +25146,7 @@
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -25376,7 +25376,7 @@
       <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -25418,7 +25418,7 @@
       <c r="G565" t="inlineStr"/>
       <c r="H565" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -25460,7 +25460,7 @@
       <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -25502,7 +25502,7 @@
       <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -25544,7 +25544,7 @@
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -25634,7 +25634,7 @@
       <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -25780,7 +25780,7 @@
       <c r="G573" t="inlineStr"/>
       <c r="H573" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -25920,7 +25920,7 @@
       <c r="G576" t="inlineStr"/>
       <c r="H576" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -26152,7 +26152,7 @@
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -26242,7 +26242,7 @@
       <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -26424,7 +26424,7 @@
       <c r="G587" t="inlineStr"/>
       <c r="H587" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -26466,7 +26466,7 @@
       <c r="G588" t="inlineStr"/>
       <c r="H588" t="inlineStr">
         <is>
-          <t>SideRoad,Right / SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -26508,7 +26508,7 @@
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -26592,7 +26592,7 @@
       <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -26724,7 +26724,7 @@
       <c r="G594" t="inlineStr"/>
       <c r="H594" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -26814,7 +26814,7 @@
       <c r="G596" t="inlineStr"/>
       <c r="H596" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -26856,7 +26856,7 @@
       <c r="G597" t="inlineStr"/>
       <c r="H597" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -27024,7 +27024,7 @@
       <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -27156,7 +27156,7 @@
       <c r="G604" t="inlineStr"/>
       <c r="H604" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -27198,7 +27198,7 @@
       <c r="G605" t="inlineStr"/>
       <c r="H605" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -27240,7 +27240,7 @@
       <c r="G606" t="inlineStr"/>
       <c r="H606" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -27330,7 +27330,7 @@
       <c r="G608" t="inlineStr"/>
       <c r="H608" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -27414,7 +27414,7 @@
       <c r="G610" t="inlineStr"/>
       <c r="H610" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -27498,7 +27498,7 @@
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -27540,7 +27540,7 @@
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -27672,7 +27672,7 @@
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -27714,7 +27714,7 @@
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -27804,7 +27804,7 @@
       <c r="G619" t="inlineStr"/>
       <c r="H619" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -27846,7 +27846,7 @@
       <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -27930,7 +27930,7 @@
       <c r="G622" t="inlineStr"/>
       <c r="H622" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -27972,7 +27972,7 @@
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -28118,7 +28118,7 @@
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -28160,7 +28160,7 @@
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -28250,7 +28250,7 @@
       <c r="G629" t="inlineStr"/>
       <c r="H629" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -28292,7 +28292,7 @@
       <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -28334,7 +28334,7 @@
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -28424,7 +28424,7 @@
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -28466,7 +28466,7 @@
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -28606,7 +28606,7 @@
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -28648,7 +28648,7 @@
       <c r="G638" t="inlineStr"/>
       <c r="H638" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -28738,7 +28738,7 @@
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -28870,7 +28870,7 @@
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -29058,7 +29058,7 @@
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -29184,7 +29184,7 @@
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -29268,7 +29268,7 @@
       <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -29394,7 +29394,7 @@
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -29576,7 +29576,7 @@
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -29752,7 +29752,7 @@
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -29836,7 +29836,7 @@
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -29878,7 +29878,7 @@
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -30110,7 +30110,7 @@
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -30152,7 +30152,7 @@
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -30194,7 +30194,7 @@
       <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -30236,7 +30236,7 @@
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -30278,7 +30278,7 @@
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -30368,7 +30368,7 @@
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -30410,7 +30410,7 @@
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -30452,7 +30452,7 @@
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -30592,7 +30592,7 @@
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -30732,7 +30732,7 @@
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -30774,7 +30774,7 @@
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -30906,7 +30906,7 @@
       <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -31132,7 +31132,7 @@
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -31264,7 +31264,7 @@
       <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -31354,7 +31354,7 @@
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -31396,7 +31396,7 @@
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -31480,7 +31480,7 @@
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -31522,7 +31522,7 @@
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -31612,7 +31612,7 @@
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -31654,7 +31654,7 @@
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -31744,7 +31744,7 @@
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -31828,7 +31828,7 @@
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -31968,7 +31968,7 @@
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -32156,7 +32156,7 @@
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -32294,7 +32294,7 @@
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -32384,7 +32384,7 @@
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -32468,7 +32468,7 @@
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -32558,7 +32558,7 @@
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -32690,7 +32690,7 @@
       <c r="G729" t="inlineStr"/>
       <c r="H729" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -32774,7 +32774,7 @@
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -32864,7 +32864,7 @@
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -32954,7 +32954,7 @@
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -33086,7 +33086,7 @@
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -33504,7 +33504,7 @@
       <c r="G747" t="inlineStr"/>
       <c r="H747" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -33734,7 +33734,7 @@
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -33776,7 +33776,7 @@
       <c r="G753" t="inlineStr"/>
       <c r="H753" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -33818,7 +33818,7 @@
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -33902,7 +33902,7 @@
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -34084,7 +34084,7 @@
       <c r="G760" t="inlineStr"/>
       <c r="H760" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -34266,7 +34266,7 @@
       <c r="G764" t="inlineStr"/>
       <c r="H764" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -34356,7 +34356,7 @@
       <c r="G766" t="inlineStr"/>
       <c r="H766" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -34488,7 +34488,7 @@
       <c r="G769" t="inlineStr"/>
       <c r="H769" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -34620,7 +34620,7 @@
       <c r="G772" t="inlineStr"/>
       <c r="H772" t="inlineStr">
         <is>
-          <t>KmPost / KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -34758,7 +34758,7 @@
       <c r="G775" t="inlineStr"/>
       <c r="H775" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -34896,7 +34896,7 @@
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -34938,7 +34938,7 @@
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -34980,7 +34980,7 @@
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -35022,7 +35022,7 @@
       <c r="G781" t="inlineStr"/>
       <c r="H781" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -35112,7 +35112,7 @@
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -35202,7 +35202,7 @@
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -35286,7 +35286,7 @@
       <c r="G787" t="inlineStr"/>
       <c r="H787" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -35370,7 +35370,7 @@
       <c r="G789" t="inlineStr"/>
       <c r="H789" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -35510,7 +35510,7 @@
       <c r="G792" t="inlineStr"/>
       <c r="H792" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -35642,7 +35642,7 @@
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -35774,7 +35774,7 @@
       <c r="G798" t="inlineStr"/>
       <c r="H798" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -35864,7 +35864,7 @@
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -35906,7 +35906,7 @@
       <c r="G801" t="inlineStr"/>
       <c r="H801" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -36082,7 +36082,7 @@
       <c r="G805" t="inlineStr"/>
       <c r="H805" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -36166,7 +36166,7 @@
       <c r="G807" t="inlineStr"/>
       <c r="H807" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -36208,7 +36208,7 @@
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -36342,7 +36342,7 @@
       <c r="G811" t="inlineStr"/>
       <c r="H811" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -36384,7 +36384,7 @@
       <c r="G812" t="inlineStr"/>
       <c r="H812" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -36516,7 +36516,7 @@
       <c r="G815" t="inlineStr"/>
       <c r="H815" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -36600,7 +36600,7 @@
       <c r="G817" t="inlineStr"/>
       <c r="H817" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -36732,7 +36732,7 @@
       <c r="G820" t="inlineStr"/>
       <c r="H820" t="inlineStr">
         <is>
-          <t>CrossRoad</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -36816,7 +36816,7 @@
       <c r="G822" t="inlineStr"/>
       <c r="H822" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -36956,7 +36956,7 @@
       <c r="G825" t="inlineStr"/>
       <c r="H825" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -36998,7 +36998,7 @@
       <c r="G826" t="inlineStr"/>
       <c r="H826" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -37040,7 +37040,7 @@
       <c r="G827" t="inlineStr"/>
       <c r="H827" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -37082,7 +37082,7 @@
       <c r="G828" t="inlineStr"/>
       <c r="H828" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -37124,7 +37124,7 @@
       <c r="G829" t="inlineStr"/>
       <c r="H829" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -37214,7 +37214,7 @@
       <c r="G831" t="inlineStr"/>
       <c r="H831" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -37438,7 +37438,7 @@
       <c r="G836" t="inlineStr"/>
       <c r="H836" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -37528,7 +37528,7 @@
       <c r="G838" t="inlineStr"/>
       <c r="H838" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -37570,7 +37570,7 @@
       <c r="G839" t="inlineStr"/>
       <c r="H839" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -37660,7 +37660,7 @@
       <c r="G841" t="inlineStr"/>
       <c r="H841" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -37744,7 +37744,7 @@
       <c r="G843" t="inlineStr"/>
       <c r="H843" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -37828,7 +37828,7 @@
       <c r="G845" t="inlineStr"/>
       <c r="H845" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -37870,7 +37870,7 @@
       <c r="G846" t="inlineStr"/>
       <c r="H846" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -37912,7 +37912,7 @@
       <c r="G847" t="inlineStr"/>
       <c r="H847" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -38100,7 +38100,7 @@
       <c r="G851" t="inlineStr"/>
       <c r="H851" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -38142,7 +38142,7 @@
       <c r="G852" t="inlineStr"/>
       <c r="H852" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -38232,7 +38232,7 @@
       <c r="G854" t="inlineStr"/>
       <c r="H854" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -38378,7 +38378,7 @@
       <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -38602,7 +38602,7 @@
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -38644,7 +38644,7 @@
       <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -38686,7 +38686,7 @@
       <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -38776,7 +38776,7 @@
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -38916,7 +38916,7 @@
       <c r="G869" t="inlineStr"/>
       <c r="H869" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -38958,7 +38958,7 @@
       <c r="G870" t="inlineStr"/>
       <c r="H870" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -39084,7 +39084,7 @@
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -39210,7 +39210,7 @@
       <c r="G876" t="inlineStr"/>
       <c r="H876" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -39342,7 +39342,7 @@
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -39480,7 +39480,7 @@
       <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -39570,7 +39570,7 @@
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -39660,7 +39660,7 @@
       <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -39786,7 +39786,7 @@
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -40012,7 +40012,7 @@
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -40054,7 +40054,7 @@
       <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -40096,7 +40096,7 @@
       <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -40362,7 +40362,7 @@
       <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -40488,7 +40488,7 @@
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -40620,7 +40620,7 @@
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -40710,7 +40710,7 @@
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -40800,7 +40800,7 @@
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -40842,7 +40842,7 @@
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -40932,7 +40932,7 @@
       <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -41064,7 +41064,7 @@
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -41252,7 +41252,7 @@
       <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -41294,7 +41294,7 @@
       <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -41426,7 +41426,7 @@
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -41468,7 +41468,7 @@
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -41644,7 +41644,7 @@
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -41776,7 +41776,7 @@
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -41914,7 +41914,7 @@
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -41998,7 +41998,7 @@
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -42192,7 +42192,7 @@
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -42324,7 +42324,7 @@
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -42414,7 +42414,7 @@
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -42642,7 +42642,7 @@
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -42836,7 +42836,7 @@
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -42974,7 +42974,7 @@
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -43216,7 +43216,7 @@
       <c r="G965" t="inlineStr"/>
       <c r="H965" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -43354,7 +43354,7 @@
       <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -43396,7 +43396,7 @@
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -43534,7 +43534,7 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -43720,7 +43720,7 @@
       <c r="G976" t="inlineStr"/>
       <c r="H976" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -44004,7 +44004,7 @@
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -44184,7 +44184,7 @@
       <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -44364,7 +44364,7 @@
       <c r="G990" t="inlineStr"/>
       <c r="H990" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -44630,7 +44630,7 @@
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -44818,7 +44818,7 @@
       <c r="G1000" t="inlineStr"/>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -45172,7 +45172,7 @@
       <c r="G1008" t="inlineStr"/>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -45556,7 +45556,7 @@
       <c r="G1017" t="inlineStr"/>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -45862,7 +45862,7 @@
       <c r="G1024" t="inlineStr"/>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -46072,7 +46072,7 @@
       <c r="G1029" t="inlineStr"/>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -46300,7 +46300,7 @@
       <c r="G1034" t="inlineStr"/>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -46476,7 +46476,7 @@
       <c r="G1038" t="inlineStr"/>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -46614,7 +46614,7 @@
       <c r="G1041" t="inlineStr"/>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -46754,7 +46754,7 @@
       <c r="G1044" t="inlineStr"/>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -46948,7 +46948,7 @@
       <c r="G1048" t="inlineStr"/>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -47094,7 +47094,7 @@
       <c r="G1051" t="inlineStr"/>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -47234,7 +47234,7 @@
       <c r="G1054" t="inlineStr"/>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -47276,7 +47276,7 @@
       <c r="G1055" t="inlineStr"/>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -47366,7 +47366,7 @@
       <c r="G1057" t="inlineStr"/>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -47542,7 +47542,7 @@
       <c r="G1061" t="inlineStr"/>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -47584,7 +47584,7 @@
       <c r="G1062" t="inlineStr"/>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -47802,7 +47802,7 @@
       <c r="G1067" t="inlineStr"/>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -47844,7 +47844,7 @@
       <c r="G1068" t="inlineStr"/>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -48080,7 +48080,7 @@
       <c r="G1073" t="inlineStr"/>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -48324,7 +48324,7 @@
       <c r="G1078" t="inlineStr"/>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -48554,7 +48554,7 @@
       <c r="G1083" t="inlineStr"/>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -48840,7 +48840,7 @@
       <c r="G1089" t="inlineStr"/>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -48882,7 +48882,7 @@
       <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -49022,7 +49022,7 @@
       <c r="G1093" t="inlineStr"/>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -49064,7 +49064,7 @@
       <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -49106,7 +49106,7 @@
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -49148,7 +49148,7 @@
       <c r="G1096" t="inlineStr"/>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -49286,7 +49286,7 @@
       <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -49466,7 +49466,7 @@
       <c r="G1103" t="inlineStr"/>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -49646,7 +49646,7 @@
       <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -49778,7 +49778,7 @@
       <c r="G1110" t="inlineStr"/>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>SideRoad,Left</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -49820,7 +49820,7 @@
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -50056,7 +50056,7 @@
       <c r="G1116" t="inlineStr"/>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -50250,7 +50250,7 @@
       <c r="G1120" t="inlineStr"/>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -50340,7 +50340,7 @@
       <c r="G1122" t="inlineStr"/>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -50624,7 +50624,7 @@
       <c r="G1128" t="inlineStr"/>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -50950,7 +50950,7 @@
       <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -51232,7 +51232,7 @@
       <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -51420,7 +51420,7 @@
       <c r="G1145" t="inlineStr"/>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -51614,7 +51614,7 @@
       <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -51946,7 +51946,7 @@
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -52230,7 +52230,7 @@
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -52368,7 +52368,7 @@
       <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -52674,7 +52674,7 @@
       <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -52908,7 +52908,7 @@
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>SideRoad,Right</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -53042,7 +53042,7 @@
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -53264,7 +53264,7 @@
       <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -53534,7 +53534,7 @@
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -53800,7 +53800,7 @@
       <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -53980,7 +53980,7 @@
       <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -54250,7 +54250,7 @@
       <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -54472,7 +54472,7 @@
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -54738,7 +54738,7 @@
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -54920,7 +54920,7 @@
       <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -55136,7 +55136,7 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -55324,7 +55324,7 @@
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -55510,7 +55510,7 @@
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -55656,7 +55656,7 @@
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -55794,7 +55794,7 @@
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -55980,7 +55980,7 @@
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -56168,7 +56168,7 @@
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -56258,7 +56258,7 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -56398,7 +56398,7 @@
       <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -56488,7 +56488,7 @@
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -56780,7 +56780,7 @@
       <c r="G1262" t="inlineStr"/>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -57038,7 +57038,7 @@
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -57268,7 +57268,7 @@
       <c r="G1273" t="inlineStr"/>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -57450,7 +57450,7 @@
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -57770,7 +57770,7 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -58038,7 +58038,7 @@
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -58340,7 +58340,7 @@
       <c r="G1297" t="inlineStr"/>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -58558,7 +58558,7 @@
       <c r="G1302" t="inlineStr"/>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -58952,7 +58952,7 @@
       <c r="G1311" t="inlineStr"/>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -59472,7 +59472,7 @@
       <c r="G1323" t="inlineStr"/>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -59606,7 +59606,7 @@
       <c r="G1326" t="inlineStr"/>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -59740,7 +59740,7 @@
       <c r="G1329" t="inlineStr"/>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -59866,7 +59866,7 @@
       <c r="G1332" t="inlineStr"/>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -60000,7 +60000,7 @@
       <c r="G1335" t="inlineStr"/>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
@@ -60176,7 +60176,7 @@
       <c r="G1339" t="inlineStr"/>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>KmPost</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -60218,7 +60218,7 @@
       <c r="G1340" t="inlineStr"/>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">

--- a/EPA1352-G11-A2/check_N1_df.xlsx
+++ b/EPA1352-G11-A2/check_N1_df.xlsx
@@ -516,7 +516,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>source</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -600,7 +600,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -768,7 +768,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -810,7 +810,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -852,7 +852,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,7 +894,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -936,7 +936,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -978,7 +978,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1202,7 +1202,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1244,7 +1244,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1286,7 +1286,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1604,7 +1604,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1792,7 +1792,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1882,7 +1882,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2050,7 +2050,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2184,7 +2184,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2416,7 +2416,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2562,7 +2562,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2700,7 +2700,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2742,7 +2742,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2882,7 +2882,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2966,7 +2966,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3198,7 +3198,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3288,7 +3288,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3420,7 +3420,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3558,7 +3558,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3648,7 +3648,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3982,7 +3982,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4214,7 +4214,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4256,7 +4256,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4390,7 +4390,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4480,7 +4480,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4668,7 +4668,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4710,7 +4710,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5024,7 +5024,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5284,7 +5284,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5368,7 +5368,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5410,7 +5410,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5452,7 +5452,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5586,7 +5586,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5628,7 +5628,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -5670,7 +5670,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5796,7 +5796,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -5838,7 +5838,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5922,7 +5922,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5964,7 +5964,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6006,7 +6006,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6140,7 +6140,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6182,7 +6182,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6316,7 +6316,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6358,7 +6358,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6442,7 +6442,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6484,7 +6484,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6526,7 +6526,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6568,7 +6568,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6708,7 +6708,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6750,7 +6750,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -6792,7 +6792,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -6876,7 +6876,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6918,7 +6918,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7044,7 +7044,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7086,7 +7086,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7128,7 +7128,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7254,7 +7254,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7296,7 +7296,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7338,7 +7338,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7422,7 +7422,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7464,7 +7464,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7554,7 +7554,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7596,7 +7596,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -7638,7 +7638,7 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -7680,7 +7680,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -7722,7 +7722,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -7764,7 +7764,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7904,7 +7904,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -7946,7 +7946,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7988,7 +7988,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8078,7 +8078,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8210,7 +8210,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8252,7 +8252,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8294,7 +8294,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8384,7 +8384,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -8426,7 +8426,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8468,7 +8468,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -8552,7 +8552,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -8642,7 +8642,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -8684,7 +8684,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -8768,7 +8768,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -8810,7 +8810,7 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -8852,7 +8852,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -8894,7 +8894,7 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -8936,7 +8936,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -8978,7 +8978,7 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9112,7 +9112,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9154,7 +9154,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9196,7 +9196,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9238,7 +9238,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -9280,7 +9280,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -9414,7 +9414,7 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -9456,7 +9456,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -9498,7 +9498,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -9540,7 +9540,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -9674,7 +9674,7 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -9716,7 +9716,7 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -9758,7 +9758,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -9848,7 +9848,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -9982,7 +9982,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10024,7 +10024,7 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10198,7 +10198,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -10332,7 +10332,7 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -10374,7 +10374,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -10464,7 +10464,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -10604,7 +10604,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -10688,7 +10688,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -10730,7 +10730,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -10864,7 +10864,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -10906,7 +10906,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -10948,7 +10948,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11088,7 +11088,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -11360,7 +11360,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -11500,7 +11500,7 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -11590,7 +11590,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -11674,7 +11674,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -11716,7 +11716,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -11890,7 +11890,7 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -11980,7 +11980,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -12210,7 +12210,7 @@
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -12348,7 +12348,7 @@
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -12480,7 +12480,7 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -12522,7 +12522,7 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -12606,7 +12606,7 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -12696,7 +12696,7 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -12876,7 +12876,7 @@
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -13016,7 +13016,7 @@
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -13106,7 +13106,7 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -13246,7 +13246,7 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -13336,7 +13336,7 @@
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -13378,7 +13378,7 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -13462,7 +13462,7 @@
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -13552,7 +13552,7 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -13642,7 +13642,7 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -13774,7 +13774,7 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -13864,7 +13864,7 @@
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -13906,7 +13906,7 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14038,7 +14038,7 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14176,7 +14176,7 @@
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -14266,7 +14266,7 @@
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -14442,7 +14442,7 @@
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -14532,7 +14532,7 @@
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -14574,7 +14574,7 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -14658,7 +14658,7 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -14700,7 +14700,7 @@
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -14742,7 +14742,7 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -14784,7 +14784,7 @@
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -14826,7 +14826,7 @@
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -14910,7 +14910,7 @@
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -14952,7 +14952,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -15042,7 +15042,7 @@
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -15084,7 +15084,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -15126,7 +15126,7 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -15252,7 +15252,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -15294,7 +15294,7 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -15336,7 +15336,7 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -15378,7 +15378,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -15554,7 +15554,7 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -15596,7 +15596,7 @@
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -15638,7 +15638,7 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -15680,7 +15680,7 @@
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -15722,7 +15722,7 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -15764,7 +15764,7 @@
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -15898,7 +15898,7 @@
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -15940,7 +15940,7 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -15982,7 +15982,7 @@
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -16024,7 +16024,7 @@
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -16066,7 +16066,7 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -16108,7 +16108,7 @@
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -16150,7 +16150,7 @@
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -16192,7 +16192,7 @@
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -16326,7 +16326,7 @@
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -16368,7 +16368,7 @@
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -16410,7 +16410,7 @@
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -16452,7 +16452,7 @@
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -16494,7 +16494,7 @@
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -16536,7 +16536,7 @@
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -16670,7 +16670,7 @@
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -16760,7 +16760,7 @@
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -16802,7 +16802,7 @@
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -16844,7 +16844,7 @@
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -16886,7 +16886,7 @@
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -16970,7 +16970,7 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -17108,7 +17108,7 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -17246,7 +17246,7 @@
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -17384,7 +17384,7 @@
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -17522,7 +17522,7 @@
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -17752,7 +17752,7 @@
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -17836,7 +17836,7 @@
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -17920,7 +17920,7 @@
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -17962,7 +17962,7 @@
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -18130,7 +18130,7 @@
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -18220,7 +18220,7 @@
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -18352,7 +18352,7 @@
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -18436,7 +18436,7 @@
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -18526,7 +18526,7 @@
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -18610,7 +18610,7 @@
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -18742,7 +18742,7 @@
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -18832,7 +18832,7 @@
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -18978,7 +18978,7 @@
       <c r="G421" t="inlineStr"/>
       <c r="H421" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -19062,7 +19062,7 @@
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -19236,7 +19236,7 @@
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -19326,7 +19326,7 @@
       <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -19452,7 +19452,7 @@
       <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -19584,7 +19584,7 @@
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -19758,7 +19758,7 @@
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -19848,7 +19848,7 @@
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -19980,7 +19980,7 @@
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -20118,7 +20118,7 @@
       <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -20160,7 +20160,7 @@
       <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -20286,7 +20286,7 @@
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -20424,7 +20424,7 @@
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -20550,7 +20550,7 @@
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -20688,7 +20688,7 @@
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -20778,7 +20778,7 @@
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -20916,7 +20916,7 @@
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -21182,7 +21182,7 @@
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -21314,7 +21314,7 @@
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -21404,7 +21404,7 @@
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -21620,7 +21620,7 @@
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -21710,7 +21710,7 @@
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -21850,7 +21850,7 @@
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -21934,7 +21934,7 @@
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -22080,7 +22080,7 @@
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -22346,7 +22346,7 @@
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -22492,7 +22492,7 @@
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -22582,7 +22582,7 @@
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -22672,7 +22672,7 @@
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -22806,7 +22806,7 @@
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -23080,7 +23080,7 @@
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -23360,7 +23360,7 @@
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -23500,7 +23500,7 @@
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -23590,7 +23590,7 @@
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -23856,7 +23856,7 @@
       <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -23898,7 +23898,7 @@
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -24038,7 +24038,7 @@
       <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -24080,7 +24080,7 @@
       <c r="G535" t="inlineStr"/>
       <c r="H535" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -24226,7 +24226,7 @@
       <c r="G538" t="inlineStr"/>
       <c r="H538" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -24402,7 +24402,7 @@
       <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -24444,7 +24444,7 @@
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -24578,7 +24578,7 @@
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -24620,7 +24620,7 @@
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -24704,7 +24704,7 @@
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -24746,7 +24746,7 @@
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -24788,7 +24788,7 @@
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -24928,7 +24928,7 @@
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -24970,7 +24970,7 @@
       <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -25146,7 +25146,7 @@
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -25376,7 +25376,7 @@
       <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -25418,7 +25418,7 @@
       <c r="G565" t="inlineStr"/>
       <c r="H565" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -25460,7 +25460,7 @@
       <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -25502,7 +25502,7 @@
       <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -25544,7 +25544,7 @@
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -25634,7 +25634,7 @@
       <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -25780,7 +25780,7 @@
       <c r="G573" t="inlineStr"/>
       <c r="H573" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -25920,7 +25920,7 @@
       <c r="G576" t="inlineStr"/>
       <c r="H576" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -26152,7 +26152,7 @@
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -26242,7 +26242,7 @@
       <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -26424,7 +26424,7 @@
       <c r="G587" t="inlineStr"/>
       <c r="H587" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -26466,7 +26466,7 @@
       <c r="G588" t="inlineStr"/>
       <c r="H588" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -26508,7 +26508,7 @@
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -26592,7 +26592,7 @@
       <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -26724,7 +26724,7 @@
       <c r="G594" t="inlineStr"/>
       <c r="H594" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -26814,7 +26814,7 @@
       <c r="G596" t="inlineStr"/>
       <c r="H596" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -26856,7 +26856,7 @@
       <c r="G597" t="inlineStr"/>
       <c r="H597" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -27024,7 +27024,7 @@
       <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -27156,7 +27156,7 @@
       <c r="G604" t="inlineStr"/>
       <c r="H604" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -27198,7 +27198,7 @@
       <c r="G605" t="inlineStr"/>
       <c r="H605" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -27240,7 +27240,7 @@
       <c r="G606" t="inlineStr"/>
       <c r="H606" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -27330,7 +27330,7 @@
       <c r="G608" t="inlineStr"/>
       <c r="H608" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -27414,7 +27414,7 @@
       <c r="G610" t="inlineStr"/>
       <c r="H610" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -27498,7 +27498,7 @@
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -27540,7 +27540,7 @@
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -27672,7 +27672,7 @@
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -27714,7 +27714,7 @@
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -27804,7 +27804,7 @@
       <c r="G619" t="inlineStr"/>
       <c r="H619" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -27846,7 +27846,7 @@
       <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -27930,7 +27930,7 @@
       <c r="G622" t="inlineStr"/>
       <c r="H622" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -27972,7 +27972,7 @@
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -28118,7 +28118,7 @@
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -28160,7 +28160,7 @@
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -28250,7 +28250,7 @@
       <c r="G629" t="inlineStr"/>
       <c r="H629" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -28292,7 +28292,7 @@
       <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -28334,7 +28334,7 @@
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -28424,7 +28424,7 @@
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -28466,7 +28466,7 @@
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -28606,7 +28606,7 @@
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -28648,7 +28648,7 @@
       <c r="G638" t="inlineStr"/>
       <c r="H638" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -28738,7 +28738,7 @@
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -28870,7 +28870,7 @@
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -29058,7 +29058,7 @@
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -29184,7 +29184,7 @@
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -29268,7 +29268,7 @@
       <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -29394,7 +29394,7 @@
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -29576,7 +29576,7 @@
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -29752,7 +29752,7 @@
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -29836,7 +29836,7 @@
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -29878,7 +29878,7 @@
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -30110,7 +30110,7 @@
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -30152,7 +30152,7 @@
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -30194,7 +30194,7 @@
       <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -30236,7 +30236,7 @@
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -30278,7 +30278,7 @@
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -30368,7 +30368,7 @@
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -30410,7 +30410,7 @@
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -30452,7 +30452,7 @@
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -30592,7 +30592,7 @@
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -30732,7 +30732,7 @@
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -30774,7 +30774,7 @@
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -30906,7 +30906,7 @@
       <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -31132,7 +31132,7 @@
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -31264,7 +31264,7 @@
       <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -31354,7 +31354,7 @@
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -31396,7 +31396,7 @@
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -31480,7 +31480,7 @@
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -31522,7 +31522,7 @@
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -31612,7 +31612,7 @@
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -31654,7 +31654,7 @@
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -31744,7 +31744,7 @@
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -31828,7 +31828,7 @@
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -31968,7 +31968,7 @@
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -32156,7 +32156,7 @@
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -32294,7 +32294,7 @@
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -32384,7 +32384,7 @@
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -32468,7 +32468,7 @@
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -32558,7 +32558,7 @@
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -32690,7 +32690,7 @@
       <c r="G729" t="inlineStr"/>
       <c r="H729" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -32774,7 +32774,7 @@
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -32864,7 +32864,7 @@
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -32954,7 +32954,7 @@
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -33086,7 +33086,7 @@
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -33504,7 +33504,7 @@
       <c r="G747" t="inlineStr"/>
       <c r="H747" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -33734,7 +33734,7 @@
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -33776,7 +33776,7 @@
       <c r="G753" t="inlineStr"/>
       <c r="H753" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -33818,7 +33818,7 @@
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -33902,7 +33902,7 @@
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -34084,7 +34084,7 @@
       <c r="G760" t="inlineStr"/>
       <c r="H760" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -34266,7 +34266,7 @@
       <c r="G764" t="inlineStr"/>
       <c r="H764" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -34356,7 +34356,7 @@
       <c r="G766" t="inlineStr"/>
       <c r="H766" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -34488,7 +34488,7 @@
       <c r="G769" t="inlineStr"/>
       <c r="H769" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -34620,7 +34620,7 @@
       <c r="G772" t="inlineStr"/>
       <c r="H772" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -34758,7 +34758,7 @@
       <c r="G775" t="inlineStr"/>
       <c r="H775" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -34896,7 +34896,7 @@
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -34938,7 +34938,7 @@
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -34980,7 +34980,7 @@
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -35022,7 +35022,7 @@
       <c r="G781" t="inlineStr"/>
       <c r="H781" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -35112,7 +35112,7 @@
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -35202,7 +35202,7 @@
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -35286,7 +35286,7 @@
       <c r="G787" t="inlineStr"/>
       <c r="H787" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -35370,7 +35370,7 @@
       <c r="G789" t="inlineStr"/>
       <c r="H789" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -35510,7 +35510,7 @@
       <c r="G792" t="inlineStr"/>
       <c r="H792" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -35642,7 +35642,7 @@
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -35774,7 +35774,7 @@
       <c r="G798" t="inlineStr"/>
       <c r="H798" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -35864,7 +35864,7 @@
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -35906,7 +35906,7 @@
       <c r="G801" t="inlineStr"/>
       <c r="H801" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -36082,7 +36082,7 @@
       <c r="G805" t="inlineStr"/>
       <c r="H805" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -36166,7 +36166,7 @@
       <c r="G807" t="inlineStr"/>
       <c r="H807" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -36208,7 +36208,7 @@
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -36342,7 +36342,7 @@
       <c r="G811" t="inlineStr"/>
       <c r="H811" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -36384,7 +36384,7 @@
       <c r="G812" t="inlineStr"/>
       <c r="H812" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -36516,7 +36516,7 @@
       <c r="G815" t="inlineStr"/>
       <c r="H815" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -36600,7 +36600,7 @@
       <c r="G817" t="inlineStr"/>
       <c r="H817" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -36732,7 +36732,7 @@
       <c r="G820" t="inlineStr"/>
       <c r="H820" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -36816,7 +36816,7 @@
       <c r="G822" t="inlineStr"/>
       <c r="H822" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -36956,7 +36956,7 @@
       <c r="G825" t="inlineStr"/>
       <c r="H825" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -36998,7 +36998,7 @@
       <c r="G826" t="inlineStr"/>
       <c r="H826" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -37040,7 +37040,7 @@
       <c r="G827" t="inlineStr"/>
       <c r="H827" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -37082,7 +37082,7 @@
       <c r="G828" t="inlineStr"/>
       <c r="H828" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -37124,7 +37124,7 @@
       <c r="G829" t="inlineStr"/>
       <c r="H829" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -37214,7 +37214,7 @@
       <c r="G831" t="inlineStr"/>
       <c r="H831" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -37438,7 +37438,7 @@
       <c r="G836" t="inlineStr"/>
       <c r="H836" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -37528,7 +37528,7 @@
       <c r="G838" t="inlineStr"/>
       <c r="H838" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -37570,7 +37570,7 @@
       <c r="G839" t="inlineStr"/>
       <c r="H839" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -37660,7 +37660,7 @@
       <c r="G841" t="inlineStr"/>
       <c r="H841" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -37744,7 +37744,7 @@
       <c r="G843" t="inlineStr"/>
       <c r="H843" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -37828,7 +37828,7 @@
       <c r="G845" t="inlineStr"/>
       <c r="H845" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -37870,7 +37870,7 @@
       <c r="G846" t="inlineStr"/>
       <c r="H846" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -37912,7 +37912,7 @@
       <c r="G847" t="inlineStr"/>
       <c r="H847" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -38100,7 +38100,7 @@
       <c r="G851" t="inlineStr"/>
       <c r="H851" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -38142,7 +38142,7 @@
       <c r="G852" t="inlineStr"/>
       <c r="H852" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -38232,7 +38232,7 @@
       <c r="G854" t="inlineStr"/>
       <c r="H854" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -38378,7 +38378,7 @@
       <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -38602,7 +38602,7 @@
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -38644,7 +38644,7 @@
       <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -38686,7 +38686,7 @@
       <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -38776,7 +38776,7 @@
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -38916,7 +38916,7 @@
       <c r="G869" t="inlineStr"/>
       <c r="H869" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -38958,7 +38958,7 @@
       <c r="G870" t="inlineStr"/>
       <c r="H870" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -39084,7 +39084,7 @@
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -39210,7 +39210,7 @@
       <c r="G876" t="inlineStr"/>
       <c r="H876" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -39342,7 +39342,7 @@
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -39480,7 +39480,7 @@
       <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -39570,7 +39570,7 @@
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -39660,7 +39660,7 @@
       <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -39786,7 +39786,7 @@
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -40012,7 +40012,7 @@
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -40054,7 +40054,7 @@
       <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -40096,7 +40096,7 @@
       <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -40362,7 +40362,7 @@
       <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -40488,7 +40488,7 @@
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -40620,7 +40620,7 @@
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -40710,7 +40710,7 @@
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -40800,7 +40800,7 @@
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -40842,7 +40842,7 @@
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -40932,7 +40932,7 @@
       <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -41064,7 +41064,7 @@
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -41252,7 +41252,7 @@
       <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -41294,7 +41294,7 @@
       <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -41426,7 +41426,7 @@
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -41468,7 +41468,7 @@
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -41644,7 +41644,7 @@
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -41776,7 +41776,7 @@
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -41914,7 +41914,7 @@
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -41998,7 +41998,7 @@
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -42192,7 +42192,7 @@
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -42324,7 +42324,7 @@
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -42414,7 +42414,7 @@
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -42642,7 +42642,7 @@
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -42836,7 +42836,7 @@
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -42974,7 +42974,7 @@
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -43216,7 +43216,7 @@
       <c r="G965" t="inlineStr"/>
       <c r="H965" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -43354,7 +43354,7 @@
       <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -43396,7 +43396,7 @@
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -43534,7 +43534,7 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -43720,7 +43720,7 @@
       <c r="G976" t="inlineStr"/>
       <c r="H976" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -44004,7 +44004,7 @@
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -44184,7 +44184,7 @@
       <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -44364,7 +44364,7 @@
       <c r="G990" t="inlineStr"/>
       <c r="H990" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -44630,7 +44630,7 @@
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -44818,7 +44818,7 @@
       <c r="G1000" t="inlineStr"/>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -45172,7 +45172,7 @@
       <c r="G1008" t="inlineStr"/>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -45556,7 +45556,7 @@
       <c r="G1017" t="inlineStr"/>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -45862,7 +45862,7 @@
       <c r="G1024" t="inlineStr"/>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -46072,7 +46072,7 @@
       <c r="G1029" t="inlineStr"/>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -46300,7 +46300,7 @@
       <c r="G1034" t="inlineStr"/>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -46476,7 +46476,7 @@
       <c r="G1038" t="inlineStr"/>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -46614,7 +46614,7 @@
       <c r="G1041" t="inlineStr"/>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -46754,7 +46754,7 @@
       <c r="G1044" t="inlineStr"/>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -46948,7 +46948,7 @@
       <c r="G1048" t="inlineStr"/>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -47094,7 +47094,7 @@
       <c r="G1051" t="inlineStr"/>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -47234,7 +47234,7 @@
       <c r="G1054" t="inlineStr"/>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -47276,7 +47276,7 @@
       <c r="G1055" t="inlineStr"/>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -47366,7 +47366,7 @@
       <c r="G1057" t="inlineStr"/>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -47542,7 +47542,7 @@
       <c r="G1061" t="inlineStr"/>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -47584,7 +47584,7 @@
       <c r="G1062" t="inlineStr"/>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -47802,7 +47802,7 @@
       <c r="G1067" t="inlineStr"/>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -47844,7 +47844,7 @@
       <c r="G1068" t="inlineStr"/>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -48080,7 +48080,7 @@
       <c r="G1073" t="inlineStr"/>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -48324,7 +48324,7 @@
       <c r="G1078" t="inlineStr"/>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -48554,7 +48554,7 @@
       <c r="G1083" t="inlineStr"/>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -48840,7 +48840,7 @@
       <c r="G1089" t="inlineStr"/>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -48882,7 +48882,7 @@
       <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -49022,7 +49022,7 @@
       <c r="G1093" t="inlineStr"/>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -49064,7 +49064,7 @@
       <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -49106,7 +49106,7 @@
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -49148,7 +49148,7 @@
       <c r="G1096" t="inlineStr"/>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -49286,7 +49286,7 @@
       <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -49466,7 +49466,7 @@
       <c r="G1103" t="inlineStr"/>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -49646,7 +49646,7 @@
       <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -49778,7 +49778,7 @@
       <c r="G1110" t="inlineStr"/>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -49820,7 +49820,7 @@
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -50056,7 +50056,7 @@
       <c r="G1116" t="inlineStr"/>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -50250,7 +50250,7 @@
       <c r="G1120" t="inlineStr"/>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -50340,7 +50340,7 @@
       <c r="G1122" t="inlineStr"/>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -50624,7 +50624,7 @@
       <c r="G1128" t="inlineStr"/>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -50950,7 +50950,7 @@
       <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -51232,7 +51232,7 @@
       <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -51420,7 +51420,7 @@
       <c r="G1145" t="inlineStr"/>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -51614,7 +51614,7 @@
       <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -51946,7 +51946,7 @@
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -52230,7 +52230,7 @@
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -52368,7 +52368,7 @@
       <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -52674,7 +52674,7 @@
       <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -52908,7 +52908,7 @@
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -53042,7 +53042,7 @@
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -53264,7 +53264,7 @@
       <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -53534,7 +53534,7 @@
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -53800,7 +53800,7 @@
       <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -53980,7 +53980,7 @@
       <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -54250,7 +54250,7 @@
       <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -54472,7 +54472,7 @@
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -54738,7 +54738,7 @@
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -54920,7 +54920,7 @@
       <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -55136,7 +55136,7 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -55324,7 +55324,7 @@
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -55510,7 +55510,7 @@
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -55656,7 +55656,7 @@
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -55794,7 +55794,7 @@
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -55980,7 +55980,7 @@
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -56168,7 +56168,7 @@
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -56258,7 +56258,7 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -56398,7 +56398,7 @@
       <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -56488,7 +56488,7 @@
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -56780,7 +56780,7 @@
       <c r="G1262" t="inlineStr"/>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -57038,7 +57038,7 @@
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -57268,7 +57268,7 @@
       <c r="G1273" t="inlineStr"/>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -57450,7 +57450,7 @@
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -57770,7 +57770,7 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -58038,7 +58038,7 @@
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -58340,7 +58340,7 @@
       <c r="G1297" t="inlineStr"/>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -58558,7 +58558,7 @@
       <c r="G1302" t="inlineStr"/>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -58952,7 +58952,7 @@
       <c r="G1311" t="inlineStr"/>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -59472,7 +59472,7 @@
       <c r="G1323" t="inlineStr"/>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -59606,7 +59606,7 @@
       <c r="G1326" t="inlineStr"/>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -59740,7 +59740,7 @@
       <c r="G1329" t="inlineStr"/>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -59866,7 +59866,7 @@
       <c r="G1332" t="inlineStr"/>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -60000,7 +60000,7 @@
       <c r="G1335" t="inlineStr"/>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
@@ -60176,7 +60176,7 @@
       <c r="G1339" t="inlineStr"/>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>link</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -60218,7 +60218,7 @@
       <c r="G1340" t="inlineStr"/>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">

--- a/EPA1352-G11-A2/check_N1_df.xlsx
+++ b/EPA1352-G11-A2/check_N1_df.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>model_type</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">

--- a/EPA1352-G11-A2/check_N1_df.xlsx
+++ b/EPA1352-G11-A2/check_N1_df.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>model_type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>source</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -600,7 +600,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -684,7 +684,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -768,7 +768,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -810,7 +810,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -852,7 +852,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -894,7 +894,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -936,7 +936,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -978,7 +978,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1020,7 +1020,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1062,7 +1062,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1202,7 +1202,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1244,7 +1244,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1286,7 +1286,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1472,7 +1472,7 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1604,7 +1604,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -1792,7 +1792,7 @@
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1882,7 +1882,7 @@
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1924,7 +1924,7 @@
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -2050,7 +2050,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -2184,7 +2184,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2416,7 +2416,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -2562,7 +2562,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -2700,7 +2700,7 @@
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -2742,7 +2742,7 @@
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -2882,7 +2882,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -2966,7 +2966,7 @@
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3198,7 +3198,7 @@
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -3288,7 +3288,7 @@
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -3378,7 +3378,7 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3420,7 +3420,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -3558,7 +3558,7 @@
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -3648,7 +3648,7 @@
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
@@ -3836,7 +3836,7 @@
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -3982,7 +3982,7 @@
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4214,7 +4214,7 @@
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4256,7 +4256,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4390,7 +4390,7 @@
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -4480,7 +4480,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -4668,7 +4668,7 @@
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -4710,7 +4710,7 @@
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -4892,7 +4892,7 @@
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -4982,7 +4982,7 @@
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -5024,7 +5024,7 @@
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
@@ -5108,7 +5108,7 @@
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -5150,7 +5150,7 @@
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5284,7 +5284,7 @@
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -5368,7 +5368,7 @@
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -5410,7 +5410,7 @@
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -5452,7 +5452,7 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
@@ -5586,7 +5586,7 @@
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
@@ -5628,7 +5628,7 @@
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -5670,7 +5670,7 @@
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
@@ -5754,7 +5754,7 @@
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -5796,7 +5796,7 @@
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -5838,7 +5838,7 @@
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -5922,7 +5922,7 @@
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
@@ -5964,7 +5964,7 @@
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
@@ -6006,7 +6006,7 @@
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">
@@ -6140,7 +6140,7 @@
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
@@ -6182,7 +6182,7 @@
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -6316,7 +6316,7 @@
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
@@ -6358,7 +6358,7 @@
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -6442,7 +6442,7 @@
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
@@ -6484,7 +6484,7 @@
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -6526,7 +6526,7 @@
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -6568,7 +6568,7 @@
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -6708,7 +6708,7 @@
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
@@ -6750,7 +6750,7 @@
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -6792,7 +6792,7 @@
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -6876,7 +6876,7 @@
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -6918,7 +6918,7 @@
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
@@ -7044,7 +7044,7 @@
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -7086,7 +7086,7 @@
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -7128,7 +7128,7 @@
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
@@ -7254,7 +7254,7 @@
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
@@ -7296,7 +7296,7 @@
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -7338,7 +7338,7 @@
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -7422,7 +7422,7 @@
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -7464,7 +7464,7 @@
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -7554,7 +7554,7 @@
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7596,7 +7596,7 @@
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -7638,7 +7638,7 @@
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -7680,7 +7680,7 @@
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -7722,7 +7722,7 @@
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -7764,7 +7764,7 @@
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -7904,7 +7904,7 @@
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -7946,7 +7946,7 @@
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -7988,7 +7988,7 @@
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8078,7 +8078,7 @@
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
@@ -8210,7 +8210,7 @@
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -8252,7 +8252,7 @@
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
@@ -8294,7 +8294,7 @@
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
@@ -8384,7 +8384,7 @@
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -8426,7 +8426,7 @@
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8468,7 +8468,7 @@
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -8552,7 +8552,7 @@
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -8642,7 +8642,7 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -8684,7 +8684,7 @@
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -8768,7 +8768,7 @@
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -8810,7 +8810,7 @@
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -8852,7 +8852,7 @@
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
@@ -8894,7 +8894,7 @@
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
@@ -8936,7 +8936,7 @@
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -8978,7 +8978,7 @@
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
@@ -9112,7 +9112,7 @@
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9154,7 +9154,7 @@
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9196,7 +9196,7 @@
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -9238,7 +9238,7 @@
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -9280,7 +9280,7 @@
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -9414,7 +9414,7 @@
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -9456,7 +9456,7 @@
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -9498,7 +9498,7 @@
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -9540,7 +9540,7 @@
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
@@ -9674,7 +9674,7 @@
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
@@ -9716,7 +9716,7 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
@@ -9758,7 +9758,7 @@
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -9848,7 +9848,7 @@
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
@@ -9982,7 +9982,7 @@
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10024,7 +10024,7 @@
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -10198,7 +10198,7 @@
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -10332,7 +10332,7 @@
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -10374,7 +10374,7 @@
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -10464,7 +10464,7 @@
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -10604,7 +10604,7 @@
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
@@ -10688,7 +10688,7 @@
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -10730,7 +10730,7 @@
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -10864,7 +10864,7 @@
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -10906,7 +10906,7 @@
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -10948,7 +10948,7 @@
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11088,7 +11088,7 @@
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
@@ -11270,7 +11270,7 @@
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -11360,7 +11360,7 @@
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -11500,7 +11500,7 @@
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -11590,7 +11590,7 @@
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -11674,7 +11674,7 @@
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
@@ -11716,7 +11716,7 @@
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -11890,7 +11890,7 @@
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -11980,7 +11980,7 @@
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
@@ -12210,7 +12210,7 @@
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I267" t="inlineStr">
@@ -12348,7 +12348,7 @@
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
@@ -12480,7 +12480,7 @@
       <c r="G273" t="inlineStr"/>
       <c r="H273" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -12522,7 +12522,7 @@
       <c r="G274" t="inlineStr"/>
       <c r="H274" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -12606,7 +12606,7 @@
       <c r="G276" t="inlineStr"/>
       <c r="H276" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -12696,7 +12696,7 @@
       <c r="G278" t="inlineStr"/>
       <c r="H278" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -12786,7 +12786,7 @@
       <c r="G280" t="inlineStr"/>
       <c r="H280" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -12876,7 +12876,7 @@
       <c r="G282" t="inlineStr"/>
       <c r="H282" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -13016,7 +13016,7 @@
       <c r="G285" t="inlineStr"/>
       <c r="H285" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -13106,7 +13106,7 @@
       <c r="G287" t="inlineStr"/>
       <c r="H287" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -13246,7 +13246,7 @@
       <c r="G290" t="inlineStr"/>
       <c r="H290" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -13336,7 +13336,7 @@
       <c r="G292" t="inlineStr"/>
       <c r="H292" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -13378,7 +13378,7 @@
       <c r="G293" t="inlineStr"/>
       <c r="H293" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -13462,7 +13462,7 @@
       <c r="G295" t="inlineStr"/>
       <c r="H295" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -13552,7 +13552,7 @@
       <c r="G297" t="inlineStr"/>
       <c r="H297" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -13642,7 +13642,7 @@
       <c r="G299" t="inlineStr"/>
       <c r="H299" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -13774,7 +13774,7 @@
       <c r="G302" t="inlineStr"/>
       <c r="H302" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -13864,7 +13864,7 @@
       <c r="G304" t="inlineStr"/>
       <c r="H304" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -13906,7 +13906,7 @@
       <c r="G305" t="inlineStr"/>
       <c r="H305" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14038,7 +14038,7 @@
       <c r="G308" t="inlineStr"/>
       <c r="H308" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14176,7 +14176,7 @@
       <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -14266,7 +14266,7 @@
       <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -14442,7 +14442,7 @@
       <c r="G317" t="inlineStr"/>
       <c r="H317" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -14532,7 +14532,7 @@
       <c r="G319" t="inlineStr"/>
       <c r="H319" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -14574,7 +14574,7 @@
       <c r="G320" t="inlineStr"/>
       <c r="H320" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -14658,7 +14658,7 @@
       <c r="G322" t="inlineStr"/>
       <c r="H322" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -14700,7 +14700,7 @@
       <c r="G323" t="inlineStr"/>
       <c r="H323" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -14742,7 +14742,7 @@
       <c r="G324" t="inlineStr"/>
       <c r="H324" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -14784,7 +14784,7 @@
       <c r="G325" t="inlineStr"/>
       <c r="H325" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -14826,7 +14826,7 @@
       <c r="G326" t="inlineStr"/>
       <c r="H326" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
@@ -14910,7 +14910,7 @@
       <c r="G328" t="inlineStr"/>
       <c r="H328" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -14952,7 +14952,7 @@
       <c r="G329" t="inlineStr"/>
       <c r="H329" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -15042,7 +15042,7 @@
       <c r="G331" t="inlineStr"/>
       <c r="H331" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -15084,7 +15084,7 @@
       <c r="G332" t="inlineStr"/>
       <c r="H332" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -15126,7 +15126,7 @@
       <c r="G333" t="inlineStr"/>
       <c r="H333" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I333" t="inlineStr">
@@ -15252,7 +15252,7 @@
       <c r="G336" t="inlineStr"/>
       <c r="H336" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
@@ -15294,7 +15294,7 @@
       <c r="G337" t="inlineStr"/>
       <c r="H337" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
@@ -15336,7 +15336,7 @@
       <c r="G338" t="inlineStr"/>
       <c r="H338" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
@@ -15378,7 +15378,7 @@
       <c r="G339" t="inlineStr"/>
       <c r="H339" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -15512,7 +15512,7 @@
       <c r="G342" t="inlineStr"/>
       <c r="H342" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -15554,7 +15554,7 @@
       <c r="G343" t="inlineStr"/>
       <c r="H343" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -15596,7 +15596,7 @@
       <c r="G344" t="inlineStr"/>
       <c r="H344" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -15638,7 +15638,7 @@
       <c r="G345" t="inlineStr"/>
       <c r="H345" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
@@ -15680,7 +15680,7 @@
       <c r="G346" t="inlineStr"/>
       <c r="H346" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I346" t="inlineStr">
@@ -15722,7 +15722,7 @@
       <c r="G347" t="inlineStr"/>
       <c r="H347" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -15764,7 +15764,7 @@
       <c r="G348" t="inlineStr"/>
       <c r="H348" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -15898,7 +15898,7 @@
       <c r="G351" t="inlineStr"/>
       <c r="H351" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -15940,7 +15940,7 @@
       <c r="G352" t="inlineStr"/>
       <c r="H352" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -15982,7 +15982,7 @@
       <c r="G353" t="inlineStr"/>
       <c r="H353" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -16024,7 +16024,7 @@
       <c r="G354" t="inlineStr"/>
       <c r="H354" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -16066,7 +16066,7 @@
       <c r="G355" t="inlineStr"/>
       <c r="H355" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -16108,7 +16108,7 @@
       <c r="G356" t="inlineStr"/>
       <c r="H356" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -16150,7 +16150,7 @@
       <c r="G357" t="inlineStr"/>
       <c r="H357" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -16192,7 +16192,7 @@
       <c r="G358" t="inlineStr"/>
       <c r="H358" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -16326,7 +16326,7 @@
       <c r="G361" t="inlineStr"/>
       <c r="H361" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -16368,7 +16368,7 @@
       <c r="G362" t="inlineStr"/>
       <c r="H362" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -16410,7 +16410,7 @@
       <c r="G363" t="inlineStr"/>
       <c r="H363" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I363" t="inlineStr">
@@ -16452,7 +16452,7 @@
       <c r="G364" t="inlineStr"/>
       <c r="H364" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I364" t="inlineStr">
@@ -16494,7 +16494,7 @@
       <c r="G365" t="inlineStr"/>
       <c r="H365" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -16536,7 +16536,7 @@
       <c r="G366" t="inlineStr"/>
       <c r="H366" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -16670,7 +16670,7 @@
       <c r="G369" t="inlineStr"/>
       <c r="H369" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -16760,7 +16760,7 @@
       <c r="G371" t="inlineStr"/>
       <c r="H371" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -16802,7 +16802,7 @@
       <c r="G372" t="inlineStr"/>
       <c r="H372" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -16844,7 +16844,7 @@
       <c r="G373" t="inlineStr"/>
       <c r="H373" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I373" t="inlineStr">
@@ -16886,7 +16886,7 @@
       <c r="G374" t="inlineStr"/>
       <c r="H374" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I374" t="inlineStr">
@@ -16970,7 +16970,7 @@
       <c r="G376" t="inlineStr"/>
       <c r="H376" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I376" t="inlineStr">
@@ -17108,7 +17108,7 @@
       <c r="G379" t="inlineStr"/>
       <c r="H379" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I379" t="inlineStr">
@@ -17246,7 +17246,7 @@
       <c r="G382" t="inlineStr"/>
       <c r="H382" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I382" t="inlineStr">
@@ -17384,7 +17384,7 @@
       <c r="G385" t="inlineStr"/>
       <c r="H385" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -17522,7 +17522,7 @@
       <c r="G388" t="inlineStr"/>
       <c r="H388" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -17752,7 +17752,7 @@
       <c r="G393" t="inlineStr"/>
       <c r="H393" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -17836,7 +17836,7 @@
       <c r="G395" t="inlineStr"/>
       <c r="H395" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -17920,7 +17920,7 @@
       <c r="G397" t="inlineStr"/>
       <c r="H397" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -17962,7 +17962,7 @@
       <c r="G398" t="inlineStr"/>
       <c r="H398" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -18130,7 +18130,7 @@
       <c r="G402" t="inlineStr"/>
       <c r="H402" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -18220,7 +18220,7 @@
       <c r="G404" t="inlineStr"/>
       <c r="H404" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -18352,7 +18352,7 @@
       <c r="G407" t="inlineStr"/>
       <c r="H407" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -18436,7 +18436,7 @@
       <c r="G409" t="inlineStr"/>
       <c r="H409" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
@@ -18526,7 +18526,7 @@
       <c r="G411" t="inlineStr"/>
       <c r="H411" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -18610,7 +18610,7 @@
       <c r="G413" t="inlineStr"/>
       <c r="H413" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
@@ -18742,7 +18742,7 @@
       <c r="G416" t="inlineStr"/>
       <c r="H416" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -18832,7 +18832,7 @@
       <c r="G418" t="inlineStr"/>
       <c r="H418" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
@@ -18978,7 +18978,7 @@
       <c r="G421" t="inlineStr"/>
       <c r="H421" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
@@ -19062,7 +19062,7 @@
       <c r="G423" t="inlineStr"/>
       <c r="H423" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -19146,7 +19146,7 @@
       <c r="G425" t="inlineStr"/>
       <c r="H425" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
@@ -19236,7 +19236,7 @@
       <c r="G427" t="inlineStr"/>
       <c r="H427" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
@@ -19326,7 +19326,7 @@
       <c r="G429" t="inlineStr"/>
       <c r="H429" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -19452,7 +19452,7 @@
       <c r="G432" t="inlineStr"/>
       <c r="H432" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
@@ -19584,7 +19584,7 @@
       <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -19758,7 +19758,7 @@
       <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
@@ -19848,7 +19848,7 @@
       <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -19980,7 +19980,7 @@
       <c r="G444" t="inlineStr"/>
       <c r="H444" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I444" t="inlineStr">
@@ -20118,7 +20118,7 @@
       <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
@@ -20160,7 +20160,7 @@
       <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
@@ -20286,7 +20286,7 @@
       <c r="G451" t="inlineStr"/>
       <c r="H451" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -20424,7 +20424,7 @@
       <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
@@ -20550,7 +20550,7 @@
       <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I457" t="inlineStr">
@@ -20688,7 +20688,7 @@
       <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I460" t="inlineStr">
@@ -20778,7 +20778,7 @@
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I462" t="inlineStr">
@@ -20916,7 +20916,7 @@
       <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I465" t="inlineStr">
@@ -21182,7 +21182,7 @@
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I471" t="inlineStr">
@@ -21314,7 +21314,7 @@
       <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I474" t="inlineStr">
@@ -21404,7 +21404,7 @@
       <c r="G476" t="inlineStr"/>
       <c r="H476" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I476" t="inlineStr">
@@ -21620,7 +21620,7 @@
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I481" t="inlineStr">
@@ -21710,7 +21710,7 @@
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I483" t="inlineStr">
@@ -21850,7 +21850,7 @@
       <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I486" t="inlineStr">
@@ -21934,7 +21934,7 @@
       <c r="G488" t="inlineStr"/>
       <c r="H488" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I488" t="inlineStr">
@@ -22080,7 +22080,7 @@
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
@@ -22304,7 +22304,7 @@
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
@@ -22346,7 +22346,7 @@
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
@@ -22492,7 +22492,7 @@
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
@@ -22582,7 +22582,7 @@
       <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I502" t="inlineStr">
@@ -22672,7 +22672,7 @@
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I504" t="inlineStr">
@@ -22806,7 +22806,7 @@
       <c r="G507" t="inlineStr"/>
       <c r="H507" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I507" t="inlineStr">
@@ -23080,7 +23080,7 @@
       <c r="G513" t="inlineStr"/>
       <c r="H513" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I513" t="inlineStr">
@@ -23360,7 +23360,7 @@
       <c r="G519" t="inlineStr"/>
       <c r="H519" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I519" t="inlineStr">
@@ -23500,7 +23500,7 @@
       <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I522" t="inlineStr">
@@ -23590,7 +23590,7 @@
       <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I524" t="inlineStr">
@@ -23772,7 +23772,7 @@
       <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I528" t="inlineStr">
@@ -23856,7 +23856,7 @@
       <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I530" t="inlineStr">
@@ -23898,7 +23898,7 @@
       <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I531" t="inlineStr">
@@ -24038,7 +24038,7 @@
       <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I534" t="inlineStr">
@@ -24080,7 +24080,7 @@
       <c r="G535" t="inlineStr"/>
       <c r="H535" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I535" t="inlineStr">
@@ -24226,7 +24226,7 @@
       <c r="G538" t="inlineStr"/>
       <c r="H538" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I538" t="inlineStr">
@@ -24402,7 +24402,7 @@
       <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I542" t="inlineStr">
@@ -24444,7 +24444,7 @@
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I543" t="inlineStr">
@@ -24578,7 +24578,7 @@
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I546" t="inlineStr">
@@ -24620,7 +24620,7 @@
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I547" t="inlineStr">
@@ -24704,7 +24704,7 @@
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I549" t="inlineStr">
@@ -24746,7 +24746,7 @@
       <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I550" t="inlineStr">
@@ -24788,7 +24788,7 @@
       <c r="G551" t="inlineStr"/>
       <c r="H551" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I551" t="inlineStr">
@@ -24928,7 +24928,7 @@
       <c r="G554" t="inlineStr"/>
       <c r="H554" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I554" t="inlineStr">
@@ -24970,7 +24970,7 @@
       <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I555" t="inlineStr">
@@ -25146,7 +25146,7 @@
       <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I559" t="inlineStr">
@@ -25236,7 +25236,7 @@
       <c r="G561" t="inlineStr"/>
       <c r="H561" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I561" t="inlineStr">
@@ -25376,7 +25376,7 @@
       <c r="G564" t="inlineStr"/>
       <c r="H564" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I564" t="inlineStr">
@@ -25418,7 +25418,7 @@
       <c r="G565" t="inlineStr"/>
       <c r="H565" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I565" t="inlineStr">
@@ -25460,7 +25460,7 @@
       <c r="G566" t="inlineStr"/>
       <c r="H566" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I566" t="inlineStr">
@@ -25502,7 +25502,7 @@
       <c r="G567" t="inlineStr"/>
       <c r="H567" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I567" t="inlineStr">
@@ -25544,7 +25544,7 @@
       <c r="G568" t="inlineStr"/>
       <c r="H568" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I568" t="inlineStr">
@@ -25634,7 +25634,7 @@
       <c r="G570" t="inlineStr"/>
       <c r="H570" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I570" t="inlineStr">
@@ -25780,7 +25780,7 @@
       <c r="G573" t="inlineStr"/>
       <c r="H573" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I573" t="inlineStr">
@@ -25920,7 +25920,7 @@
       <c r="G576" t="inlineStr"/>
       <c r="H576" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I576" t="inlineStr">
@@ -26152,7 +26152,7 @@
       <c r="G581" t="inlineStr"/>
       <c r="H581" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I581" t="inlineStr">
@@ -26242,7 +26242,7 @@
       <c r="G583" t="inlineStr"/>
       <c r="H583" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I583" t="inlineStr">
@@ -26424,7 +26424,7 @@
       <c r="G587" t="inlineStr"/>
       <c r="H587" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I587" t="inlineStr">
@@ -26466,7 +26466,7 @@
       <c r="G588" t="inlineStr"/>
       <c r="H588" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I588" t="inlineStr">
@@ -26508,7 +26508,7 @@
       <c r="G589" t="inlineStr"/>
       <c r="H589" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I589" t="inlineStr">
@@ -26592,7 +26592,7 @@
       <c r="G591" t="inlineStr"/>
       <c r="H591" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I591" t="inlineStr">
@@ -26724,7 +26724,7 @@
       <c r="G594" t="inlineStr"/>
       <c r="H594" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I594" t="inlineStr">
@@ -26814,7 +26814,7 @@
       <c r="G596" t="inlineStr"/>
       <c r="H596" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I596" t="inlineStr">
@@ -26856,7 +26856,7 @@
       <c r="G597" t="inlineStr"/>
       <c r="H597" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I597" t="inlineStr">
@@ -27024,7 +27024,7 @@
       <c r="G601" t="inlineStr"/>
       <c r="H601" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I601" t="inlineStr">
@@ -27156,7 +27156,7 @@
       <c r="G604" t="inlineStr"/>
       <c r="H604" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I604" t="inlineStr">
@@ -27198,7 +27198,7 @@
       <c r="G605" t="inlineStr"/>
       <c r="H605" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I605" t="inlineStr">
@@ -27240,7 +27240,7 @@
       <c r="G606" t="inlineStr"/>
       <c r="H606" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
@@ -27330,7 +27330,7 @@
       <c r="G608" t="inlineStr"/>
       <c r="H608" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
@@ -27414,7 +27414,7 @@
       <c r="G610" t="inlineStr"/>
       <c r="H610" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
@@ -27498,7 +27498,7 @@
       <c r="G612" t="inlineStr"/>
       <c r="H612" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
@@ -27540,7 +27540,7 @@
       <c r="G613" t="inlineStr"/>
       <c r="H613" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
@@ -27672,7 +27672,7 @@
       <c r="G616" t="inlineStr"/>
       <c r="H616" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
@@ -27714,7 +27714,7 @@
       <c r="G617" t="inlineStr"/>
       <c r="H617" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
@@ -27804,7 +27804,7 @@
       <c r="G619" t="inlineStr"/>
       <c r="H619" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
@@ -27846,7 +27846,7 @@
       <c r="G620" t="inlineStr"/>
       <c r="H620" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
@@ -27930,7 +27930,7 @@
       <c r="G622" t="inlineStr"/>
       <c r="H622" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
@@ -27972,7 +27972,7 @@
       <c r="G623" t="inlineStr"/>
       <c r="H623" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
@@ -28118,7 +28118,7 @@
       <c r="G626" t="inlineStr"/>
       <c r="H626" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I626" t="inlineStr">
@@ -28160,7 +28160,7 @@
       <c r="G627" t="inlineStr"/>
       <c r="H627" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I627" t="inlineStr">
@@ -28250,7 +28250,7 @@
       <c r="G629" t="inlineStr"/>
       <c r="H629" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I629" t="inlineStr">
@@ -28292,7 +28292,7 @@
       <c r="G630" t="inlineStr"/>
       <c r="H630" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I630" t="inlineStr">
@@ -28334,7 +28334,7 @@
       <c r="G631" t="inlineStr"/>
       <c r="H631" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I631" t="inlineStr">
@@ -28424,7 +28424,7 @@
       <c r="G633" t="inlineStr"/>
       <c r="H633" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I633" t="inlineStr">
@@ -28466,7 +28466,7 @@
       <c r="G634" t="inlineStr"/>
       <c r="H634" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I634" t="inlineStr">
@@ -28606,7 +28606,7 @@
       <c r="G637" t="inlineStr"/>
       <c r="H637" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I637" t="inlineStr">
@@ -28648,7 +28648,7 @@
       <c r="G638" t="inlineStr"/>
       <c r="H638" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I638" t="inlineStr">
@@ -28738,7 +28738,7 @@
       <c r="G640" t="inlineStr"/>
       <c r="H640" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I640" t="inlineStr">
@@ -28870,7 +28870,7 @@
       <c r="G643" t="inlineStr"/>
       <c r="H643" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I643" t="inlineStr">
@@ -29058,7 +29058,7 @@
       <c r="G647" t="inlineStr"/>
       <c r="H647" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I647" t="inlineStr">
@@ -29184,7 +29184,7 @@
       <c r="G650" t="inlineStr"/>
       <c r="H650" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I650" t="inlineStr">
@@ -29268,7 +29268,7 @@
       <c r="G652" t="inlineStr"/>
       <c r="H652" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I652" t="inlineStr">
@@ -29394,7 +29394,7 @@
       <c r="G655" t="inlineStr"/>
       <c r="H655" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I655" t="inlineStr">
@@ -29576,7 +29576,7 @@
       <c r="G659" t="inlineStr"/>
       <c r="H659" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I659" t="inlineStr">
@@ -29752,7 +29752,7 @@
       <c r="G663" t="inlineStr"/>
       <c r="H663" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I663" t="inlineStr">
@@ -29836,7 +29836,7 @@
       <c r="G665" t="inlineStr"/>
       <c r="H665" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I665" t="inlineStr">
@@ -29878,7 +29878,7 @@
       <c r="G666" t="inlineStr"/>
       <c r="H666" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I666" t="inlineStr">
@@ -30110,7 +30110,7 @@
       <c r="G671" t="inlineStr"/>
       <c r="H671" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I671" t="inlineStr">
@@ -30152,7 +30152,7 @@
       <c r="G672" t="inlineStr"/>
       <c r="H672" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I672" t="inlineStr">
@@ -30194,7 +30194,7 @@
       <c r="G673" t="inlineStr"/>
       <c r="H673" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I673" t="inlineStr">
@@ -30236,7 +30236,7 @@
       <c r="G674" t="inlineStr"/>
       <c r="H674" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I674" t="inlineStr">
@@ -30278,7 +30278,7 @@
       <c r="G675" t="inlineStr"/>
       <c r="H675" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I675" t="inlineStr">
@@ -30368,7 +30368,7 @@
       <c r="G677" t="inlineStr"/>
       <c r="H677" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I677" t="inlineStr">
@@ -30410,7 +30410,7 @@
       <c r="G678" t="inlineStr"/>
       <c r="H678" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I678" t="inlineStr">
@@ -30452,7 +30452,7 @@
       <c r="G679" t="inlineStr"/>
       <c r="H679" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I679" t="inlineStr">
@@ -30592,7 +30592,7 @@
       <c r="G682" t="inlineStr"/>
       <c r="H682" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I682" t="inlineStr">
@@ -30732,7 +30732,7 @@
       <c r="G685" t="inlineStr"/>
       <c r="H685" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I685" t="inlineStr">
@@ -30774,7 +30774,7 @@
       <c r="G686" t="inlineStr"/>
       <c r="H686" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I686" t="inlineStr">
@@ -30906,7 +30906,7 @@
       <c r="G689" t="inlineStr"/>
       <c r="H689" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I689" t="inlineStr">
@@ -31132,7 +31132,7 @@
       <c r="G694" t="inlineStr"/>
       <c r="H694" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I694" t="inlineStr">
@@ -31264,7 +31264,7 @@
       <c r="G697" t="inlineStr"/>
       <c r="H697" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I697" t="inlineStr">
@@ -31354,7 +31354,7 @@
       <c r="G699" t="inlineStr"/>
       <c r="H699" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I699" t="inlineStr">
@@ -31396,7 +31396,7 @@
       <c r="G700" t="inlineStr"/>
       <c r="H700" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I700" t="inlineStr">
@@ -31480,7 +31480,7 @@
       <c r="G702" t="inlineStr"/>
       <c r="H702" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I702" t="inlineStr">
@@ -31522,7 +31522,7 @@
       <c r="G703" t="inlineStr"/>
       <c r="H703" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I703" t="inlineStr">
@@ -31612,7 +31612,7 @@
       <c r="G705" t="inlineStr"/>
       <c r="H705" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I705" t="inlineStr">
@@ -31654,7 +31654,7 @@
       <c r="G706" t="inlineStr"/>
       <c r="H706" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I706" t="inlineStr">
@@ -31744,7 +31744,7 @@
       <c r="G708" t="inlineStr"/>
       <c r="H708" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I708" t="inlineStr">
@@ -31828,7 +31828,7 @@
       <c r="G710" t="inlineStr"/>
       <c r="H710" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I710" t="inlineStr">
@@ -31968,7 +31968,7 @@
       <c r="G713" t="inlineStr"/>
       <c r="H713" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I713" t="inlineStr">
@@ -32156,7 +32156,7 @@
       <c r="G717" t="inlineStr"/>
       <c r="H717" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I717" t="inlineStr">
@@ -32294,7 +32294,7 @@
       <c r="G720" t="inlineStr"/>
       <c r="H720" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I720" t="inlineStr">
@@ -32384,7 +32384,7 @@
       <c r="G722" t="inlineStr"/>
       <c r="H722" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I722" t="inlineStr">
@@ -32468,7 +32468,7 @@
       <c r="G724" t="inlineStr"/>
       <c r="H724" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I724" t="inlineStr">
@@ -32558,7 +32558,7 @@
       <c r="G726" t="inlineStr"/>
       <c r="H726" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I726" t="inlineStr">
@@ -32690,7 +32690,7 @@
       <c r="G729" t="inlineStr"/>
       <c r="H729" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I729" t="inlineStr">
@@ -32774,7 +32774,7 @@
       <c r="G731" t="inlineStr"/>
       <c r="H731" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I731" t="inlineStr">
@@ -32864,7 +32864,7 @@
       <c r="G733" t="inlineStr"/>
       <c r="H733" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I733" t="inlineStr">
@@ -32954,7 +32954,7 @@
       <c r="G735" t="inlineStr"/>
       <c r="H735" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I735" t="inlineStr">
@@ -33086,7 +33086,7 @@
       <c r="G738" t="inlineStr"/>
       <c r="H738" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I738" t="inlineStr">
@@ -33316,7 +33316,7 @@
       <c r="G743" t="inlineStr"/>
       <c r="H743" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I743" t="inlineStr">
@@ -33504,7 +33504,7 @@
       <c r="G747" t="inlineStr"/>
       <c r="H747" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I747" t="inlineStr">
@@ -33734,7 +33734,7 @@
       <c r="G752" t="inlineStr"/>
       <c r="H752" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I752" t="inlineStr">
@@ -33776,7 +33776,7 @@
       <c r="G753" t="inlineStr"/>
       <c r="H753" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I753" t="inlineStr">
@@ -33818,7 +33818,7 @@
       <c r="G754" t="inlineStr"/>
       <c r="H754" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I754" t="inlineStr">
@@ -33902,7 +33902,7 @@
       <c r="G756" t="inlineStr"/>
       <c r="H756" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I756" t="inlineStr">
@@ -34084,7 +34084,7 @@
       <c r="G760" t="inlineStr"/>
       <c r="H760" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I760" t="inlineStr">
@@ -34266,7 +34266,7 @@
       <c r="G764" t="inlineStr"/>
       <c r="H764" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I764" t="inlineStr">
@@ -34356,7 +34356,7 @@
       <c r="G766" t="inlineStr"/>
       <c r="H766" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I766" t="inlineStr">
@@ -34488,7 +34488,7 @@
       <c r="G769" t="inlineStr"/>
       <c r="H769" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I769" t="inlineStr">
@@ -34620,7 +34620,7 @@
       <c r="G772" t="inlineStr"/>
       <c r="H772" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I772" t="inlineStr">
@@ -34758,7 +34758,7 @@
       <c r="G775" t="inlineStr"/>
       <c r="H775" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I775" t="inlineStr">
@@ -34896,7 +34896,7 @@
       <c r="G778" t="inlineStr"/>
       <c r="H778" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I778" t="inlineStr">
@@ -34938,7 +34938,7 @@
       <c r="G779" t="inlineStr"/>
       <c r="H779" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I779" t="inlineStr">
@@ -34980,7 +34980,7 @@
       <c r="G780" t="inlineStr"/>
       <c r="H780" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I780" t="inlineStr">
@@ -35022,7 +35022,7 @@
       <c r="G781" t="inlineStr"/>
       <c r="H781" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I781" t="inlineStr">
@@ -35112,7 +35112,7 @@
       <c r="G783" t="inlineStr"/>
       <c r="H783" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I783" t="inlineStr">
@@ -35202,7 +35202,7 @@
       <c r="G785" t="inlineStr"/>
       <c r="H785" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I785" t="inlineStr">
@@ -35286,7 +35286,7 @@
       <c r="G787" t="inlineStr"/>
       <c r="H787" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I787" t="inlineStr">
@@ -35370,7 +35370,7 @@
       <c r="G789" t="inlineStr"/>
       <c r="H789" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I789" t="inlineStr">
@@ -35510,7 +35510,7 @@
       <c r="G792" t="inlineStr"/>
       <c r="H792" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I792" t="inlineStr">
@@ -35642,7 +35642,7 @@
       <c r="G795" t="inlineStr"/>
       <c r="H795" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I795" t="inlineStr">
@@ -35774,7 +35774,7 @@
       <c r="G798" t="inlineStr"/>
       <c r="H798" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I798" t="inlineStr">
@@ -35864,7 +35864,7 @@
       <c r="G800" t="inlineStr"/>
       <c r="H800" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I800" t="inlineStr">
@@ -35906,7 +35906,7 @@
       <c r="G801" t="inlineStr"/>
       <c r="H801" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I801" t="inlineStr">
@@ -36082,7 +36082,7 @@
       <c r="G805" t="inlineStr"/>
       <c r="H805" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I805" t="inlineStr">
@@ -36166,7 +36166,7 @@
       <c r="G807" t="inlineStr"/>
       <c r="H807" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I807" t="inlineStr">
@@ -36208,7 +36208,7 @@
       <c r="G808" t="inlineStr"/>
       <c r="H808" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I808" t="inlineStr">
@@ -36342,7 +36342,7 @@
       <c r="G811" t="inlineStr"/>
       <c r="H811" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I811" t="inlineStr">
@@ -36384,7 +36384,7 @@
       <c r="G812" t="inlineStr"/>
       <c r="H812" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I812" t="inlineStr">
@@ -36516,7 +36516,7 @@
       <c r="G815" t="inlineStr"/>
       <c r="H815" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I815" t="inlineStr">
@@ -36600,7 +36600,7 @@
       <c r="G817" t="inlineStr"/>
       <c r="H817" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I817" t="inlineStr">
@@ -36732,7 +36732,7 @@
       <c r="G820" t="inlineStr"/>
       <c r="H820" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I820" t="inlineStr">
@@ -36816,7 +36816,7 @@
       <c r="G822" t="inlineStr"/>
       <c r="H822" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I822" t="inlineStr">
@@ -36956,7 +36956,7 @@
       <c r="G825" t="inlineStr"/>
       <c r="H825" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I825" t="inlineStr">
@@ -36998,7 +36998,7 @@
       <c r="G826" t="inlineStr"/>
       <c r="H826" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I826" t="inlineStr">
@@ -37040,7 +37040,7 @@
       <c r="G827" t="inlineStr"/>
       <c r="H827" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I827" t="inlineStr">
@@ -37082,7 +37082,7 @@
       <c r="G828" t="inlineStr"/>
       <c r="H828" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I828" t="inlineStr">
@@ -37124,7 +37124,7 @@
       <c r="G829" t="inlineStr"/>
       <c r="H829" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I829" t="inlineStr">
@@ -37214,7 +37214,7 @@
       <c r="G831" t="inlineStr"/>
       <c r="H831" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I831" t="inlineStr">
@@ -37438,7 +37438,7 @@
       <c r="G836" t="inlineStr"/>
       <c r="H836" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I836" t="inlineStr">
@@ -37528,7 +37528,7 @@
       <c r="G838" t="inlineStr"/>
       <c r="H838" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I838" t="inlineStr">
@@ -37570,7 +37570,7 @@
       <c r="G839" t="inlineStr"/>
       <c r="H839" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I839" t="inlineStr">
@@ -37660,7 +37660,7 @@
       <c r="G841" t="inlineStr"/>
       <c r="H841" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I841" t="inlineStr">
@@ -37744,7 +37744,7 @@
       <c r="G843" t="inlineStr"/>
       <c r="H843" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I843" t="inlineStr">
@@ -37828,7 +37828,7 @@
       <c r="G845" t="inlineStr"/>
       <c r="H845" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I845" t="inlineStr">
@@ -37870,7 +37870,7 @@
       <c r="G846" t="inlineStr"/>
       <c r="H846" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I846" t="inlineStr">
@@ -37912,7 +37912,7 @@
       <c r="G847" t="inlineStr"/>
       <c r="H847" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I847" t="inlineStr">
@@ -38100,7 +38100,7 @@
       <c r="G851" t="inlineStr"/>
       <c r="H851" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I851" t="inlineStr">
@@ -38142,7 +38142,7 @@
       <c r="G852" t="inlineStr"/>
       <c r="H852" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I852" t="inlineStr">
@@ -38232,7 +38232,7 @@
       <c r="G854" t="inlineStr"/>
       <c r="H854" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I854" t="inlineStr">
@@ -38378,7 +38378,7 @@
       <c r="G857" t="inlineStr"/>
       <c r="H857" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I857" t="inlineStr">
@@ -38602,7 +38602,7 @@
       <c r="G862" t="inlineStr"/>
       <c r="H862" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I862" t="inlineStr">
@@ -38644,7 +38644,7 @@
       <c r="G863" t="inlineStr"/>
       <c r="H863" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I863" t="inlineStr">
@@ -38686,7 +38686,7 @@
       <c r="G864" t="inlineStr"/>
       <c r="H864" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I864" t="inlineStr">
@@ -38776,7 +38776,7 @@
       <c r="G866" t="inlineStr"/>
       <c r="H866" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I866" t="inlineStr">
@@ -38916,7 +38916,7 @@
       <c r="G869" t="inlineStr"/>
       <c r="H869" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I869" t="inlineStr">
@@ -38958,7 +38958,7 @@
       <c r="G870" t="inlineStr"/>
       <c r="H870" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I870" t="inlineStr">
@@ -39084,7 +39084,7 @@
       <c r="G873" t="inlineStr"/>
       <c r="H873" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I873" t="inlineStr">
@@ -39210,7 +39210,7 @@
       <c r="G876" t="inlineStr"/>
       <c r="H876" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I876" t="inlineStr">
@@ -39342,7 +39342,7 @@
       <c r="G879" t="inlineStr"/>
       <c r="H879" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I879" t="inlineStr">
@@ -39480,7 +39480,7 @@
       <c r="G882" t="inlineStr"/>
       <c r="H882" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I882" t="inlineStr">
@@ -39570,7 +39570,7 @@
       <c r="G884" t="inlineStr"/>
       <c r="H884" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I884" t="inlineStr">
@@ -39660,7 +39660,7 @@
       <c r="G886" t="inlineStr"/>
       <c r="H886" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I886" t="inlineStr">
@@ -39786,7 +39786,7 @@
       <c r="G889" t="inlineStr"/>
       <c r="H889" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I889" t="inlineStr">
@@ -40012,7 +40012,7 @@
       <c r="G894" t="inlineStr"/>
       <c r="H894" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I894" t="inlineStr">
@@ -40054,7 +40054,7 @@
       <c r="G895" t="inlineStr"/>
       <c r="H895" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I895" t="inlineStr">
@@ -40096,7 +40096,7 @@
       <c r="G896" t="inlineStr"/>
       <c r="H896" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I896" t="inlineStr">
@@ -40362,7 +40362,7 @@
       <c r="G902" t="inlineStr"/>
       <c r="H902" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I902" t="inlineStr">
@@ -40488,7 +40488,7 @@
       <c r="G905" t="inlineStr"/>
       <c r="H905" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I905" t="inlineStr">
@@ -40620,7 +40620,7 @@
       <c r="G908" t="inlineStr"/>
       <c r="H908" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I908" t="inlineStr">
@@ -40710,7 +40710,7 @@
       <c r="G910" t="inlineStr"/>
       <c r="H910" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I910" t="inlineStr">
@@ -40800,7 +40800,7 @@
       <c r="G912" t="inlineStr"/>
       <c r="H912" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I912" t="inlineStr">
@@ -40842,7 +40842,7 @@
       <c r="G913" t="inlineStr"/>
       <c r="H913" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I913" t="inlineStr">
@@ -40932,7 +40932,7 @@
       <c r="G915" t="inlineStr"/>
       <c r="H915" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I915" t="inlineStr">
@@ -41064,7 +41064,7 @@
       <c r="G918" t="inlineStr"/>
       <c r="H918" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I918" t="inlineStr">
@@ -41252,7 +41252,7 @@
       <c r="G922" t="inlineStr"/>
       <c r="H922" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I922" t="inlineStr">
@@ -41294,7 +41294,7 @@
       <c r="G923" t="inlineStr"/>
       <c r="H923" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I923" t="inlineStr">
@@ -41426,7 +41426,7 @@
       <c r="G926" t="inlineStr"/>
       <c r="H926" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I926" t="inlineStr">
@@ -41468,7 +41468,7 @@
       <c r="G927" t="inlineStr"/>
       <c r="H927" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I927" t="inlineStr">
@@ -41644,7 +41644,7 @@
       <c r="G931" t="inlineStr"/>
       <c r="H931" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I931" t="inlineStr">
@@ -41776,7 +41776,7 @@
       <c r="G934" t="inlineStr"/>
       <c r="H934" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I934" t="inlineStr">
@@ -41914,7 +41914,7 @@
       <c r="G937" t="inlineStr"/>
       <c r="H937" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I937" t="inlineStr">
@@ -41998,7 +41998,7 @@
       <c r="G939" t="inlineStr"/>
       <c r="H939" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I939" t="inlineStr">
@@ -42192,7 +42192,7 @@
       <c r="G943" t="inlineStr"/>
       <c r="H943" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I943" t="inlineStr">
@@ -42324,7 +42324,7 @@
       <c r="G946" t="inlineStr"/>
       <c r="H946" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I946" t="inlineStr">
@@ -42414,7 +42414,7 @@
       <c r="G948" t="inlineStr"/>
       <c r="H948" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I948" t="inlineStr">
@@ -42642,7 +42642,7 @@
       <c r="G953" t="inlineStr"/>
       <c r="H953" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I953" t="inlineStr">
@@ -42836,7 +42836,7 @@
       <c r="G957" t="inlineStr"/>
       <c r="H957" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I957" t="inlineStr">
@@ -42974,7 +42974,7 @@
       <c r="G960" t="inlineStr"/>
       <c r="H960" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I960" t="inlineStr">
@@ -43216,7 +43216,7 @@
       <c r="G965" t="inlineStr"/>
       <c r="H965" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I965" t="inlineStr">
@@ -43354,7 +43354,7 @@
       <c r="G968" t="inlineStr"/>
       <c r="H968" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I968" t="inlineStr">
@@ -43396,7 +43396,7 @@
       <c r="G969" t="inlineStr"/>
       <c r="H969" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I969" t="inlineStr">
@@ -43534,7 +43534,7 @@
       <c r="G972" t="inlineStr"/>
       <c r="H972" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I972" t="inlineStr">
@@ -43720,7 +43720,7 @@
       <c r="G976" t="inlineStr"/>
       <c r="H976" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I976" t="inlineStr">
@@ -44004,7 +44004,7 @@
       <c r="G982" t="inlineStr"/>
       <c r="H982" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I982" t="inlineStr">
@@ -44184,7 +44184,7 @@
       <c r="G986" t="inlineStr"/>
       <c r="H986" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I986" t="inlineStr">
@@ -44364,7 +44364,7 @@
       <c r="G990" t="inlineStr"/>
       <c r="H990" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I990" t="inlineStr">
@@ -44630,7 +44630,7 @@
       <c r="G996" t="inlineStr"/>
       <c r="H996" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I996" t="inlineStr">
@@ -44818,7 +44818,7 @@
       <c r="G1000" t="inlineStr"/>
       <c r="H1000" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1000" t="inlineStr">
@@ -45172,7 +45172,7 @@
       <c r="G1008" t="inlineStr"/>
       <c r="H1008" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1008" t="inlineStr">
@@ -45556,7 +45556,7 @@
       <c r="G1017" t="inlineStr"/>
       <c r="H1017" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1017" t="inlineStr">
@@ -45862,7 +45862,7 @@
       <c r="G1024" t="inlineStr"/>
       <c r="H1024" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1024" t="inlineStr">
@@ -46072,7 +46072,7 @@
       <c r="G1029" t="inlineStr"/>
       <c r="H1029" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1029" t="inlineStr">
@@ -46300,7 +46300,7 @@
       <c r="G1034" t="inlineStr"/>
       <c r="H1034" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1034" t="inlineStr">
@@ -46476,7 +46476,7 @@
       <c r="G1038" t="inlineStr"/>
       <c r="H1038" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1038" t="inlineStr">
@@ -46614,7 +46614,7 @@
       <c r="G1041" t="inlineStr"/>
       <c r="H1041" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1041" t="inlineStr">
@@ -46754,7 +46754,7 @@
       <c r="G1044" t="inlineStr"/>
       <c r="H1044" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1044" t="inlineStr">
@@ -46948,7 +46948,7 @@
       <c r="G1048" t="inlineStr"/>
       <c r="H1048" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1048" t="inlineStr">
@@ -47094,7 +47094,7 @@
       <c r="G1051" t="inlineStr"/>
       <c r="H1051" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1051" t="inlineStr">
@@ -47234,7 +47234,7 @@
       <c r="G1054" t="inlineStr"/>
       <c r="H1054" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1054" t="inlineStr">
@@ -47276,7 +47276,7 @@
       <c r="G1055" t="inlineStr"/>
       <c r="H1055" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1055" t="inlineStr">
@@ -47366,7 +47366,7 @@
       <c r="G1057" t="inlineStr"/>
       <c r="H1057" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1057" t="inlineStr">
@@ -47542,7 +47542,7 @@
       <c r="G1061" t="inlineStr"/>
       <c r="H1061" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1061" t="inlineStr">
@@ -47584,7 +47584,7 @@
       <c r="G1062" t="inlineStr"/>
       <c r="H1062" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1062" t="inlineStr">
@@ -47802,7 +47802,7 @@
       <c r="G1067" t="inlineStr"/>
       <c r="H1067" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1067" t="inlineStr">
@@ -47844,7 +47844,7 @@
       <c r="G1068" t="inlineStr"/>
       <c r="H1068" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1068" t="inlineStr">
@@ -48080,7 +48080,7 @@
       <c r="G1073" t="inlineStr"/>
       <c r="H1073" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1073" t="inlineStr">
@@ -48324,7 +48324,7 @@
       <c r="G1078" t="inlineStr"/>
       <c r="H1078" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1078" t="inlineStr">
@@ -48554,7 +48554,7 @@
       <c r="G1083" t="inlineStr"/>
       <c r="H1083" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1083" t="inlineStr">
@@ -48840,7 +48840,7 @@
       <c r="G1089" t="inlineStr"/>
       <c r="H1089" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1089" t="inlineStr">
@@ -48882,7 +48882,7 @@
       <c r="G1090" t="inlineStr"/>
       <c r="H1090" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1090" t="inlineStr">
@@ -49022,7 +49022,7 @@
       <c r="G1093" t="inlineStr"/>
       <c r="H1093" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1093" t="inlineStr">
@@ -49064,7 +49064,7 @@
       <c r="G1094" t="inlineStr"/>
       <c r="H1094" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1094" t="inlineStr">
@@ -49106,7 +49106,7 @@
       <c r="G1095" t="inlineStr"/>
       <c r="H1095" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1095" t="inlineStr">
@@ -49148,7 +49148,7 @@
       <c r="G1096" t="inlineStr"/>
       <c r="H1096" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1096" t="inlineStr">
@@ -49286,7 +49286,7 @@
       <c r="G1099" t="inlineStr"/>
       <c r="H1099" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1099" t="inlineStr">
@@ -49466,7 +49466,7 @@
       <c r="G1103" t="inlineStr"/>
       <c r="H1103" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1103" t="inlineStr">
@@ -49646,7 +49646,7 @@
       <c r="G1107" t="inlineStr"/>
       <c r="H1107" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1107" t="inlineStr">
@@ -49778,7 +49778,7 @@
       <c r="G1110" t="inlineStr"/>
       <c r="H1110" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1110" t="inlineStr">
@@ -49820,7 +49820,7 @@
       <c r="G1111" t="inlineStr"/>
       <c r="H1111" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1111" t="inlineStr">
@@ -50056,7 +50056,7 @@
       <c r="G1116" t="inlineStr"/>
       <c r="H1116" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1116" t="inlineStr">
@@ -50250,7 +50250,7 @@
       <c r="G1120" t="inlineStr"/>
       <c r="H1120" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1120" t="inlineStr">
@@ -50340,7 +50340,7 @@
       <c r="G1122" t="inlineStr"/>
       <c r="H1122" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1122" t="inlineStr">
@@ -50624,7 +50624,7 @@
       <c r="G1128" t="inlineStr"/>
       <c r="H1128" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1128" t="inlineStr">
@@ -50950,7 +50950,7 @@
       <c r="G1135" t="inlineStr"/>
       <c r="H1135" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1135" t="inlineStr">
@@ -51232,7 +51232,7 @@
       <c r="G1141" t="inlineStr"/>
       <c r="H1141" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1141" t="inlineStr">
@@ -51420,7 +51420,7 @@
       <c r="G1145" t="inlineStr"/>
       <c r="H1145" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1145" t="inlineStr">
@@ -51614,7 +51614,7 @@
       <c r="G1149" t="inlineStr"/>
       <c r="H1149" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1149" t="inlineStr">
@@ -51946,7 +51946,7 @@
       <c r="G1156" t="inlineStr"/>
       <c r="H1156" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1156" t="inlineStr">
@@ -52230,7 +52230,7 @@
       <c r="G1162" t="inlineStr"/>
       <c r="H1162" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1162" t="inlineStr">
@@ -52368,7 +52368,7 @@
       <c r="G1165" t="inlineStr"/>
       <c r="H1165" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1165" t="inlineStr">
@@ -52674,7 +52674,7 @@
       <c r="G1172" t="inlineStr"/>
       <c r="H1172" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1172" t="inlineStr">
@@ -52908,7 +52908,7 @@
       <c r="G1177" t="inlineStr"/>
       <c r="H1177" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1177" t="inlineStr">
@@ -53042,7 +53042,7 @@
       <c r="G1180" t="inlineStr"/>
       <c r="H1180" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1180" t="inlineStr">
@@ -53264,7 +53264,7 @@
       <c r="G1185" t="inlineStr"/>
       <c r="H1185" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1185" t="inlineStr">
@@ -53534,7 +53534,7 @@
       <c r="G1191" t="inlineStr"/>
       <c r="H1191" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1191" t="inlineStr">
@@ -53800,7 +53800,7 @@
       <c r="G1197" t="inlineStr"/>
       <c r="H1197" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1197" t="inlineStr">
@@ -53980,7 +53980,7 @@
       <c r="G1201" t="inlineStr"/>
       <c r="H1201" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1201" t="inlineStr">
@@ -54250,7 +54250,7 @@
       <c r="G1207" t="inlineStr"/>
       <c r="H1207" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1207" t="inlineStr">
@@ -54472,7 +54472,7 @@
       <c r="G1212" t="inlineStr"/>
       <c r="H1212" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1212" t="inlineStr">
@@ -54738,7 +54738,7 @@
       <c r="G1218" t="inlineStr"/>
       <c r="H1218" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1218" t="inlineStr">
@@ -54920,7 +54920,7 @@
       <c r="G1222" t="inlineStr"/>
       <c r="H1222" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1222" t="inlineStr">
@@ -55136,7 +55136,7 @@
       <c r="G1227" t="inlineStr"/>
       <c r="H1227" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1227" t="inlineStr">
@@ -55324,7 +55324,7 @@
       <c r="G1231" t="inlineStr"/>
       <c r="H1231" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1231" t="inlineStr">
@@ -55510,7 +55510,7 @@
       <c r="G1235" t="inlineStr"/>
       <c r="H1235" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1235" t="inlineStr">
@@ -55656,7 +55656,7 @@
       <c r="G1238" t="inlineStr"/>
       <c r="H1238" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1238" t="inlineStr">
@@ -55794,7 +55794,7 @@
       <c r="G1241" t="inlineStr"/>
       <c r="H1241" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1241" t="inlineStr">
@@ -55980,7 +55980,7 @@
       <c r="G1245" t="inlineStr"/>
       <c r="H1245" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1245" t="inlineStr">
@@ -56168,7 +56168,7 @@
       <c r="G1249" t="inlineStr"/>
       <c r="H1249" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1249" t="inlineStr">
@@ -56258,7 +56258,7 @@
       <c r="G1251" t="inlineStr"/>
       <c r="H1251" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1251" t="inlineStr">
@@ -56398,7 +56398,7 @@
       <c r="G1254" t="inlineStr"/>
       <c r="H1254" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1254" t="inlineStr">
@@ -56488,7 +56488,7 @@
       <c r="G1256" t="inlineStr"/>
       <c r="H1256" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1256" t="inlineStr">
@@ -56780,7 +56780,7 @@
       <c r="G1262" t="inlineStr"/>
       <c r="H1262" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1262" t="inlineStr">
@@ -57038,7 +57038,7 @@
       <c r="G1268" t="inlineStr"/>
       <c r="H1268" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1268" t="inlineStr">
@@ -57268,7 +57268,7 @@
       <c r="G1273" t="inlineStr"/>
       <c r="H1273" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1273" t="inlineStr">
@@ -57450,7 +57450,7 @@
       <c r="G1277" t="inlineStr"/>
       <c r="H1277" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1277" t="inlineStr">
@@ -57770,7 +57770,7 @@
       <c r="G1284" t="inlineStr"/>
       <c r="H1284" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1284" t="inlineStr">
@@ -58038,7 +58038,7 @@
       <c r="G1290" t="inlineStr"/>
       <c r="H1290" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1290" t="inlineStr">
@@ -58340,7 +58340,7 @@
       <c r="G1297" t="inlineStr"/>
       <c r="H1297" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1297" t="inlineStr">
@@ -58558,7 +58558,7 @@
       <c r="G1302" t="inlineStr"/>
       <c r="H1302" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1302" t="inlineStr">
@@ -58952,7 +58952,7 @@
       <c r="G1311" t="inlineStr"/>
       <c r="H1311" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1311" t="inlineStr">
@@ -59472,7 +59472,7 @@
       <c r="G1323" t="inlineStr"/>
       <c r="H1323" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1323" t="inlineStr">
@@ -59606,7 +59606,7 @@
       <c r="G1326" t="inlineStr"/>
       <c r="H1326" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1326" t="inlineStr">
@@ -59740,7 +59740,7 @@
       <c r="G1329" t="inlineStr"/>
       <c r="H1329" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1329" t="inlineStr">
@@ -59866,7 +59866,7 @@
       <c r="G1332" t="inlineStr"/>
       <c r="H1332" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1332" t="inlineStr">
@@ -60000,7 +60000,7 @@
       <c r="G1335" t="inlineStr"/>
       <c r="H1335" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1335" t="inlineStr">
@@ -60176,7 +60176,7 @@
       <c r="G1339" t="inlineStr"/>
       <c r="H1339" t="inlineStr">
         <is>
-          <t>link</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1339" t="inlineStr">
@@ -60218,7 +60218,7 @@
       <c r="G1340" t="inlineStr"/>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>sink</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">

--- a/EPA1352-G11-A2/check_N1_df.xlsx
+++ b/EPA1352-G11-A2/check_N1_df.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>model_type</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -516,7 +516,7 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>source</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -558,7 +558,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -726,7 +726,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1328,7 +1328,7 @@
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1341,14 +1341,8 @@
           <t>N1LRP010a</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>8</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1376,7 +1370,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1389,14 +1383,8 @@
           <t>N1LRP010b</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1424,7 +1412,7 @@
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1437,14 +1425,8 @@
           <t>N1LRP010c</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1514,7 +1496,7 @@
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1527,14 +1509,8 @@
           <t>N1LRP011a</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1562,7 +1538,7 @@
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1834,7 +1810,7 @@
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1847,14 +1823,8 @@
           <t>N1LRP013a</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>27.5</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1966,7 +1936,7 @@
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -2604,7 +2574,7 @@
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -2617,14 +2587,8 @@
           <t>N1LRP019a</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>40.5</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2652,7 +2616,7 @@
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -2665,14 +2629,8 @@
           <t>N1LRP019b</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>40.33</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2924,7 +2882,7 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3462,7 +3420,7 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
@@ -3475,14 +3433,8 @@
           <t>N1LRP026a</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>5.6</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3510,7 +3462,7 @@
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -3523,14 +3475,8 @@
           <t>N1LRP026b</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>5.5</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4432,7 +4378,7 @@
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -4445,14 +4391,8 @@
           <t>N1LRP032a</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>29.85</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4626,7 +4566,7 @@
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -4850,7 +4790,7 @@
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5326,7 +5266,7 @@
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -5712,7 +5652,7 @@
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -5880,7 +5820,7 @@
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -6400,7 +6340,7 @@
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
@@ -6834,7 +6774,7 @@
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -6960,7 +6900,7 @@
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -7170,7 +7110,7 @@
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -7212,7 +7152,7 @@
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -7380,7 +7320,7 @@
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -7506,7 +7446,7 @@
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -7519,14 +7459,8 @@
           <t>N1LRP068a</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8030,7 +7964,7 @@
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8043,14 +7977,8 @@
           <t>N1LRP075a</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8120,7 +8048,7 @@
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -8133,14 +8061,8 @@
           <t>N1LRP076a</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8336,7 +8258,7 @@
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
@@ -8349,14 +8271,8 @@
           <t>N1LRP079a</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8510,7 +8426,7 @@
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -8594,7 +8510,7 @@
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -8607,14 +8523,8 @@
           <t>N1LRP083a</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8726,7 +8636,7 @@
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9800,7 +9710,7 @@
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -9813,14 +9723,8 @@
           <t>N1LRP098a</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10066,7 +9970,7 @@
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -10079,14 +9983,8 @@
           <t>N1LRP101a</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>30.48</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -10114,7 +10012,7 @@
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -10156,7 +10054,7 @@
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
@@ -10416,7 +10314,7 @@
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -10429,14 +10327,8 @@
           <t>N1LRP104a</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>22.8</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10646,7 +10538,7 @@
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -11228,7 +11120,7 @@
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -11312,7 +11204,7 @@
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I247" t="inlineStr">
@@ -11325,14 +11217,8 @@
           <t>N1LRP112a</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11542,7 +11428,7 @@
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -11555,14 +11441,8 @@
           <t>N1LRP114a</t>
         </is>
       </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>6.3</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11632,7 +11512,7 @@
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -11758,7 +11638,7 @@
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -11771,14 +11651,8 @@
           <t>N1LRP117a</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -11806,7 +11680,7 @@
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -11848,7 +11722,7 @@
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
@@ -11932,7 +11806,7 @@
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
@@ -11945,14 +11819,8 @@
           <t>N1LRP118a</t>
         </is>
       </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -12022,7 +11890,7 @@
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -12035,14 +11903,8 @@
           <t>N1LRP119a</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12168,7 +12030,7 @@
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -12252,7 +12114,7 @@
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
@@ -12265,14 +12127,8 @@
           <t>N1LRP120a</t>
         </is>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>2.6</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12300,7 +12156,7 @@
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -12313,14 +12169,8 @@
           <t>N1LRP120b</t>
         </is>
       </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>6</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -12390,7 +12240,7 @@
       <c r="G271" t="inlineStr"/>
       <c r="H271" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -12432,7 +12282,7 @@
       <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -12445,14 +12295,8 @@
           <t>N1LRP121b</t>
         </is>
       </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -12564,7 +12408,7 @@
       <c r="G275" t="inlineStr"/>
       <c r="H275" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -12648,7 +12492,7 @@
       <c r="G277" t="inlineStr"/>
       <c r="H277" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -12661,14 +12505,8 @@
           <t>N1LRP123a</t>
         </is>
       </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12738,7 +12576,7 @@
       <c r="G279" t="inlineStr"/>
       <c r="H279" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -12751,14 +12589,8 @@
           <t>N1LRP124a</t>
         </is>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -12828,7 +12660,7 @@
       <c r="G281" t="inlineStr"/>
       <c r="H281" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -12841,14 +12673,8 @@
           <t>N1LRP125a</t>
         </is>
       </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13058,7 +12884,7 @@
       <c r="G286" t="inlineStr"/>
       <c r="H286" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -13071,14 +12897,8 @@
           <t>N1LRP127a</t>
         </is>
       </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>9.5</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13288,7 +13108,7 @@
       <c r="G291" t="inlineStr"/>
       <c r="H291" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -13301,14 +13121,8 @@
           <t>N1LRP129a</t>
         </is>
       </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13420,7 +13234,7 @@
       <c r="G294" t="inlineStr"/>
       <c r="H294" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -13504,7 +13318,7 @@
       <c r="G296" t="inlineStr"/>
       <c r="H296" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -13517,14 +13331,8 @@
           <t>N1LRP131a</t>
         </is>
       </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>3</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13594,7 +13402,7 @@
       <c r="G298" t="inlineStr"/>
       <c r="H298" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -13607,14 +13415,8 @@
           <t>N1LRP132a</t>
         </is>
       </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -13684,7 +13486,7 @@
       <c r="G300" t="inlineStr"/>
       <c r="H300" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -13697,14 +13499,8 @@
           <t>N1LRP133a</t>
         </is>
       </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>5.3</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -13732,7 +13528,7 @@
       <c r="G301" t="inlineStr"/>
       <c r="H301" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -13816,7 +13612,7 @@
       <c r="G303" t="inlineStr"/>
       <c r="H303" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -13829,14 +13625,8 @@
           <t>N1LRP134a</t>
         </is>
       </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -13948,7 +13738,7 @@
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -13961,14 +13751,8 @@
           <t>N1LRP136a</t>
         </is>
       </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -13996,7 +13780,7 @@
       <c r="G307" t="inlineStr"/>
       <c r="H307" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -14080,7 +13864,7 @@
       <c r="G309" t="inlineStr"/>
       <c r="H309" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -14093,14 +13877,8 @@
           <t>N1LRP137a</t>
         </is>
       </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14128,7 +13906,7 @@
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -14141,14 +13919,8 @@
           <t>N1LRP137b</t>
         </is>
       </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14218,7 +13990,7 @@
       <c r="G312" t="inlineStr"/>
       <c r="H312" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -14231,14 +14003,8 @@
           <t>N1LRP138a</t>
         </is>
       </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>6.1</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -14308,7 +14074,7 @@
       <c r="G314" t="inlineStr"/>
       <c r="H314" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -14484,7 +14250,7 @@
       <c r="G318" t="inlineStr"/>
       <c r="H318" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -14497,14 +14263,8 @@
           <t>N1LRP140a</t>
         </is>
       </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>4</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -14616,7 +14376,7 @@
       <c r="G321" t="inlineStr"/>
       <c r="H321" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -14868,7 +14628,7 @@
       <c r="G327" t="inlineStr"/>
       <c r="H327" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -14994,7 +14754,7 @@
       <c r="G330" t="inlineStr"/>
       <c r="H330" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -15007,14 +14767,8 @@
           <t>N1LRP145a</t>
         </is>
       </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L330" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -15168,7 +14922,7 @@
       <c r="G334" t="inlineStr"/>
       <c r="H334" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -15210,7 +14964,7 @@
       <c r="G335" t="inlineStr"/>
       <c r="H335" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -16712,7 +16466,7 @@
       <c r="G370" t="inlineStr"/>
       <c r="H370" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -16725,14 +16479,8 @@
           <t>N1LRP169a</t>
         </is>
       </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>3</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -16928,7 +16676,7 @@
       <c r="G375" t="inlineStr"/>
       <c r="H375" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I375" t="inlineStr">
@@ -17012,7 +16760,7 @@
       <c r="G377" t="inlineStr"/>
       <c r="H377" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I377" t="inlineStr">
@@ -17025,14 +16773,8 @@
           <t>N1LRP172</t>
         </is>
       </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>4.3</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -17060,7 +16802,7 @@
       <c r="G378" t="inlineStr"/>
       <c r="H378" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I378" t="inlineStr">
@@ -17073,14 +16815,8 @@
           <t>N1LRP172b</t>
         </is>
       </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>2</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -17150,7 +16886,7 @@
       <c r="G380" t="inlineStr"/>
       <c r="H380" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I380" t="inlineStr">
@@ -17163,14 +16899,8 @@
           <t>N1LRP173a</t>
         </is>
       </c>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -17198,7 +16928,7 @@
       <c r="G381" t="inlineStr"/>
       <c r="H381" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I381" t="inlineStr">
@@ -17211,14 +16941,8 @@
           <t>N1LRP173b</t>
         </is>
       </c>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -17288,7 +17012,7 @@
       <c r="G383" t="inlineStr"/>
       <c r="H383" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I383" t="inlineStr">
@@ -17301,14 +17025,8 @@
           <t>N1LRP174a</t>
         </is>
       </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>8.5</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -17336,7 +17054,7 @@
       <c r="G384" t="inlineStr"/>
       <c r="H384" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
@@ -17349,14 +17067,8 @@
           <t>N1LRP174b</t>
         </is>
       </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>3</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -17426,7 +17138,7 @@
       <c r="G386" t="inlineStr"/>
       <c r="H386" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -17439,14 +17151,8 @@
           <t>N1LRP175a</t>
         </is>
       </c>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>3</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -17474,7 +17180,7 @@
       <c r="G387" t="inlineStr"/>
       <c r="H387" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -17487,14 +17193,8 @@
           <t>N1LRP175b</t>
         </is>
       </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>3</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -17668,7 +17368,7 @@
       <c r="G391" t="inlineStr"/>
       <c r="H391" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -17710,7 +17410,7 @@
       <c r="G392" t="inlineStr"/>
       <c r="H392" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -17794,7 +17494,7 @@
       <c r="G394" t="inlineStr"/>
       <c r="H394" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -17878,7 +17578,7 @@
       <c r="G396" t="inlineStr"/>
       <c r="H396" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -18004,7 +17704,7 @@
       <c r="G399" t="inlineStr"/>
       <c r="H399" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -18046,7 +17746,7 @@
       <c r="G400" t="inlineStr"/>
       <c r="H400" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -18088,7 +17788,7 @@
       <c r="G401" t="inlineStr"/>
       <c r="H401" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -18172,7 +17872,7 @@
       <c r="G403" t="inlineStr"/>
       <c r="H403" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -18185,14 +17885,8 @@
           <t>N1LRP181a</t>
         </is>
       </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -18262,7 +17956,7 @@
       <c r="G405" t="inlineStr"/>
       <c r="H405" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -18275,14 +17969,8 @@
           <t>N1LRP182a</t>
         </is>
       </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>23.2</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -18310,7 +17998,7 @@
       <c r="G406" t="inlineStr"/>
       <c r="H406" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -18568,7 +18256,7 @@
       <c r="G412" t="inlineStr"/>
       <c r="H412" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
@@ -18652,7 +18340,7 @@
       <c r="G414" t="inlineStr"/>
       <c r="H414" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
@@ -18665,14 +18353,8 @@
           <t>N1LRP185a</t>
         </is>
       </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>4</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -18700,7 +18382,7 @@
       <c r="G415" t="inlineStr"/>
       <c r="H415" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
@@ -18784,7 +18466,7 @@
       <c r="G417" t="inlineStr"/>
       <c r="H417" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -18797,14 +18479,8 @@
           <t>N1LRP186a</t>
         </is>
       </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>12.9</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -19020,7 +18696,7 @@
       <c r="G422" t="inlineStr"/>
       <c r="H422" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
@@ -19104,7 +18780,7 @@
       <c r="G424" t="inlineStr"/>
       <c r="H424" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
@@ -19188,7 +18864,7 @@
       <c r="G426" t="inlineStr"/>
       <c r="H426" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -19201,14 +18877,8 @@
           <t>N1LRP190a</t>
         </is>
       </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L426" t="n">
-        <v>3</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -19278,7 +18948,7 @@
       <c r="G428" t="inlineStr"/>
       <c r="H428" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
@@ -19291,14 +18961,8 @@
           <t>N1LRP191a</t>
         </is>
       </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L428" t="n">
-        <v>3</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -19368,7 +19032,7 @@
       <c r="G430" t="inlineStr"/>
       <c r="H430" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -19410,7 +19074,7 @@
       <c r="G431" t="inlineStr"/>
       <c r="H431" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -19494,7 +19158,7 @@
       <c r="G433" t="inlineStr"/>
       <c r="H433" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
@@ -19507,14 +19171,8 @@
           <t>N1LRP193a</t>
         </is>
       </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>19.2</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -19542,7 +19200,7 @@
       <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -19626,7 +19284,7 @@
       <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -19639,14 +19297,8 @@
           <t>N1LRP194a</t>
         </is>
       </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -19674,7 +19326,7 @@
       <c r="G437" t="inlineStr"/>
       <c r="H437" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
@@ -19716,7 +19368,7 @@
       <c r="G438" t="inlineStr"/>
       <c r="H438" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
@@ -19800,7 +19452,7 @@
       <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -19813,14 +19465,8 @@
           <t>N1LRP195a</t>
         </is>
       </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -19890,7 +19536,7 @@
       <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -19903,14 +19549,8 @@
           <t>N1LRP196a</t>
         </is>
       </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>6</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -19938,7 +19578,7 @@
       <c r="G443" t="inlineStr"/>
       <c r="H443" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I443" t="inlineStr">
@@ -20022,7 +19662,7 @@
       <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I445" t="inlineStr">
@@ -20035,14 +19675,8 @@
           <t>N1LRP197a</t>
         </is>
       </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>3</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -20070,7 +19704,7 @@
       <c r="G446" t="inlineStr"/>
       <c r="H446" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I446" t="inlineStr">
@@ -20083,14 +19717,8 @@
           <t>N1LRP197b</t>
         </is>
       </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>3</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -20202,7 +19830,7 @@
       <c r="G449" t="inlineStr"/>
       <c r="H449" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -20244,7 +19872,7 @@
       <c r="G450" t="inlineStr"/>
       <c r="H450" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -20328,7 +19956,7 @@
       <c r="G452" t="inlineStr"/>
       <c r="H452" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I452" t="inlineStr">
@@ -20341,14 +19969,8 @@
           <t>N1LRP199a</t>
         </is>
       </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L452" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -20376,7 +19998,7 @@
       <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I453" t="inlineStr">
@@ -20389,14 +20011,8 @@
           <t>N1LRP199b</t>
         </is>
       </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L453" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -20466,7 +20082,7 @@
       <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
@@ -20508,7 +20124,7 @@
       <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I456" t="inlineStr">
@@ -20592,7 +20208,7 @@
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I458" t="inlineStr">
@@ -20605,14 +20221,8 @@
           <t>N1LRP201a</t>
         </is>
       </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L458" t="n">
-        <v>3</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -20640,7 +20250,7 @@
       <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I459" t="inlineStr">
@@ -20653,14 +20263,8 @@
           <t>N1LRP201b</t>
         </is>
       </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L459" t="n">
-        <v>3</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -20730,7 +20334,7 @@
       <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I461" t="inlineStr">
@@ -20743,14 +20347,8 @@
           <t>N1LRP202a</t>
         </is>
       </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L461" t="n">
-        <v>3</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -20820,7 +20418,7 @@
       <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I463" t="inlineStr">
@@ -20833,14 +20431,8 @@
           <t>N1LRP203a</t>
         </is>
       </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L463" t="n">
-        <v>3</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
+      <c r="L463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -20868,7 +20460,7 @@
       <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I464" t="inlineStr">
@@ -20881,14 +20473,8 @@
           <t>N1LRP203b</t>
         </is>
       </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L464" t="n">
-        <v>3</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
+      <c r="L464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -20958,7 +20544,7 @@
       <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I466" t="inlineStr">
@@ -20971,14 +20557,8 @@
           <t>N1LRP204a</t>
         </is>
       </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L466" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
+      <c r="L466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -21006,7 +20586,7 @@
       <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I467" t="inlineStr">
@@ -21140,7 +20720,7 @@
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I470" t="inlineStr">
@@ -21224,7 +20804,7 @@
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I472" t="inlineStr">
@@ -21237,14 +20817,8 @@
           <t>N1LRP205a</t>
         </is>
       </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L472" t="n">
-        <v>3</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
+      <c r="L472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -21272,7 +20846,7 @@
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I473" t="inlineStr">
@@ -21356,7 +20930,7 @@
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I475" t="inlineStr">
@@ -21369,14 +20943,8 @@
           <t>N1LRP206a</t>
         </is>
       </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L475" t="n">
-        <v>2.95</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
+      <c r="L475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -21446,7 +21014,7 @@
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I477" t="inlineStr">
@@ -21459,14 +21027,8 @@
           <t>N1LRP207a</t>
         </is>
       </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L477" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
+      <c r="L477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -21494,7 +21056,7 @@
       <c r="G478" t="inlineStr"/>
       <c r="H478" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I478" t="inlineStr">
@@ -21536,7 +21098,7 @@
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I479" t="inlineStr">
@@ -21578,7 +21140,7 @@
       <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I480" t="inlineStr">
@@ -21662,7 +21224,7 @@
       <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I482" t="inlineStr">
@@ -21675,14 +21237,8 @@
           <t>N1LRP208a</t>
         </is>
       </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L482" t="n">
-        <v>22.25</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
+      <c r="L482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -21892,7 +21448,7 @@
       <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I487" t="inlineStr">
@@ -22122,7 +21678,7 @@
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
@@ -22135,14 +21691,8 @@
           <t>N1LRP211a</t>
         </is>
       </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L492" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
+      <c r="L492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -22262,7 +21812,7 @@
       <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
@@ -22534,7 +22084,7 @@
       <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
@@ -22547,14 +22097,8 @@
           <t>N1LRP214a</t>
         </is>
       </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L501" t="n">
-        <v>8.199999999999999</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
+      <c r="L501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -22624,7 +22168,7 @@
       <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I503" t="inlineStr">
@@ -22637,14 +22181,8 @@
           <t>N1LRP215a</t>
         </is>
       </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L503" t="n">
-        <v>3</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
+      <c r="L503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -22946,7 +22484,7 @@
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I510" t="inlineStr">
@@ -23318,7 +22856,7 @@
       <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I518" t="inlineStr">
@@ -23542,7 +23080,7 @@
       <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I523" t="inlineStr">
@@ -23555,14 +23093,8 @@
           <t>N1LRP220a</t>
         </is>
       </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L523" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
+      <c r="L523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -23632,7 +23164,7 @@
       <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I525" t="inlineStr">
@@ -23645,14 +23177,8 @@
           <t>N1LRP221a</t>
         </is>
       </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L525" t="n">
-        <v>6</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
+      <c r="L525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -23814,7 +23340,7 @@
       <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I529" t="inlineStr">
@@ -24268,7 +23794,7 @@
       <c r="G539" t="inlineStr"/>
       <c r="H539" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I539" t="inlineStr">
@@ -24662,7 +24188,7 @@
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I548" t="inlineStr">
@@ -25012,7 +24538,7 @@
       <c r="G556" t="inlineStr"/>
       <c r="H556" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I556" t="inlineStr">
@@ -25188,7 +24714,7 @@
       <c r="G560" t="inlineStr"/>
       <c r="H560" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I560" t="inlineStr">
@@ -25201,14 +24727,8 @@
           <t>N1LRP233a</t>
         </is>
       </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L560" t="n">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
+      <c r="L560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -25586,7 +25106,7 @@
       <c r="G569" t="inlineStr"/>
       <c r="H569" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I569" t="inlineStr">
@@ -25599,14 +25119,8 @@
           <t>N1LRP245a</t>
         </is>
       </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L569" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
+      <c r="L569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -26550,7 +26064,7 @@
       <c r="G590" t="inlineStr"/>
       <c r="H590" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I590" t="inlineStr">
@@ -26634,7 +26148,7 @@
       <c r="G592" t="inlineStr"/>
       <c r="H592" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I592" t="inlineStr">
@@ -26647,14 +26161,8 @@
           <t>N1LRP252a</t>
         </is>
       </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L592" t="n">
-        <v>3</v>
-      </c>
+      <c r="K592" t="inlineStr"/>
+      <c r="L592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -26682,7 +26190,7 @@
       <c r="G593" t="inlineStr"/>
       <c r="H593" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I593" t="inlineStr">
@@ -26766,7 +26274,7 @@
       <c r="G595" t="inlineStr"/>
       <c r="H595" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I595" t="inlineStr">
@@ -26779,14 +26287,8 @@
           <t>N1LRP253a</t>
         </is>
       </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L595" t="n">
-        <v>5.3</v>
-      </c>
+      <c r="K595" t="inlineStr"/>
+      <c r="L595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -26898,7 +26400,7 @@
       <c r="G598" t="inlineStr"/>
       <c r="H598" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I598" t="inlineStr">
@@ -26940,7 +26442,7 @@
       <c r="G599" t="inlineStr"/>
       <c r="H599" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I599" t="inlineStr">
@@ -27114,7 +26616,7 @@
       <c r="G603" t="inlineStr"/>
       <c r="H603" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I603" t="inlineStr">
@@ -27282,7 +26784,7 @@
       <c r="G607" t="inlineStr"/>
       <c r="H607" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
@@ -27295,14 +26797,8 @@
           <t>N1LRP257a</t>
         </is>
       </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L607" t="n">
-        <v>50.3</v>
-      </c>
+      <c r="K607" t="inlineStr"/>
+      <c r="L607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -27372,7 +26868,7 @@
       <c r="G609" t="inlineStr"/>
       <c r="H609" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
@@ -27456,7 +26952,7 @@
       <c r="G611" t="inlineStr"/>
       <c r="H611" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
@@ -27582,7 +27078,7 @@
       <c r="G614" t="inlineStr"/>
       <c r="H614" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
@@ -27595,14 +27091,8 @@
           <t>N1LRP260a</t>
         </is>
       </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L614" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="K614" t="inlineStr"/>
+      <c r="L614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -27630,7 +27120,7 @@
       <c r="G615" t="inlineStr"/>
       <c r="H615" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
@@ -27756,7 +27246,7 @@
       <c r="G618" t="inlineStr"/>
       <c r="H618" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
@@ -27769,14 +27259,8 @@
           <t>N1LRP261a</t>
         </is>
       </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L618" t="n">
-        <v>61</v>
-      </c>
+      <c r="K618" t="inlineStr"/>
+      <c r="L618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -27888,7 +27372,7 @@
       <c r="G621" t="inlineStr"/>
       <c r="H621" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
@@ -28202,7 +27686,7 @@
       <c r="G628" t="inlineStr"/>
       <c r="H628" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I628" t="inlineStr">
@@ -28215,14 +27699,8 @@
           <t>N1LRP267a</t>
         </is>
       </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L628" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="K628" t="inlineStr"/>
+      <c r="L628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -28376,7 +27854,7 @@
       <c r="G632" t="inlineStr"/>
       <c r="H632" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I632" t="inlineStr">
@@ -28389,14 +27867,8 @@
           <t>N1LRP268b</t>
         </is>
       </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L632" t="n">
-        <v>14</v>
-      </c>
+      <c r="K632" t="inlineStr"/>
+      <c r="L632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -28690,7 +28162,7 @@
       <c r="G639" t="inlineStr"/>
       <c r="H639" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I639" t="inlineStr">
@@ -28703,14 +28175,8 @@
           <t>N1LRP270a</t>
         </is>
       </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L639" t="n">
-        <v>14</v>
-      </c>
+      <c r="K639" t="inlineStr"/>
+      <c r="L639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -28780,7 +28246,7 @@
       <c r="G641" t="inlineStr"/>
       <c r="H641" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I641" t="inlineStr">
@@ -28793,14 +28259,8 @@
           <t>N1LRP271a</t>
         </is>
       </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L641" t="n">
-        <v>9.199999999999999</v>
-      </c>
+      <c r="K641" t="inlineStr"/>
+      <c r="L641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -28828,7 +28288,7 @@
       <c r="G642" t="inlineStr"/>
       <c r="H642" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I642" t="inlineStr">
@@ -29010,7 +28470,7 @@
       <c r="G646" t="inlineStr"/>
       <c r="H646" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I646" t="inlineStr">
@@ -29023,14 +28483,8 @@
           <t>N1LRP272c</t>
         </is>
       </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L646" t="n">
-        <v>9.199999999999999</v>
-      </c>
+      <c r="K646" t="inlineStr"/>
+      <c r="L646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -29100,7 +28554,7 @@
       <c r="G648" t="inlineStr"/>
       <c r="H648" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I648" t="inlineStr">
@@ -29142,7 +28596,7 @@
       <c r="G649" t="inlineStr"/>
       <c r="H649" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I649" t="inlineStr">
@@ -29226,7 +28680,7 @@
       <c r="G651" t="inlineStr"/>
       <c r="H651" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I651" t="inlineStr">
@@ -29310,7 +28764,7 @@
       <c r="G653" t="inlineStr"/>
       <c r="H653" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I653" t="inlineStr">
@@ -29352,7 +28806,7 @@
       <c r="G654" t="inlineStr"/>
       <c r="H654" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I654" t="inlineStr">
@@ -29436,7 +28890,7 @@
       <c r="G656" t="inlineStr"/>
       <c r="H656" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I656" t="inlineStr">
@@ -29449,14 +28903,8 @@
           <t>N1LRP276a</t>
         </is>
       </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -29710,7 +29158,7 @@
       <c r="G662" t="inlineStr"/>
       <c r="H662" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I662" t="inlineStr">
@@ -29794,7 +29242,7 @@
       <c r="G664" t="inlineStr"/>
       <c r="H664" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I664" t="inlineStr">
@@ -30320,7 +29768,7 @@
       <c r="G676" t="inlineStr"/>
       <c r="H676" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I676" t="inlineStr">
@@ -30333,14 +29781,8 @@
           <t>N1LRP283a</t>
         </is>
       </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -30816,7 +30258,7 @@
       <c r="G687" t="inlineStr"/>
       <c r="H687" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I687" t="inlineStr">
@@ -30829,14 +30271,8 @@
           <t>N1LRP289a</t>
         </is>
       </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -30864,7 +30300,7 @@
       <c r="G688" t="inlineStr"/>
       <c r="H688" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I688" t="inlineStr">
@@ -31174,7 +30610,7 @@
       <c r="G695" t="inlineStr"/>
       <c r="H695" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I695" t="inlineStr">
@@ -31187,14 +30623,8 @@
           <t>N1LRP291a</t>
         </is>
       </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>30.3</v>
-      </c>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -31222,7 +30652,7 @@
       <c r="G696" t="inlineStr"/>
       <c r="H696" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I696" t="inlineStr">
@@ -31306,7 +30736,7 @@
       <c r="G698" t="inlineStr"/>
       <c r="H698" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I698" t="inlineStr">
@@ -31319,14 +30749,8 @@
           <t>N1LRP292a</t>
         </is>
       </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -31438,7 +30862,7 @@
       <c r="G701" t="inlineStr"/>
       <c r="H701" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I701" t="inlineStr">
@@ -31564,7 +30988,7 @@
       <c r="G704" t="inlineStr"/>
       <c r="H704" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I704" t="inlineStr">
@@ -31577,14 +31001,8 @@
           <t>N1LRP294a</t>
         </is>
       </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>13.64</v>
-      </c>
+      <c r="K704" t="inlineStr"/>
+      <c r="L704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -31696,7 +31114,7 @@
       <c r="G707" t="inlineStr"/>
       <c r="H707" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I707" t="inlineStr">
@@ -31709,14 +31127,8 @@
           <t>N1LRP296a</t>
         </is>
       </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>2</v>
-      </c>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -31786,7 +31198,7 @@
       <c r="G709" t="inlineStr"/>
       <c r="H709" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I709" t="inlineStr">
@@ -32108,7 +31520,7 @@
       <c r="G716" t="inlineStr"/>
       <c r="H716" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I716" t="inlineStr">
@@ -32121,14 +31533,8 @@
           <t>N1LRP299c</t>
         </is>
       </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L716" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -32198,7 +31604,7 @@
       <c r="G718" t="inlineStr"/>
       <c r="H718" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I718" t="inlineStr">
@@ -32211,14 +31617,8 @@
           <t>N1LRP300a</t>
         </is>
       </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L718" t="n">
-        <v>3</v>
-      </c>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -32246,7 +31646,7 @@
       <c r="G719" t="inlineStr"/>
       <c r="H719" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I719" t="inlineStr">
@@ -32259,14 +31659,8 @@
           <t>N1LRP300b</t>
         </is>
       </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L719" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -32336,7 +31730,7 @@
       <c r="G721" t="inlineStr"/>
       <c r="H721" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I721" t="inlineStr">
@@ -32349,14 +31743,8 @@
           <t>N1LRP301a</t>
         </is>
       </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L721" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -32426,7 +31814,7 @@
       <c r="G723" t="inlineStr"/>
       <c r="H723" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I723" t="inlineStr">
@@ -32510,7 +31898,7 @@
       <c r="G725" t="inlineStr"/>
       <c r="H725" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I725" t="inlineStr">
@@ -32523,14 +31911,8 @@
           <t>N1LRP302a</t>
         </is>
       </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L725" t="n">
-        <v>22.5</v>
-      </c>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -32600,7 +31982,7 @@
       <c r="G727" t="inlineStr"/>
       <c r="H727" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I727" t="inlineStr">
@@ -32613,14 +31995,8 @@
           <t>N1LRP303a</t>
         </is>
       </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -32816,7 +32192,7 @@
       <c r="G732" t="inlineStr"/>
       <c r="H732" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I732" t="inlineStr">
@@ -32829,14 +32205,8 @@
           <t>N1LRP305a</t>
         </is>
       </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>22.4</v>
-      </c>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -32906,7 +32276,7 @@
       <c r="G734" t="inlineStr"/>
       <c r="H734" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I734" t="inlineStr">
@@ -32919,14 +32289,8 @@
           <t>N1LRP306a</t>
         </is>
       </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>3</v>
-      </c>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -32996,7 +32360,7 @@
       <c r="G736" t="inlineStr"/>
       <c r="H736" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I736" t="inlineStr">
@@ -33009,14 +32373,8 @@
           <t>N1LRP307a</t>
         </is>
       </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1.4</v>
-      </c>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -33044,7 +32402,7 @@
       <c r="G737" t="inlineStr"/>
       <c r="H737" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I737" t="inlineStr">
@@ -33128,7 +32486,7 @@
       <c r="G739" t="inlineStr"/>
       <c r="H739" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I739" t="inlineStr">
@@ -33141,14 +32499,8 @@
           <t>N1LRP308a</t>
         </is>
       </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -33176,7 +32528,7 @@
       <c r="G740" t="inlineStr"/>
       <c r="H740" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I740" t="inlineStr">
@@ -33189,14 +32541,8 @@
           <t>N1LRP308b</t>
         </is>
       </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -33358,7 +32704,7 @@
       <c r="G744" t="inlineStr"/>
       <c r="H744" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I744" t="inlineStr">
@@ -33371,14 +32717,8 @@
           <t>N1LRP309a</t>
         </is>
       </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -33650,7 +32990,7 @@
       <c r="G750" t="inlineStr"/>
       <c r="H750" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I750" t="inlineStr">
@@ -33692,7 +33032,7 @@
       <c r="G751" t="inlineStr"/>
       <c r="H751" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I751" t="inlineStr">
@@ -33860,7 +33200,7 @@
       <c r="G755" t="inlineStr"/>
       <c r="H755" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I755" t="inlineStr">
@@ -34042,7 +33382,7 @@
       <c r="G759" t="inlineStr"/>
       <c r="H759" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I759" t="inlineStr">
@@ -34126,7 +33466,7 @@
       <c r="G761" t="inlineStr"/>
       <c r="H761" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I761" t="inlineStr">
@@ -34139,14 +33479,8 @@
           <t>N1LRP314a</t>
         </is>
       </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>9.300000000000001</v>
-      </c>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -34308,7 +33642,7 @@
       <c r="G765" t="inlineStr"/>
       <c r="H765" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I765" t="inlineStr">
@@ -34321,14 +33655,8 @@
           <t>N1LRP315a</t>
         </is>
       </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L765" t="n">
-        <v>3</v>
-      </c>
+      <c r="K765" t="inlineStr"/>
+      <c r="L765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -34398,7 +33726,7 @@
       <c r="G767" t="inlineStr"/>
       <c r="H767" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I767" t="inlineStr">
@@ -34411,14 +33739,8 @@
           <t>N1LRP316a</t>
         </is>
       </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>3</v>
-      </c>
+      <c r="K767" t="inlineStr"/>
+      <c r="L767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -34446,7 +33768,7 @@
       <c r="G768" t="inlineStr"/>
       <c r="H768" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I768" t="inlineStr">
@@ -34530,7 +33852,7 @@
       <c r="G770" t="inlineStr"/>
       <c r="H770" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I770" t="inlineStr">
@@ -34543,14 +33865,8 @@
           <t>N1LRP317a</t>
         </is>
       </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L770" t="n">
-        <v>56.4</v>
-      </c>
+      <c r="K770" t="inlineStr"/>
+      <c r="L770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -34578,7 +33894,7 @@
       <c r="G771" t="inlineStr"/>
       <c r="H771" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I771" t="inlineStr">
@@ -34662,7 +33978,7 @@
       <c r="G773" t="inlineStr"/>
       <c r="H773" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I773" t="inlineStr">
@@ -34675,14 +33991,8 @@
           <t>N1LRP318a</t>
         </is>
       </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L773" t="n">
-        <v>14.3</v>
-      </c>
+      <c r="K773" t="inlineStr"/>
+      <c r="L773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -34710,7 +34020,7 @@
       <c r="G774" t="inlineStr"/>
       <c r="H774" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I774" t="inlineStr">
@@ -34723,14 +34033,8 @@
           <t>N1LRP318b</t>
         </is>
       </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L774" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="K774" t="inlineStr"/>
+      <c r="L774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -34800,7 +34104,7 @@
       <c r="G776" t="inlineStr"/>
       <c r="H776" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I776" t="inlineStr">
@@ -34813,14 +34117,8 @@
           <t>N1LRP319a</t>
         </is>
       </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L776" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K776" t="inlineStr"/>
+      <c r="L776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -34848,7 +34146,7 @@
       <c r="G777" t="inlineStr"/>
       <c r="H777" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I777" t="inlineStr">
@@ -34861,14 +34159,8 @@
           <t>N1LRP319b</t>
         </is>
       </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L777" t="n">
-        <v>3</v>
-      </c>
+      <c r="K777" t="inlineStr"/>
+      <c r="L777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -35064,7 +34356,7 @@
       <c r="G782" t="inlineStr"/>
       <c r="H782" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I782" t="inlineStr">
@@ -35077,14 +34369,8 @@
           <t>N1LRP321b</t>
         </is>
       </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L782" t="n">
-        <v>46</v>
-      </c>
+      <c r="K782" t="inlineStr"/>
+      <c r="L782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -35154,7 +34440,7 @@
       <c r="G784" t="inlineStr"/>
       <c r="H784" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I784" t="inlineStr">
@@ -35167,14 +34453,8 @@
           <t>N1LRP322a</t>
         </is>
       </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L784" t="n">
-        <v>14</v>
-      </c>
+      <c r="K784" t="inlineStr"/>
+      <c r="L784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -35244,7 +34524,7 @@
       <c r="G786" t="inlineStr"/>
       <c r="H786" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I786" t="inlineStr">
@@ -35328,7 +34608,7 @@
       <c r="G788" t="inlineStr"/>
       <c r="H788" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I788" t="inlineStr">
@@ -35552,7 +34832,7 @@
       <c r="G793" t="inlineStr"/>
       <c r="H793" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I793" t="inlineStr">
@@ -35565,14 +34845,8 @@
           <t>N1LRP326a</t>
         </is>
       </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L793" t="n">
-        <v>14.2</v>
-      </c>
+      <c r="K793" t="inlineStr"/>
+      <c r="L793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -35600,7 +34874,7 @@
       <c r="G794" t="inlineStr"/>
       <c r="H794" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I794" t="inlineStr">
@@ -35684,7 +34958,7 @@
       <c r="G796" t="inlineStr"/>
       <c r="H796" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I796" t="inlineStr">
@@ -35697,14 +34971,8 @@
           <t>N1LRP327a</t>
         </is>
       </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L796" t="n">
-        <v>15.7</v>
-      </c>
+      <c r="K796" t="inlineStr"/>
+      <c r="L796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -35732,7 +35000,7 @@
       <c r="G797" t="inlineStr"/>
       <c r="H797" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I797" t="inlineStr">
@@ -35816,7 +35084,7 @@
       <c r="G799" t="inlineStr"/>
       <c r="H799" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I799" t="inlineStr">
@@ -35829,14 +35097,8 @@
           <t>N1LRP328a</t>
         </is>
       </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L799" t="n">
-        <v>300</v>
-      </c>
+      <c r="K799" t="inlineStr"/>
+      <c r="L799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -36040,7 +35302,7 @@
       <c r="G804" t="inlineStr"/>
       <c r="H804" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I804" t="inlineStr">
@@ -36124,7 +35386,7 @@
       <c r="G806" t="inlineStr"/>
       <c r="H806" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I806" t="inlineStr">
@@ -36426,7 +35688,7 @@
       <c r="G813" t="inlineStr"/>
       <c r="H813" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I813" t="inlineStr">
@@ -36439,14 +35701,8 @@
           <t>N1LRP333a</t>
         </is>
       </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L813" t="n">
-        <v>12.6</v>
-      </c>
+      <c r="K813" t="inlineStr"/>
+      <c r="L813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -36474,7 +35730,7 @@
       <c r="G814" t="inlineStr"/>
       <c r="H814" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I814" t="inlineStr">
@@ -36558,7 +35814,7 @@
       <c r="G816" t="inlineStr"/>
       <c r="H816" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I816" t="inlineStr">
@@ -36642,7 +35898,7 @@
       <c r="G818" t="inlineStr"/>
       <c r="H818" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I818" t="inlineStr">
@@ -36655,14 +35911,8 @@
           <t>N1LRP335a</t>
         </is>
       </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L818" t="n">
-        <v>12.8</v>
-      </c>
+      <c r="K818" t="inlineStr"/>
+      <c r="L818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -36690,7 +35940,7 @@
       <c r="G819" t="inlineStr"/>
       <c r="H819" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I819" t="inlineStr">
@@ -36774,7 +36024,7 @@
       <c r="G821" t="inlineStr"/>
       <c r="H821" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I821" t="inlineStr">
@@ -37166,7 +36416,7 @@
       <c r="G830" t="inlineStr"/>
       <c r="H830" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I830" t="inlineStr">
@@ -37179,14 +36429,8 @@
           <t>N1LRP339a</t>
         </is>
       </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>59.6</v>
-      </c>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -37256,7 +36500,7 @@
       <c r="G832" t="inlineStr"/>
       <c r="H832" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I832" t="inlineStr">
@@ -37269,14 +36513,8 @@
           <t>N1LRP340a</t>
         </is>
       </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
@@ -37304,7 +36542,7 @@
       <c r="G833" t="inlineStr"/>
       <c r="H833" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I833" t="inlineStr">
@@ -37480,7 +36718,7 @@
       <c r="G837" t="inlineStr"/>
       <c r="H837" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I837" t="inlineStr">
@@ -37493,14 +36731,8 @@
           <t>N1LRP341a</t>
         </is>
       </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>54.4</v>
-      </c>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
@@ -37612,7 +36844,7 @@
       <c r="G840" t="inlineStr"/>
       <c r="H840" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I840" t="inlineStr">
@@ -37625,14 +36857,8 @@
           <t>N1LRP342a</t>
         </is>
       </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>61</v>
-      </c>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
@@ -37702,7 +36928,7 @@
       <c r="G842" t="inlineStr"/>
       <c r="H842" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I842" t="inlineStr">
@@ -37786,7 +37012,7 @@
       <c r="G844" t="inlineStr"/>
       <c r="H844" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I844" t="inlineStr">
@@ -38058,7 +37284,7 @@
       <c r="G850" t="inlineStr"/>
       <c r="H850" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I850" t="inlineStr">
@@ -38184,7 +37410,7 @@
       <c r="G853" t="inlineStr"/>
       <c r="H853" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I853" t="inlineStr">
@@ -38197,14 +37423,8 @@
           <t>N1LRP348b</t>
         </is>
       </c>
-      <c r="K853" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L853" t="n">
-        <v>14</v>
-      </c>
+      <c r="K853" t="inlineStr"/>
+      <c r="L853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
@@ -38560,7 +37780,7 @@
       <c r="G861" t="inlineStr"/>
       <c r="H861" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I861" t="inlineStr">
@@ -38728,7 +37948,7 @@
       <c r="G865" t="inlineStr"/>
       <c r="H865" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I865" t="inlineStr">
@@ -38741,14 +37961,8 @@
           <t>N1LRP353a</t>
         </is>
       </c>
-      <c r="K865" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L865" t="n">
-        <v>4.8</v>
-      </c>
+      <c r="K865" t="inlineStr"/>
+      <c r="L865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
@@ -39000,7 +38214,7 @@
       <c r="G871" t="inlineStr"/>
       <c r="H871" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I871" t="inlineStr">
@@ -39042,7 +38256,7 @@
       <c r="G872" t="inlineStr"/>
       <c r="H872" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I872" t="inlineStr">
@@ -39126,7 +38340,7 @@
       <c r="G874" t="inlineStr"/>
       <c r="H874" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I874" t="inlineStr">
@@ -39168,7 +38382,7 @@
       <c r="G875" t="inlineStr"/>
       <c r="H875" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I875" t="inlineStr">
@@ -39252,7 +38466,7 @@
       <c r="G877" t="inlineStr"/>
       <c r="H877" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I877" t="inlineStr">
@@ -39265,14 +38479,8 @@
           <t>N1LRP357a</t>
         </is>
       </c>
-      <c r="K877" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L877" t="n">
-        <v>14</v>
-      </c>
+      <c r="K877" t="inlineStr"/>
+      <c r="L877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
@@ -39300,7 +38508,7 @@
       <c r="G878" t="inlineStr"/>
       <c r="H878" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I878" t="inlineStr">
@@ -39384,7 +38592,7 @@
       <c r="G880" t="inlineStr"/>
       <c r="H880" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I880" t="inlineStr">
@@ -39397,14 +38605,8 @@
           <t>N1LRP358a</t>
         </is>
       </c>
-      <c r="K880" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L880" t="n">
-        <v>3</v>
-      </c>
+      <c r="K880" t="inlineStr"/>
+      <c r="L880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
@@ -39432,7 +38634,7 @@
       <c r="G881" t="inlineStr"/>
       <c r="H881" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I881" t="inlineStr">
@@ -39445,14 +38647,8 @@
           <t>N1LRP358b</t>
         </is>
       </c>
-      <c r="K881" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L881" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K881" t="inlineStr"/>
+      <c r="L881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
@@ -39522,7 +38718,7 @@
       <c r="G883" t="inlineStr"/>
       <c r="H883" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I883" t="inlineStr">
@@ -39535,14 +38731,8 @@
           <t>N1LRP359a</t>
         </is>
       </c>
-      <c r="K883" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L883" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
@@ -39612,7 +38802,7 @@
       <c r="G885" t="inlineStr"/>
       <c r="H885" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I885" t="inlineStr">
@@ -39625,14 +38815,8 @@
           <t>N1LRP360a</t>
         </is>
       </c>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>14</v>
-      </c>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
@@ -39702,7 +38886,7 @@
       <c r="G887" t="inlineStr"/>
       <c r="H887" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I887" t="inlineStr">
@@ -39744,7 +38928,7 @@
       <c r="G888" t="inlineStr"/>
       <c r="H888" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I888" t="inlineStr">
@@ -40138,7 +39322,7 @@
       <c r="G897" t="inlineStr"/>
       <c r="H897" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I897" t="inlineStr">
@@ -40151,14 +39335,8 @@
           <t>N1LRP365a</t>
         </is>
       </c>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>14</v>
-      </c>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
@@ -40186,7 +39364,7 @@
       <c r="G898" t="inlineStr"/>
       <c r="H898" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I898" t="inlineStr">
@@ -40320,7 +39498,7 @@
       <c r="G901" t="inlineStr"/>
       <c r="H901" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I901" t="inlineStr">
@@ -40404,7 +39582,7 @@
       <c r="G903" t="inlineStr"/>
       <c r="H903" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I903" t="inlineStr">
@@ -40446,7 +39624,7 @@
       <c r="G904" t="inlineStr"/>
       <c r="H904" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I904" t="inlineStr">
@@ -40530,7 +39708,7 @@
       <c r="G906" t="inlineStr"/>
       <c r="H906" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I906" t="inlineStr">
@@ -40543,14 +39721,8 @@
           <t>N1LRP367a</t>
         </is>
       </c>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>9.199999999999999</v>
-      </c>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" s="1" t="n">
@@ -40578,7 +39750,7 @@
       <c r="G907" t="inlineStr"/>
       <c r="H907" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I907" t="inlineStr">
@@ -40662,7 +39834,7 @@
       <c r="G909" t="inlineStr"/>
       <c r="H909" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I909" t="inlineStr">
@@ -40675,14 +39847,8 @@
           <t>N1LRP368a</t>
         </is>
       </c>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" s="1" t="n">
@@ -40752,7 +39918,7 @@
       <c r="G911" t="inlineStr"/>
       <c r="H911" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I911" t="inlineStr">
@@ -40765,14 +39931,8 @@
           <t>N1LRP369a</t>
         </is>
       </c>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>3</v>
-      </c>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" s="1" t="n">
@@ -40884,7 +40044,7 @@
       <c r="G914" t="inlineStr"/>
       <c r="H914" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I914" t="inlineStr">
@@ -40897,14 +40057,8 @@
           <t>N1LRP371a</t>
         </is>
       </c>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>8.199999999999999</v>
-      </c>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" s="1" t="n">
@@ -40974,7 +40128,7 @@
       <c r="G916" t="inlineStr"/>
       <c r="H916" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I916" t="inlineStr">
@@ -40987,14 +40141,8 @@
           <t>N1LRP372a</t>
         </is>
       </c>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>12.4</v>
-      </c>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" s="1" t="n">
@@ -41022,7 +40170,7 @@
       <c r="G917" t="inlineStr"/>
       <c r="H917" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I917" t="inlineStr">
@@ -41210,7 +40358,7 @@
       <c r="G921" t="inlineStr"/>
       <c r="H921" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I921" t="inlineStr">
@@ -41336,7 +40484,7 @@
       <c r="G924" t="inlineStr"/>
       <c r="H924" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I924" t="inlineStr">
@@ -41349,14 +40497,8 @@
           <t>N1LRP375a</t>
         </is>
       </c>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>13</v>
-      </c>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" s="1" t="n">
@@ -41384,7 +40526,7 @@
       <c r="G925" t="inlineStr"/>
       <c r="H925" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I925" t="inlineStr">
@@ -41510,7 +40652,7 @@
       <c r="G928" t="inlineStr"/>
       <c r="H928" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I928" t="inlineStr">
@@ -41686,7 +40828,7 @@
       <c r="G932" t="inlineStr"/>
       <c r="H932" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I932" t="inlineStr">
@@ -41699,14 +40841,8 @@
           <t>N1LRP377a</t>
         </is>
       </c>
-      <c r="K932" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L932" t="n">
-        <v>148.5</v>
-      </c>
+      <c r="K932" t="inlineStr"/>
+      <c r="L932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" s="1" t="n">
@@ -41734,7 +40870,7 @@
       <c r="G933" t="inlineStr"/>
       <c r="H933" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I933" t="inlineStr">
@@ -41818,7 +40954,7 @@
       <c r="G935" t="inlineStr"/>
       <c r="H935" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I935" t="inlineStr">
@@ -41831,14 +40967,8 @@
           <t>N1LRP378a</t>
         </is>
       </c>
-      <c r="K935" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L935" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="K935" t="inlineStr"/>
+      <c r="L935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" s="1" t="n">
@@ -41866,7 +40996,7 @@
       <c r="G936" t="inlineStr"/>
       <c r="H936" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I936" t="inlineStr">
@@ -41879,14 +41009,8 @@
           <t>N1LRP378b</t>
         </is>
       </c>
-      <c r="K936" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L936" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K936" t="inlineStr"/>
+      <c r="L936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" s="1" t="n">
@@ -41956,7 +41080,7 @@
       <c r="G938" t="inlineStr"/>
       <c r="H938" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I938" t="inlineStr">
@@ -42144,7 +41268,7 @@
       <c r="G942" t="inlineStr"/>
       <c r="H942" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I942" t="inlineStr">
@@ -42157,14 +41281,8 @@
           <t>N1LRP379c</t>
         </is>
       </c>
-      <c r="K942" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L942" t="n">
-        <v>8.1</v>
-      </c>
+      <c r="K942" t="inlineStr"/>
+      <c r="L942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" s="1" t="n">
@@ -42234,7 +41352,7 @@
       <c r="G944" t="inlineStr"/>
       <c r="H944" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I944" t="inlineStr">
@@ -42247,14 +41365,8 @@
           <t>N1LRP380a</t>
         </is>
       </c>
-      <c r="K944" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L944" t="n">
-        <v>10.9</v>
-      </c>
+      <c r="K944" t="inlineStr"/>
+      <c r="L944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" s="1" t="n">
@@ -42282,7 +41394,7 @@
       <c r="G945" t="inlineStr"/>
       <c r="H945" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I945" t="inlineStr">
@@ -42366,7 +41478,7 @@
       <c r="G947" t="inlineStr"/>
       <c r="H947" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I947" t="inlineStr">
@@ -42379,14 +41491,8 @@
           <t>N1LRP381a</t>
         </is>
       </c>
-      <c r="K947" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L947" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="K947" t="inlineStr"/>
+      <c r="L947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" s="1" t="n">
@@ -42456,7 +41562,7 @@
       <c r="G949" t="inlineStr"/>
       <c r="H949" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I949" t="inlineStr">
@@ -42469,14 +41575,8 @@
           <t>N1LRP382a</t>
         </is>
       </c>
-      <c r="K949" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L949" t="n">
-        <v>3</v>
-      </c>
+      <c r="K949" t="inlineStr"/>
+      <c r="L949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" s="1" t="n">
@@ -42504,7 +41604,7 @@
       <c r="G950" t="inlineStr"/>
       <c r="H950" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I950" t="inlineStr">
@@ -42517,14 +41617,8 @@
           <t>N1LRP382b</t>
         </is>
       </c>
-      <c r="K950" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L950" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K950" t="inlineStr"/>
+      <c r="L950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" s="1" t="n">
@@ -42552,7 +41646,7 @@
       <c r="G951" t="inlineStr"/>
       <c r="H951" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I951" t="inlineStr">
@@ -42565,14 +41659,8 @@
           <t>N1LRP382c</t>
         </is>
       </c>
-      <c r="K951" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L951" t="n">
-        <v>10</v>
-      </c>
+      <c r="K951" t="inlineStr"/>
+      <c r="L951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" s="1" t="n">
@@ -42600,7 +41688,7 @@
       <c r="G952" t="inlineStr"/>
       <c r="H952" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I952" t="inlineStr">
@@ -42684,7 +41772,7 @@
       <c r="G954" t="inlineStr"/>
       <c r="H954" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I954" t="inlineStr">
@@ -42697,14 +41785,8 @@
           <t>N1LRP383a</t>
         </is>
       </c>
-      <c r="K954" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L954" t="n">
-        <v>1.6</v>
-      </c>
+      <c r="K954" t="inlineStr"/>
+      <c r="L954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" s="1" t="n">
@@ -42878,7 +41960,7 @@
       <c r="G958" t="inlineStr"/>
       <c r="H958" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I958" t="inlineStr">
@@ -42891,14 +41973,8 @@
           <t>N1LRP384a</t>
         </is>
       </c>
-      <c r="K958" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L958" t="n">
-        <v>8.300000000000001</v>
-      </c>
+      <c r="K958" t="inlineStr"/>
+      <c r="L958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
@@ -42926,7 +42002,7 @@
       <c r="G959" t="inlineStr"/>
       <c r="H959" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I959" t="inlineStr">
@@ -42939,14 +42015,8 @@
           <t>N1LRP384b</t>
         </is>
       </c>
-      <c r="K959" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L959" t="n">
-        <v>22</v>
-      </c>
+      <c r="K959" t="inlineStr"/>
+      <c r="L959" t="inlineStr"/>
     </row>
     <row r="960">
       <c r="A960" s="1" t="n">
@@ -43016,7 +42086,7 @@
       <c r="G961" t="inlineStr"/>
       <c r="H961" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I961" t="inlineStr">
@@ -43029,14 +42099,8 @@
           <t>N1LRP385a</t>
         </is>
       </c>
-      <c r="K961" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L961" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="K961" t="inlineStr"/>
+      <c r="L961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" s="1" t="n">
@@ -43168,7 +42232,7 @@
       <c r="G964" t="inlineStr"/>
       <c r="H964" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I964" t="inlineStr">
@@ -43181,14 +42245,8 @@
           <t>N1LRP385d</t>
         </is>
       </c>
-      <c r="K964" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L964" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="K964" t="inlineStr"/>
+      <c r="L964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" s="1" t="n">
@@ -43258,7 +42316,7 @@
       <c r="G966" t="inlineStr"/>
       <c r="H966" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I966" t="inlineStr">
@@ -43271,14 +42329,8 @@
           <t>N1LRP386a</t>
         </is>
       </c>
-      <c r="K966" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L966" t="n">
-        <v>0.8</v>
-      </c>
+      <c r="K966" t="inlineStr"/>
+      <c r="L966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" s="1" t="n">
@@ -43306,7 +42358,7 @@
       <c r="G967" t="inlineStr"/>
       <c r="H967" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I967" t="inlineStr">
@@ -43319,14 +42371,8 @@
           <t>N1LRP386b</t>
         </is>
       </c>
-      <c r="K967" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L967" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K967" t="inlineStr"/>
+      <c r="L967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" s="1" t="n">
@@ -43438,7 +42484,7 @@
       <c r="G970" t="inlineStr"/>
       <c r="H970" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I970" t="inlineStr">
@@ -43451,14 +42497,8 @@
           <t>N1LRP387a</t>
         </is>
       </c>
-      <c r="K970" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L970" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K970" t="inlineStr"/>
+      <c r="L970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" s="1" t="n">
@@ -43486,7 +42526,7 @@
       <c r="G971" t="inlineStr"/>
       <c r="H971" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I971" t="inlineStr">
@@ -43499,14 +42539,8 @@
           <t>N1LRP387b</t>
         </is>
       </c>
-      <c r="K971" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L971" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K971" t="inlineStr"/>
+      <c r="L971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" s="1" t="n">
@@ -43576,7 +42610,7 @@
       <c r="G973" t="inlineStr"/>
       <c r="H973" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I973" t="inlineStr">
@@ -43589,14 +42623,8 @@
           <t>N1LRP388a</t>
         </is>
       </c>
-      <c r="K973" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L973" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K973" t="inlineStr"/>
+      <c r="L973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" s="1" t="n">
@@ -43624,7 +42652,7 @@
       <c r="G974" t="inlineStr"/>
       <c r="H974" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I974" t="inlineStr">
@@ -43637,14 +42665,8 @@
           <t>N1LRP388b</t>
         </is>
       </c>
-      <c r="K974" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L974" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K974" t="inlineStr"/>
+      <c r="L974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" s="1" t="n">
@@ -43672,7 +42694,7 @@
       <c r="G975" t="inlineStr"/>
       <c r="H975" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I975" t="inlineStr">
@@ -43685,14 +42707,8 @@
           <t>N1LRP388c</t>
         </is>
       </c>
-      <c r="K975" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L975" t="n">
-        <v>7.1</v>
-      </c>
+      <c r="K975" t="inlineStr"/>
+      <c r="L975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" s="1" t="n">
@@ -43762,7 +42778,7 @@
       <c r="G977" t="inlineStr"/>
       <c r="H977" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I977" t="inlineStr">
@@ -43775,14 +42791,8 @@
           <t>N1LRP389a</t>
         </is>
       </c>
-      <c r="K977" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L977" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="K977" t="inlineStr"/>
+      <c r="L977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" s="1" t="n">
@@ -43810,7 +42820,7 @@
       <c r="G978" t="inlineStr"/>
       <c r="H978" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I978" t="inlineStr">
@@ -43823,14 +42833,8 @@
           <t>N1LRP389b</t>
         </is>
       </c>
-      <c r="K978" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L978" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K978" t="inlineStr"/>
+      <c r="L978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" s="1" t="n">
@@ -43962,7 +42966,7 @@
       <c r="G981" t="inlineStr"/>
       <c r="H981" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I981" t="inlineStr">
@@ -44046,7 +43050,7 @@
       <c r="G983" t="inlineStr"/>
       <c r="H983" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I983" t="inlineStr">
@@ -44059,14 +43063,8 @@
           <t>N1LRP390a</t>
         </is>
       </c>
-      <c r="K983" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L983" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="K983" t="inlineStr"/>
+      <c r="L983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" s="1" t="n">
@@ -44094,7 +43092,7 @@
       <c r="G984" t="inlineStr"/>
       <c r="H984" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I984" t="inlineStr">
@@ -44136,7 +43134,7 @@
       <c r="G985" t="inlineStr"/>
       <c r="H985" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I985" t="inlineStr">
@@ -44149,14 +43147,8 @@
           <t>N1LRP390c</t>
         </is>
       </c>
-      <c r="K985" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L985" t="n">
-        <v>11.3</v>
-      </c>
+      <c r="K985" t="inlineStr"/>
+      <c r="L985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" s="1" t="n">
@@ -44226,7 +43218,7 @@
       <c r="G987" t="inlineStr"/>
       <c r="H987" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I987" t="inlineStr">
@@ -44239,14 +43231,8 @@
           <t>N1LRP391a</t>
         </is>
       </c>
-      <c r="K987" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L987" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="K987" t="inlineStr"/>
+      <c r="L987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" s="1" t="n">
@@ -44274,7 +43260,7 @@
       <c r="G988" t="inlineStr"/>
       <c r="H988" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I988" t="inlineStr">
@@ -44316,7 +43302,7 @@
       <c r="G989" t="inlineStr"/>
       <c r="H989" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I989" t="inlineStr">
@@ -44329,14 +43315,8 @@
           <t>N1LRP391c</t>
         </is>
       </c>
-      <c r="K989" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L989" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="K989" t="inlineStr"/>
+      <c r="L989" t="inlineStr"/>
     </row>
     <row r="990">
       <c r="A990" s="1" t="n">
@@ -44406,7 +43386,7 @@
       <c r="G991" t="inlineStr"/>
       <c r="H991" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I991" t="inlineStr">
@@ -44419,14 +43399,8 @@
           <t>N1LRP392a</t>
         </is>
       </c>
-      <c r="K991" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L991" t="n">
-        <v>24.1</v>
-      </c>
+      <c r="K991" t="inlineStr"/>
+      <c r="L991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" s="1" t="n">
@@ -44454,7 +43428,7 @@
       <c r="G992" t="inlineStr"/>
       <c r="H992" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I992" t="inlineStr">
@@ -44588,7 +43562,7 @@
       <c r="G995" t="inlineStr"/>
       <c r="H995" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I995" t="inlineStr">
@@ -44672,7 +43646,7 @@
       <c r="G997" t="inlineStr"/>
       <c r="H997" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I997" t="inlineStr">
@@ -44685,14 +43659,8 @@
           <t>N1LRP393a</t>
         </is>
       </c>
-      <c r="K997" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L997" t="n">
-        <v>45.6</v>
-      </c>
+      <c r="K997" t="inlineStr"/>
+      <c r="L997" t="inlineStr"/>
     </row>
     <row r="998">
       <c r="A998" s="1" t="n">
@@ -44860,7 +43828,7 @@
       <c r="G1001" t="inlineStr"/>
       <c r="H1001" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1001" t="inlineStr">
@@ -44873,14 +43841,8 @@
           <t>N1LRP394a</t>
         </is>
       </c>
-      <c r="K1001" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L1001" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="K1001" t="inlineStr"/>
+      <c r="L1001" t="inlineStr"/>
     </row>
     <row r="1002">
       <c r="A1002" s="1" t="n">
@@ -44908,7 +43870,7 @@
       <c r="G1002" t="inlineStr"/>
       <c r="H1002" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1002" t="inlineStr">
@@ -44950,7 +43912,7 @@
       <c r="G1003" t="inlineStr"/>
       <c r="H1003" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1003" t="inlineStr">
@@ -44963,14 +43925,8 @@
           <t>N1LRP394c</t>
         </is>
       </c>
-      <c r="K1003" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1003" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K1003" t="inlineStr"/>
+      <c r="L1003" t="inlineStr"/>
     </row>
     <row r="1004">
       <c r="A1004" s="1" t="n">
@@ -44998,7 +43954,7 @@
       <c r="G1004" t="inlineStr"/>
       <c r="H1004" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1004" t="inlineStr">
@@ -45040,7 +43996,7 @@
       <c r="G1005" t="inlineStr"/>
       <c r="H1005" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1005" t="inlineStr">
@@ -45053,14 +44009,8 @@
           <t>N1LRP394e</t>
         </is>
       </c>
-      <c r="K1005" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1005" t="n">
-        <v>49.3</v>
-      </c>
+      <c r="K1005" t="inlineStr"/>
+      <c r="L1005" t="inlineStr"/>
     </row>
     <row r="1006">
       <c r="A1006" s="1" t="n">
@@ -45088,7 +44038,7 @@
       <c r="G1006" t="inlineStr"/>
       <c r="H1006" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1006" t="inlineStr">
@@ -45130,7 +44080,7 @@
       <c r="G1007" t="inlineStr"/>
       <c r="H1007" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1007" t="inlineStr">
@@ -45214,7 +44164,7 @@
       <c r="G1009" t="inlineStr"/>
       <c r="H1009" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1009" t="inlineStr">
@@ -45227,14 +44177,8 @@
           <t>N1LRP395a</t>
         </is>
       </c>
-      <c r="K1009" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1009" t="n">
-        <v>2.4</v>
-      </c>
+      <c r="K1009" t="inlineStr"/>
+      <c r="L1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="n">
@@ -45262,7 +44206,7 @@
       <c r="G1010" t="inlineStr"/>
       <c r="H1010" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1010" t="inlineStr">
@@ -45304,7 +44248,7 @@
       <c r="G1011" t="inlineStr"/>
       <c r="H1011" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1011" t="inlineStr">
@@ -45346,7 +44290,7 @@
       <c r="G1012" t="inlineStr"/>
       <c r="H1012" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1012" t="inlineStr">
@@ -45388,7 +44332,7 @@
       <c r="G1013" t="inlineStr"/>
       <c r="H1013" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1013" t="inlineStr">
@@ -45430,7 +44374,7 @@
       <c r="G1014" t="inlineStr"/>
       <c r="H1014" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1014" t="inlineStr">
@@ -45472,7 +44416,7 @@
       <c r="G1015" t="inlineStr"/>
       <c r="H1015" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1015" t="inlineStr">
@@ -45514,7 +44458,7 @@
       <c r="G1016" t="inlineStr"/>
       <c r="H1016" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1016" t="inlineStr">
@@ -45598,7 +44542,7 @@
       <c r="G1018" t="inlineStr"/>
       <c r="H1018" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1018" t="inlineStr">
@@ -45611,14 +44555,8 @@
           <t>N1LRP396a</t>
         </is>
       </c>
-      <c r="K1018" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1018" t="n">
-        <v>2.3</v>
-      </c>
+      <c r="K1018" t="inlineStr"/>
+      <c r="L1018" t="inlineStr"/>
     </row>
     <row r="1019">
       <c r="A1019" s="1" t="n">
@@ -45646,7 +44584,7 @@
       <c r="G1019" t="inlineStr"/>
       <c r="H1019" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1019" t="inlineStr">
@@ -45659,14 +44597,8 @@
           <t>N1LRP396b</t>
         </is>
       </c>
-      <c r="K1019" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L1019" t="n">
-        <v>61.3</v>
-      </c>
+      <c r="K1019" t="inlineStr"/>
+      <c r="L1019" t="inlineStr"/>
     </row>
     <row r="1020">
       <c r="A1020" s="1" t="n">
@@ -45694,7 +44626,7 @@
       <c r="G1020" t="inlineStr"/>
       <c r="H1020" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1020" t="inlineStr">
@@ -45736,7 +44668,7 @@
       <c r="G1021" t="inlineStr"/>
       <c r="H1021" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1021" t="inlineStr">
@@ -45778,7 +44710,7 @@
       <c r="G1022" t="inlineStr"/>
       <c r="H1022" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1022" t="inlineStr">
@@ -45820,7 +44752,7 @@
       <c r="G1023" t="inlineStr"/>
       <c r="H1023" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1023" t="inlineStr">
@@ -45904,7 +44836,7 @@
       <c r="G1025" t="inlineStr"/>
       <c r="H1025" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1025" t="inlineStr">
@@ -45946,7 +44878,7 @@
       <c r="G1026" t="inlineStr"/>
       <c r="H1026" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1026" t="inlineStr">
@@ -45988,7 +44920,7 @@
       <c r="G1027" t="inlineStr"/>
       <c r="H1027" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1027" t="inlineStr">
@@ -46030,7 +44962,7 @@
       <c r="G1028" t="inlineStr"/>
       <c r="H1028" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1028" t="inlineStr">
@@ -46114,7 +45046,7 @@
       <c r="G1030" t="inlineStr"/>
       <c r="H1030" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1030" t="inlineStr">
@@ -46127,14 +45059,8 @@
           <t>N1LRP398a</t>
         </is>
       </c>
-      <c r="K1030" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1030" t="n">
-        <v>14.1</v>
-      </c>
+      <c r="K1030" t="inlineStr"/>
+      <c r="L1030" t="inlineStr"/>
     </row>
     <row r="1031">
       <c r="A1031" s="1" t="n">
@@ -46162,7 +45088,7 @@
       <c r="G1031" t="inlineStr"/>
       <c r="H1031" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1031" t="inlineStr">
@@ -46175,14 +45101,8 @@
           <t>N1LRP398b</t>
         </is>
       </c>
-      <c r="K1031" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1031" t="n">
-        <v>11</v>
-      </c>
+      <c r="K1031" t="inlineStr"/>
+      <c r="L1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" s="1" t="n">
@@ -46210,7 +45130,7 @@
       <c r="G1032" t="inlineStr"/>
       <c r="H1032" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1032" t="inlineStr">
@@ -46252,7 +45172,7 @@
       <c r="G1033" t="inlineStr"/>
       <c r="H1033" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1033" t="inlineStr">
@@ -46265,14 +45185,8 @@
           <t>N1LRP398d</t>
         </is>
       </c>
-      <c r="K1033" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1033" t="n">
-        <v>10.3</v>
-      </c>
+      <c r="K1033" t="inlineStr"/>
+      <c r="L1033" t="inlineStr"/>
     </row>
     <row r="1034">
       <c r="A1034" s="1" t="n">
@@ -46434,7 +45348,7 @@
       <c r="G1037" t="inlineStr"/>
       <c r="H1037" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1037" t="inlineStr">
@@ -46518,7 +45432,7 @@
       <c r="G1039" t="inlineStr"/>
       <c r="H1039" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1039" t="inlineStr">
@@ -46531,14 +45445,8 @@
           <t>N1LRP400a</t>
         </is>
       </c>
-      <c r="K1039" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1039" t="n">
-        <v>14</v>
-      </c>
+      <c r="K1039" t="inlineStr"/>
+      <c r="L1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" s="1" t="n">
@@ -46566,7 +45474,7 @@
       <c r="G1040" t="inlineStr"/>
       <c r="H1040" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1040" t="inlineStr">
@@ -46579,14 +45487,8 @@
           <t>N1LRP400b</t>
         </is>
       </c>
-      <c r="K1040" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1040" t="n">
-        <v>23.5</v>
-      </c>
+      <c r="K1040" t="inlineStr"/>
+      <c r="L1040" t="inlineStr"/>
     </row>
     <row r="1041">
       <c r="A1041" s="1" t="n">
@@ -46900,7 +45802,7 @@
       <c r="G1047" t="inlineStr"/>
       <c r="H1047" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1047" t="inlineStr">
@@ -46913,14 +45815,8 @@
           <t>N1LRP402c</t>
         </is>
       </c>
-      <c r="K1047" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1047" t="n">
-        <v>17</v>
-      </c>
+      <c r="K1047" t="inlineStr"/>
+      <c r="L1047" t="inlineStr"/>
     </row>
     <row r="1048">
       <c r="A1048" s="1" t="n">
@@ -47318,7 +46214,7 @@
       <c r="G1056" t="inlineStr"/>
       <c r="H1056" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1056" t="inlineStr">
@@ -47331,14 +46227,8 @@
           <t>N1LRP404b</t>
         </is>
       </c>
-      <c r="K1056" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1056" t="n">
-        <v>20.7</v>
-      </c>
+      <c r="K1056" t="inlineStr"/>
+      <c r="L1056" t="inlineStr"/>
     </row>
     <row r="1057">
       <c r="A1057" s="1" t="n">
@@ -47408,7 +46298,7 @@
       <c r="G1058" t="inlineStr"/>
       <c r="H1058" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1058" t="inlineStr">
@@ -47626,7 +46516,7 @@
       <c r="G1063" t="inlineStr"/>
       <c r="H1063" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1063" t="inlineStr">
@@ -47760,7 +46650,7 @@
       <c r="G1066" t="inlineStr"/>
       <c r="H1066" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1066" t="inlineStr">
@@ -47886,7 +46776,7 @@
       <c r="G1069" t="inlineStr"/>
       <c r="H1069" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1069" t="inlineStr">
@@ -47899,14 +46789,8 @@
           <t>N1LRP409a</t>
         </is>
       </c>
-      <c r="K1069" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1069" t="n">
-        <v>2.2</v>
-      </c>
+      <c r="K1069" t="inlineStr"/>
+      <c r="L1069" t="inlineStr"/>
     </row>
     <row r="1070">
       <c r="A1070" s="1" t="n">
@@ -48032,7 +46916,7 @@
       <c r="G1072" t="inlineStr"/>
       <c r="H1072" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1072" t="inlineStr">
@@ -48045,14 +46929,8 @@
           <t>N1LRP409d</t>
         </is>
       </c>
-      <c r="K1072" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1072" t="n">
-        <v>2.1</v>
-      </c>
+      <c r="K1072" t="inlineStr"/>
+      <c r="L1072" t="inlineStr"/>
     </row>
     <row r="1073">
       <c r="A1073" s="1" t="n">
@@ -48470,7 +47348,7 @@
       <c r="G1081" t="inlineStr"/>
       <c r="H1081" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1081" t="inlineStr">
@@ -48512,7 +47390,7 @@
       <c r="G1082" t="inlineStr"/>
       <c r="H1082" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1082" t="inlineStr">
@@ -48596,7 +47474,7 @@
       <c r="G1084" t="inlineStr"/>
       <c r="H1084" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1084" t="inlineStr">
@@ -48609,14 +47487,8 @@
           <t>N1LRP412a</t>
         </is>
       </c>
-      <c r="K1084" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1084" t="n">
-        <v>3.1</v>
-      </c>
+      <c r="K1084" t="inlineStr"/>
+      <c r="L1084" t="inlineStr"/>
     </row>
     <row r="1085">
       <c r="A1085" s="1" t="n">
@@ -49190,7 +48062,7 @@
       <c r="G1097" t="inlineStr"/>
       <c r="H1097" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1097" t="inlineStr">
@@ -49203,14 +48075,8 @@
           <t>N1LRP417a</t>
         </is>
       </c>
-      <c r="K1097" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1097" t="n">
-        <v>3</v>
-      </c>
+      <c r="K1097" t="inlineStr"/>
+      <c r="L1097" t="inlineStr"/>
     </row>
     <row r="1098">
       <c r="A1098" s="1" t="n">
@@ -49238,7 +48104,7 @@
       <c r="G1098" t="inlineStr"/>
       <c r="H1098" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1098" t="inlineStr">
@@ -49251,14 +48117,8 @@
           <t>N1LRP417b</t>
         </is>
       </c>
-      <c r="K1098" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1098" t="n">
-        <v>4.6</v>
-      </c>
+      <c r="K1098" t="inlineStr"/>
+      <c r="L1098" t="inlineStr"/>
     </row>
     <row r="1099">
       <c r="A1099" s="1" t="n">
@@ -49328,7 +48188,7 @@
       <c r="G1100" t="inlineStr"/>
       <c r="H1100" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1100" t="inlineStr">
@@ -49341,14 +48201,8 @@
           <t>N1LRP418a</t>
         </is>
       </c>
-      <c r="K1100" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1100" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="K1100" t="inlineStr"/>
+      <c r="L1100" t="inlineStr"/>
     </row>
     <row r="1101">
       <c r="A1101" s="1" t="n">
@@ -49376,7 +48230,7 @@
       <c r="G1101" t="inlineStr"/>
       <c r="H1101" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1101" t="inlineStr">
@@ -49389,14 +48243,8 @@
           <t>N1LRP418b</t>
         </is>
       </c>
-      <c r="K1101" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1101" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="K1101" t="inlineStr"/>
+      <c r="L1101" t="inlineStr"/>
     </row>
     <row r="1102">
       <c r="A1102" s="1" t="n">
@@ -49424,7 +48272,7 @@
       <c r="G1102" t="inlineStr"/>
       <c r="H1102" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1102" t="inlineStr">
@@ -49508,7 +48356,7 @@
       <c r="G1104" t="inlineStr"/>
       <c r="H1104" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1104" t="inlineStr">
@@ -49521,14 +48369,8 @@
           <t>N1LRP419a</t>
         </is>
       </c>
-      <c r="K1104" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1104" t="n">
-        <v>57.6</v>
-      </c>
+      <c r="K1104" t="inlineStr"/>
+      <c r="L1104" t="inlineStr"/>
     </row>
     <row r="1105">
       <c r="A1105" s="1" t="n">
@@ -49556,7 +48398,7 @@
       <c r="G1105" t="inlineStr"/>
       <c r="H1105" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1105" t="inlineStr">
@@ -49598,7 +48440,7 @@
       <c r="G1106" t="inlineStr"/>
       <c r="H1106" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1106" t="inlineStr">
@@ -49611,14 +48453,8 @@
           <t>N1LRP419c</t>
         </is>
       </c>
-      <c r="K1106" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1106" t="n">
-        <v>3.3</v>
-      </c>
+      <c r="K1106" t="inlineStr"/>
+      <c r="L1106" t="inlineStr"/>
     </row>
     <row r="1107">
       <c r="A1107" s="1" t="n">
@@ -49688,7 +48524,7 @@
       <c r="G1108" t="inlineStr"/>
       <c r="H1108" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1108" t="inlineStr">
@@ -49701,14 +48537,8 @@
           <t>N1LRP420a</t>
         </is>
       </c>
-      <c r="K1108" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1108" t="n">
-        <v>15.4</v>
-      </c>
+      <c r="K1108" t="inlineStr"/>
+      <c r="L1108" t="inlineStr"/>
     </row>
     <row r="1109">
       <c r="A1109" s="1" t="n">
@@ -49736,7 +48566,7 @@
       <c r="G1109" t="inlineStr"/>
       <c r="H1109" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1109" t="inlineStr">
@@ -49862,7 +48692,7 @@
       <c r="G1112" t="inlineStr"/>
       <c r="H1112" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1112" t="inlineStr">
@@ -49875,14 +48705,8 @@
           <t>N1LRP421a</t>
         </is>
       </c>
-      <c r="K1112" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="L1112" t="n">
-        <v>12.3</v>
-      </c>
+      <c r="K1112" t="inlineStr"/>
+      <c r="L1112" t="inlineStr"/>
     </row>
     <row r="1113">
       <c r="A1113" s="1" t="n">
@@ -50008,7 +48832,7 @@
       <c r="G1115" t="inlineStr"/>
       <c r="H1115" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1115" t="inlineStr">
@@ -50021,14 +48845,8 @@
           <t>N1LRP421d</t>
         </is>
       </c>
-      <c r="K1115" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1115" t="n">
-        <v>15.2</v>
-      </c>
+      <c r="K1115" t="inlineStr"/>
+      <c r="L1115" t="inlineStr"/>
     </row>
     <row r="1116">
       <c r="A1116" s="1" t="n">
@@ -50098,7 +48916,7 @@
       <c r="G1117" t="inlineStr"/>
       <c r="H1117" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1117" t="inlineStr">
@@ -50111,14 +48929,8 @@
           <t>N1LRP422a</t>
         </is>
       </c>
-      <c r="K1117" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1117" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K1117" t="inlineStr"/>
+      <c r="L1117" t="inlineStr"/>
     </row>
     <row r="1118">
       <c r="A1118" s="1" t="n">
@@ -50292,7 +49104,7 @@
       <c r="G1121" t="inlineStr"/>
       <c r="H1121" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1121" t="inlineStr">
@@ -50305,14 +49117,8 @@
           <t>N1LRP423a</t>
         </is>
       </c>
-      <c r="K1121" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1121" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1121" t="inlineStr"/>
+      <c r="L1121" t="inlineStr"/>
     </row>
     <row r="1122">
       <c r="A1122" s="1" t="n">
@@ -50382,7 +49188,7 @@
       <c r="G1123" t="inlineStr"/>
       <c r="H1123" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1123" t="inlineStr">
@@ -50395,14 +49201,8 @@
           <t>N1LRP424a</t>
         </is>
       </c>
-      <c r="K1123" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1123" t="n">
-        <v>6.4</v>
-      </c>
+      <c r="K1123" t="inlineStr"/>
+      <c r="L1123" t="inlineStr"/>
     </row>
     <row r="1124">
       <c r="A1124" s="1" t="n">
@@ -50430,7 +49230,7 @@
       <c r="G1124" t="inlineStr"/>
       <c r="H1124" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1124" t="inlineStr">
@@ -50443,14 +49243,8 @@
           <t>N1LRP424b</t>
         </is>
       </c>
-      <c r="K1124" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1124" t="n">
-        <v>3.35</v>
-      </c>
+      <c r="K1124" t="inlineStr"/>
+      <c r="L1124" t="inlineStr"/>
     </row>
     <row r="1125">
       <c r="A1125" s="1" t="n">
@@ -50576,7 +49370,7 @@
       <c r="G1127" t="inlineStr"/>
       <c r="H1127" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1127" t="inlineStr">
@@ -50589,14 +49383,8 @@
           <t>N1LRP424e</t>
         </is>
       </c>
-      <c r="K1127" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1127" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="K1127" t="inlineStr"/>
+      <c r="L1127" t="inlineStr"/>
     </row>
     <row r="1128">
       <c r="A1128" s="1" t="n">
@@ -50666,7 +49454,7 @@
       <c r="G1129" t="inlineStr"/>
       <c r="H1129" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1129" t="inlineStr">
@@ -50679,14 +49467,8 @@
           <t>N1LRP425a</t>
         </is>
       </c>
-      <c r="K1129" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1129" t="n">
-        <v>3.4</v>
-      </c>
+      <c r="K1129" t="inlineStr"/>
+      <c r="L1129" t="inlineStr"/>
     </row>
     <row r="1130">
       <c r="A1130" s="1" t="n">
@@ -50818,7 +49600,7 @@
       <c r="G1132" t="inlineStr"/>
       <c r="H1132" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1132" t="inlineStr">
@@ -50860,7 +49642,7 @@
       <c r="G1133" t="inlineStr"/>
       <c r="H1133" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1133" t="inlineStr">
@@ -50873,14 +49655,8 @@
           <t>N1LRP425e</t>
         </is>
       </c>
-      <c r="K1133" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1133" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1133" t="inlineStr"/>
+      <c r="L1133" t="inlineStr"/>
     </row>
     <row r="1134">
       <c r="A1134" s="1" t="n">
@@ -50908,7 +49684,7 @@
       <c r="G1134" t="inlineStr"/>
       <c r="H1134" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1134" t="inlineStr">
@@ -50992,7 +49768,7 @@
       <c r="G1136" t="inlineStr"/>
       <c r="H1136" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1136" t="inlineStr">
@@ -51005,14 +49781,8 @@
           <t>N1LRP426a</t>
         </is>
       </c>
-      <c r="K1136" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1136" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1136" t="inlineStr"/>
+      <c r="L1136" t="inlineStr"/>
     </row>
     <row r="1137">
       <c r="A1137" s="1" t="n">
@@ -51040,7 +49810,7 @@
       <c r="G1137" t="inlineStr"/>
       <c r="H1137" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1137" t="inlineStr">
@@ -51053,14 +49823,8 @@
           <t>N1LRP426b</t>
         </is>
       </c>
-      <c r="K1137" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1137" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1137" t="inlineStr"/>
+      <c r="L1137" t="inlineStr"/>
     </row>
     <row r="1138">
       <c r="A1138" s="1" t="n">
@@ -51088,7 +49852,7 @@
       <c r="G1138" t="inlineStr"/>
       <c r="H1138" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1138" t="inlineStr">
@@ -51101,14 +49865,8 @@
           <t>N1LRP426c</t>
         </is>
       </c>
-      <c r="K1138" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1138" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1138" t="inlineStr"/>
+      <c r="L1138" t="inlineStr"/>
     </row>
     <row r="1139">
       <c r="A1139" s="1" t="n">
@@ -51136,7 +49894,7 @@
       <c r="G1139" t="inlineStr"/>
       <c r="H1139" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1139" t="inlineStr">
@@ -51149,14 +49907,8 @@
           <t>N1LRP426d</t>
         </is>
       </c>
-      <c r="K1139" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1139" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1139" t="inlineStr"/>
+      <c r="L1139" t="inlineStr"/>
     </row>
     <row r="1140">
       <c r="A1140" s="1" t="n">
@@ -51184,7 +49936,7 @@
       <c r="G1140" t="inlineStr"/>
       <c r="H1140" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1140" t="inlineStr">
@@ -51197,14 +49949,8 @@
           <t>N1LRP426e</t>
         </is>
       </c>
-      <c r="K1140" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1140" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1140" t="inlineStr"/>
+      <c r="L1140" t="inlineStr"/>
     </row>
     <row r="1141">
       <c r="A1141" s="1" t="n">
@@ -51274,7 +50020,7 @@
       <c r="G1142" t="inlineStr"/>
       <c r="H1142" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1142" t="inlineStr">
@@ -51287,14 +50033,8 @@
           <t>N1LRP427a</t>
         </is>
       </c>
-      <c r="K1142" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1142" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1142" t="inlineStr"/>
+      <c r="L1142" t="inlineStr"/>
     </row>
     <row r="1143">
       <c r="A1143" s="1" t="n">
@@ -51566,7 +50306,7 @@
       <c r="G1148" t="inlineStr"/>
       <c r="H1148" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1148" t="inlineStr">
@@ -51579,14 +50319,8 @@
           <t>N1LRP428c</t>
         </is>
       </c>
-      <c r="K1148" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1148" t="n">
-        <v>4.2</v>
-      </c>
+      <c r="K1148" t="inlineStr"/>
+      <c r="L1148" t="inlineStr"/>
     </row>
     <row r="1149">
       <c r="A1149" s="1" t="n">
@@ -51656,7 +50390,7 @@
       <c r="G1150" t="inlineStr"/>
       <c r="H1150" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1150" t="inlineStr">
@@ -51669,14 +50403,8 @@
           <t>N1LRP429a</t>
         </is>
       </c>
-      <c r="K1150" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1150" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1150" t="inlineStr"/>
+      <c r="L1150" t="inlineStr"/>
     </row>
     <row r="1151">
       <c r="A1151" s="1" t="n">
@@ -51704,7 +50432,7 @@
       <c r="G1151" t="inlineStr"/>
       <c r="H1151" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1151" t="inlineStr">
@@ -51717,14 +50445,8 @@
           <t>N1LRP429b</t>
         </is>
       </c>
-      <c r="K1151" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1151" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1151" t="inlineStr"/>
+      <c r="L1151" t="inlineStr"/>
     </row>
     <row r="1152">
       <c r="A1152" s="1" t="n">
@@ -51752,7 +50474,7 @@
       <c r="G1152" t="inlineStr"/>
       <c r="H1152" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1152" t="inlineStr">
@@ -51765,14 +50487,8 @@
           <t>N1LRP429c</t>
         </is>
       </c>
-      <c r="K1152" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1152" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1152" t="inlineStr"/>
+      <c r="L1152" t="inlineStr"/>
     </row>
     <row r="1153">
       <c r="A1153" s="1" t="n">
@@ -51800,7 +50516,7 @@
       <c r="G1153" t="inlineStr"/>
       <c r="H1153" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1153" t="inlineStr">
@@ -51813,14 +50529,8 @@
           <t>N1LRP429d</t>
         </is>
       </c>
-      <c r="K1153" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1153" t="n">
-        <v>14</v>
-      </c>
+      <c r="K1153" t="inlineStr"/>
+      <c r="L1153" t="inlineStr"/>
     </row>
     <row r="1154">
       <c r="A1154" s="1" t="n">
@@ -51988,7 +50698,7 @@
       <c r="G1157" t="inlineStr"/>
       <c r="H1157" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1157" t="inlineStr">
@@ -52001,14 +50711,8 @@
           <t>N1LRP430a</t>
         </is>
       </c>
-      <c r="K1157" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1157" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1157" t="inlineStr"/>
+      <c r="L1157" t="inlineStr"/>
     </row>
     <row r="1158">
       <c r="A1158" s="1" t="n">
@@ -52036,7 +50740,7 @@
       <c r="G1158" t="inlineStr"/>
       <c r="H1158" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1158" t="inlineStr">
@@ -52049,14 +50753,8 @@
           <t>N1LRP430b</t>
         </is>
       </c>
-      <c r="K1158" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1158" t="n">
-        <v>1</v>
-      </c>
+      <c r="K1158" t="inlineStr"/>
+      <c r="L1158" t="inlineStr"/>
     </row>
     <row r="1159">
       <c r="A1159" s="1" t="n">
@@ -52188,7 +50886,7 @@
       <c r="G1161" t="inlineStr"/>
       <c r="H1161" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1161" t="inlineStr">
@@ -52272,7 +50970,7 @@
       <c r="G1163" t="inlineStr"/>
       <c r="H1163" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1163" t="inlineStr">
@@ -52285,14 +50983,8 @@
           <t>N1LRP431a</t>
         </is>
       </c>
-      <c r="K1163" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1163" t="n">
-        <v>5.8</v>
-      </c>
+      <c r="K1163" t="inlineStr"/>
+      <c r="L1163" t="inlineStr"/>
     </row>
     <row r="1164">
       <c r="A1164" s="1" t="n">
@@ -52320,7 +51012,7 @@
       <c r="G1164" t="inlineStr"/>
       <c r="H1164" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1164" t="inlineStr">
@@ -52333,14 +51025,8 @@
           <t>N1LRP431b</t>
         </is>
       </c>
-      <c r="K1164" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1164" t="n">
-        <v>1.3</v>
-      </c>
+      <c r="K1164" t="inlineStr"/>
+      <c r="L1164" t="inlineStr"/>
     </row>
     <row r="1165">
       <c r="A1165" s="1" t="n">
@@ -52410,7 +51096,7 @@
       <c r="G1166" t="inlineStr"/>
       <c r="H1166" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1166" t="inlineStr">
@@ -52423,14 +51109,8 @@
           <t>N1LRP432a</t>
         </is>
       </c>
-      <c r="K1166" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1166" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1166" t="inlineStr"/>
+      <c r="L1166" t="inlineStr"/>
     </row>
     <row r="1167">
       <c r="A1167" s="1" t="n">
@@ -52458,7 +51138,7 @@
       <c r="G1167" t="inlineStr"/>
       <c r="H1167" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1167" t="inlineStr">
@@ -52471,14 +51151,8 @@
           <t>N1LRP432b</t>
         </is>
       </c>
-      <c r="K1167" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1167" t="n">
-        <v>30.9</v>
-      </c>
+      <c r="K1167" t="inlineStr"/>
+      <c r="L1167" t="inlineStr"/>
     </row>
     <row r="1168">
       <c r="A1168" s="1" t="n">
@@ -52506,7 +51180,7 @@
       <c r="G1168" t="inlineStr"/>
       <c r="H1168" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1168" t="inlineStr">
@@ -52548,7 +51222,7 @@
       <c r="G1169" t="inlineStr"/>
       <c r="H1169" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1169" t="inlineStr">
@@ -52590,7 +51264,7 @@
       <c r="G1170" t="inlineStr"/>
       <c r="H1170" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1170" t="inlineStr">
@@ -52632,7 +51306,7 @@
       <c r="G1171" t="inlineStr"/>
       <c r="H1171" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1171" t="inlineStr">
@@ -52716,7 +51390,7 @@
       <c r="G1173" t="inlineStr"/>
       <c r="H1173" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1173" t="inlineStr">
@@ -52729,14 +51403,8 @@
           <t>N1LRP433a</t>
         </is>
       </c>
-      <c r="K1173" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1173" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1173" t="inlineStr"/>
+      <c r="L1173" t="inlineStr"/>
     </row>
     <row r="1174">
       <c r="A1174" s="1" t="n">
@@ -52764,7 +51432,7 @@
       <c r="G1174" t="inlineStr"/>
       <c r="H1174" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1174" t="inlineStr">
@@ -52777,14 +51445,8 @@
           <t>N1LRP433b</t>
         </is>
       </c>
-      <c r="K1174" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1174" t="n">
-        <v>9.4</v>
-      </c>
+      <c r="K1174" t="inlineStr"/>
+      <c r="L1174" t="inlineStr"/>
     </row>
     <row r="1175">
       <c r="A1175" s="1" t="n">
@@ -52812,7 +51474,7 @@
       <c r="G1175" t="inlineStr"/>
       <c r="H1175" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1175" t="inlineStr">
@@ -52825,14 +51487,8 @@
           <t>N1LRP433c</t>
         </is>
       </c>
-      <c r="K1175" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1175" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="K1175" t="inlineStr"/>
+      <c r="L1175" t="inlineStr"/>
     </row>
     <row r="1176">
       <c r="A1176" s="1" t="n">
@@ -52860,7 +51516,7 @@
       <c r="G1176" t="inlineStr"/>
       <c r="H1176" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1176" t="inlineStr">
@@ -52873,14 +51529,8 @@
           <t>N1LRP433d</t>
         </is>
       </c>
-      <c r="K1176" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1176" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1176" t="inlineStr"/>
+      <c r="L1176" t="inlineStr"/>
     </row>
     <row r="1177">
       <c r="A1177" s="1" t="n">
@@ -53084,7 +51734,7 @@
       <c r="G1181" t="inlineStr"/>
       <c r="H1181" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1181" t="inlineStr">
@@ -53097,14 +51747,8 @@
           <t>N1LRP434a</t>
         </is>
       </c>
-      <c r="K1181" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1181" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1181" t="inlineStr"/>
+      <c r="L1181" t="inlineStr"/>
     </row>
     <row r="1182">
       <c r="A1182" s="1" t="n">
@@ -53132,7 +51776,7 @@
       <c r="G1182" t="inlineStr"/>
       <c r="H1182" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1182" t="inlineStr">
@@ -53145,14 +51789,8 @@
           <t>N1LRP434b</t>
         </is>
       </c>
-      <c r="K1182" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1182" t="n">
-        <v>31.7</v>
-      </c>
+      <c r="K1182" t="inlineStr"/>
+      <c r="L1182" t="inlineStr"/>
     </row>
     <row r="1183">
       <c r="A1183" s="1" t="n">
@@ -53180,7 +51818,7 @@
       <c r="G1183" t="inlineStr"/>
       <c r="H1183" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1183" t="inlineStr">
@@ -53222,7 +51860,7 @@
       <c r="G1184" t="inlineStr"/>
       <c r="H1184" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1184" t="inlineStr">
@@ -53306,7 +51944,7 @@
       <c r="G1186" t="inlineStr"/>
       <c r="H1186" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1186" t="inlineStr">
@@ -53319,14 +51957,8 @@
           <t>N1LRP435a</t>
         </is>
       </c>
-      <c r="K1186" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1186" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1186" t="inlineStr"/>
+      <c r="L1186" t="inlineStr"/>
     </row>
     <row r="1187">
       <c r="A1187" s="1" t="n">
@@ -53354,7 +51986,7 @@
       <c r="G1187" t="inlineStr"/>
       <c r="H1187" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1187" t="inlineStr">
@@ -53367,14 +51999,8 @@
           <t>N1LRP435b</t>
         </is>
       </c>
-      <c r="K1187" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1187" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1187" t="inlineStr"/>
+      <c r="L1187" t="inlineStr"/>
     </row>
     <row r="1188">
       <c r="A1188" s="1" t="n">
@@ -53402,7 +52028,7 @@
       <c r="G1188" t="inlineStr"/>
       <c r="H1188" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1188" t="inlineStr">
@@ -53415,14 +52041,8 @@
           <t>N1LRP435c</t>
         </is>
       </c>
-      <c r="K1188" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1188" t="n">
-        <v>6.2</v>
-      </c>
+      <c r="K1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr"/>
     </row>
     <row r="1189">
       <c r="A1189" s="1" t="n">
@@ -53450,7 +52070,7 @@
       <c r="G1189" t="inlineStr"/>
       <c r="H1189" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1189" t="inlineStr">
@@ -53492,7 +52112,7 @@
       <c r="G1190" t="inlineStr"/>
       <c r="H1190" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1190" t="inlineStr">
@@ -53576,7 +52196,7 @@
       <c r="G1192" t="inlineStr"/>
       <c r="H1192" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1192" t="inlineStr">
@@ -53589,14 +52209,8 @@
           <t>N1LRP436a</t>
         </is>
       </c>
-      <c r="K1192" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1192" t="n">
-        <v>32.1</v>
-      </c>
+      <c r="K1192" t="inlineStr"/>
+      <c r="L1192" t="inlineStr"/>
     </row>
     <row r="1193">
       <c r="A1193" s="1" t="n">
@@ -53716,7 +52330,7 @@
       <c r="G1195" t="inlineStr"/>
       <c r="H1195" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1195" t="inlineStr">
@@ -53758,7 +52372,7 @@
       <c r="G1196" t="inlineStr"/>
       <c r="H1196" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1196" t="inlineStr">
@@ -53842,7 +52456,7 @@
       <c r="G1198" t="inlineStr"/>
       <c r="H1198" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1198" t="inlineStr">
@@ -53855,14 +52469,8 @@
           <t>N1LRP437a</t>
         </is>
       </c>
-      <c r="K1198" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1198" t="n">
-        <v>4.4</v>
-      </c>
+      <c r="K1198" t="inlineStr"/>
+      <c r="L1198" t="inlineStr"/>
     </row>
     <row r="1199">
       <c r="A1199" s="1" t="n">
@@ -53890,7 +52498,7 @@
       <c r="G1199" t="inlineStr"/>
       <c r="H1199" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1199" t="inlineStr">
@@ -53903,14 +52511,8 @@
           <t>N1LRP437b</t>
         </is>
       </c>
-      <c r="K1199" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1199" t="n">
-        <v>2.9</v>
-      </c>
+      <c r="K1199" t="inlineStr"/>
+      <c r="L1199" t="inlineStr"/>
     </row>
     <row r="1200">
       <c r="A1200" s="1" t="n">
@@ -53938,7 +52540,7 @@
       <c r="G1200" t="inlineStr"/>
       <c r="H1200" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1200" t="inlineStr">
@@ -54022,7 +52624,7 @@
       <c r="G1202" t="inlineStr"/>
       <c r="H1202" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1202" t="inlineStr">
@@ -54035,14 +52637,8 @@
           <t>N1LRP438a</t>
         </is>
       </c>
-      <c r="K1202" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1202" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1202" t="inlineStr"/>
+      <c r="L1202" t="inlineStr"/>
     </row>
     <row r="1203">
       <c r="A1203" s="1" t="n">
@@ -54070,7 +52666,7 @@
       <c r="G1203" t="inlineStr"/>
       <c r="H1203" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1203" t="inlineStr">
@@ -54083,14 +52679,8 @@
           <t>N1LRP438b</t>
         </is>
       </c>
-      <c r="K1203" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1203" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1203" t="inlineStr"/>
+      <c r="L1203" t="inlineStr"/>
     </row>
     <row r="1204">
       <c r="A1204" s="1" t="n">
@@ -54118,7 +52708,7 @@
       <c r="G1204" t="inlineStr"/>
       <c r="H1204" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1204" t="inlineStr">
@@ -54131,14 +52721,8 @@
           <t>N1LRP438c</t>
         </is>
       </c>
-      <c r="K1204" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1204" t="n">
-        <v>1.9</v>
-      </c>
+      <c r="K1204" t="inlineStr"/>
+      <c r="L1204" t="inlineStr"/>
     </row>
     <row r="1205">
       <c r="A1205" s="1" t="n">
@@ -54166,7 +52750,7 @@
       <c r="G1205" t="inlineStr"/>
       <c r="H1205" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1205" t="inlineStr">
@@ -54208,7 +52792,7 @@
       <c r="G1206" t="inlineStr"/>
       <c r="H1206" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1206" t="inlineStr">
@@ -54292,7 +52876,7 @@
       <c r="G1208" t="inlineStr"/>
       <c r="H1208" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1208" t="inlineStr">
@@ -54305,14 +52889,8 @@
           <t>N1LRP439a</t>
         </is>
       </c>
-      <c r="K1208" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1208" t="n">
-        <v>45.6</v>
-      </c>
+      <c r="K1208" t="inlineStr"/>
+      <c r="L1208" t="inlineStr"/>
     </row>
     <row r="1209">
       <c r="A1209" s="1" t="n">
@@ -54340,7 +52918,7 @@
       <c r="G1209" t="inlineStr"/>
       <c r="H1209" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1209" t="inlineStr">
@@ -54382,7 +52960,7 @@
       <c r="G1210" t="inlineStr"/>
       <c r="H1210" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1210" t="inlineStr">
@@ -54395,14 +52973,8 @@
           <t>N1LRP439c</t>
         </is>
       </c>
-      <c r="K1210" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1210" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1210" t="inlineStr"/>
+      <c r="L1210" t="inlineStr"/>
     </row>
     <row r="1211">
       <c r="A1211" s="1" t="n">
@@ -54430,7 +53002,7 @@
       <c r="G1211" t="inlineStr"/>
       <c r="H1211" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1211" t="inlineStr">
@@ -54514,7 +53086,7 @@
       <c r="G1213" t="inlineStr"/>
       <c r="H1213" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1213" t="inlineStr">
@@ -54527,14 +53099,8 @@
           <t>N1LRP440a</t>
         </is>
       </c>
-      <c r="K1213" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1213" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="K1213" t="inlineStr"/>
+      <c r="L1213" t="inlineStr"/>
     </row>
     <row r="1214">
       <c r="A1214" s="1" t="n">
@@ -54562,7 +53128,7 @@
       <c r="G1214" t="inlineStr"/>
       <c r="H1214" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1214" t="inlineStr">
@@ -54604,7 +53170,7 @@
       <c r="G1215" t="inlineStr"/>
       <c r="H1215" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1215" t="inlineStr">
@@ -54780,7 +53346,7 @@
       <c r="G1219" t="inlineStr"/>
       <c r="H1219" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1219" t="inlineStr">
@@ -54793,14 +53359,8 @@
           <t>N1LRP441a</t>
         </is>
       </c>
-      <c r="K1219" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1219" t="n">
-        <v>29.9</v>
-      </c>
+      <c r="K1219" t="inlineStr"/>
+      <c r="L1219" t="inlineStr"/>
     </row>
     <row r="1220">
       <c r="A1220" s="1" t="n">
@@ -54962,7 +53522,7 @@
       <c r="G1223" t="inlineStr"/>
       <c r="H1223" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1223" t="inlineStr">
@@ -54975,14 +53535,8 @@
           <t>N1LRP442a</t>
         </is>
       </c>
-      <c r="K1223" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1223" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1223" t="inlineStr"/>
+      <c r="L1223" t="inlineStr"/>
     </row>
     <row r="1224">
       <c r="A1224" s="1" t="n">
@@ -55010,7 +53564,7 @@
       <c r="G1224" t="inlineStr"/>
       <c r="H1224" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1224" t="inlineStr">
@@ -55052,7 +53606,7 @@
       <c r="G1225" t="inlineStr"/>
       <c r="H1225" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1225" t="inlineStr">
@@ -55094,7 +53648,7 @@
       <c r="G1226" t="inlineStr"/>
       <c r="H1226" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1226" t="inlineStr">
@@ -55178,7 +53732,7 @@
       <c r="G1228" t="inlineStr"/>
       <c r="H1228" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1228" t="inlineStr">
@@ -55191,14 +53745,8 @@
           <t>N1LRP443a</t>
         </is>
       </c>
-      <c r="K1228" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1228" t="n">
-        <v>36.6</v>
-      </c>
+      <c r="K1228" t="inlineStr"/>
+      <c r="L1228" t="inlineStr"/>
     </row>
     <row r="1229">
       <c r="A1229" s="1" t="n">
@@ -55366,7 +53914,7 @@
       <c r="G1232" t="inlineStr"/>
       <c r="H1232" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1232" t="inlineStr">
@@ -55379,14 +53927,8 @@
           <t>N1LRP444a</t>
         </is>
       </c>
-      <c r="K1232" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1232" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1232" t="inlineStr"/>
+      <c r="L1232" t="inlineStr"/>
     </row>
     <row r="1233">
       <c r="A1233" s="1" t="n">
@@ -55414,7 +53956,7 @@
       <c r="G1233" t="inlineStr"/>
       <c r="H1233" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1233" t="inlineStr">
@@ -55427,14 +53969,8 @@
           <t>N1LRP444b</t>
         </is>
       </c>
-      <c r="K1233" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1233" t="n">
-        <v>8.800000000000001</v>
-      </c>
+      <c r="K1233" t="inlineStr"/>
+      <c r="L1233" t="inlineStr"/>
     </row>
     <row r="1234">
       <c r="A1234" s="1" t="n">
@@ -55462,7 +53998,7 @@
       <c r="G1234" t="inlineStr"/>
       <c r="H1234" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1234" t="inlineStr">
@@ -55475,14 +54011,8 @@
           <t>N1LRP444c</t>
         </is>
       </c>
-      <c r="K1234" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1234" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1234" t="inlineStr"/>
+      <c r="L1234" t="inlineStr"/>
     </row>
     <row r="1235">
       <c r="A1235" s="1" t="n">
@@ -55698,7 +54228,7 @@
       <c r="G1239" t="inlineStr"/>
       <c r="H1239" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1239" t="inlineStr">
@@ -55711,14 +54241,8 @@
           <t>N1LRP446a</t>
         </is>
       </c>
-      <c r="K1239" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1239" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="K1239" t="inlineStr"/>
+      <c r="L1239" t="inlineStr"/>
     </row>
     <row r="1240">
       <c r="A1240" s="1" t="n">
@@ -55746,7 +54270,7 @@
       <c r="G1240" t="inlineStr"/>
       <c r="H1240" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1240" t="inlineStr">
@@ -55759,14 +54283,8 @@
           <t>N1LRP446b</t>
         </is>
       </c>
-      <c r="K1240" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1240" t="n">
-        <v>35.5</v>
-      </c>
+      <c r="K1240" t="inlineStr"/>
+      <c r="L1240" t="inlineStr"/>
     </row>
     <row r="1241">
       <c r="A1241" s="1" t="n">
@@ -55836,7 +54354,7 @@
       <c r="G1242" t="inlineStr"/>
       <c r="H1242" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1242" t="inlineStr">
@@ -55849,14 +54367,8 @@
           <t>N1LRP447a</t>
         </is>
       </c>
-      <c r="K1242" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1242" t="n">
-        <v>2.7</v>
-      </c>
+      <c r="K1242" t="inlineStr"/>
+      <c r="L1242" t="inlineStr"/>
     </row>
     <row r="1243">
       <c r="A1243" s="1" t="n">
@@ -55884,7 +54396,7 @@
       <c r="G1243" t="inlineStr"/>
       <c r="H1243" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1243" t="inlineStr">
@@ -55897,14 +54409,8 @@
           <t>N1LRP447b</t>
         </is>
       </c>
-      <c r="K1243" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1243" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr"/>
     </row>
     <row r="1244">
       <c r="A1244" s="1" t="n">
@@ -55932,7 +54438,7 @@
       <c r="G1244" t="inlineStr"/>
       <c r="H1244" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1244" t="inlineStr">
@@ -55945,14 +54451,8 @@
           <t>N1LRP447c</t>
         </is>
       </c>
-      <c r="K1244" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1244" t="n">
-        <v>38.6</v>
-      </c>
+      <c r="K1244" t="inlineStr"/>
+      <c r="L1244" t="inlineStr"/>
     </row>
     <row r="1245">
       <c r="A1245" s="1" t="n">
@@ -56120,7 +54620,7 @@
       <c r="G1248" t="inlineStr"/>
       <c r="H1248" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1248" t="inlineStr">
@@ -56133,14 +54633,8 @@
           <t>N1LRP448c</t>
         </is>
       </c>
-      <c r="K1248" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1248" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K1248" t="inlineStr"/>
+      <c r="L1248" t="inlineStr"/>
     </row>
     <row r="1249">
       <c r="A1249" s="1" t="n">
@@ -56210,7 +54704,7 @@
       <c r="G1250" t="inlineStr"/>
       <c r="H1250" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1250" t="inlineStr">
@@ -56223,14 +54717,8 @@
           <t>N1LRP449a</t>
         </is>
       </c>
-      <c r="K1250" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1250" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="K1250" t="inlineStr"/>
+      <c r="L1250" t="inlineStr"/>
     </row>
     <row r="1251">
       <c r="A1251" s="1" t="n">
@@ -56440,7 +54928,7 @@
       <c r="G1255" t="inlineStr"/>
       <c r="H1255" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1255" t="inlineStr">
@@ -56453,14 +54941,8 @@
           <t>N1LRP451a</t>
         </is>
       </c>
-      <c r="K1255" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1255" t="n">
-        <v>1.2</v>
-      </c>
+      <c r="K1255" t="inlineStr"/>
+      <c r="L1255" t="inlineStr"/>
     </row>
     <row r="1256">
       <c r="A1256" s="1" t="n">
@@ -56628,7 +55110,7 @@
       <c r="G1259" t="inlineStr"/>
       <c r="H1259" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1259" t="inlineStr">
@@ -56641,14 +55123,8 @@
           <t>N1LRP452c</t>
         </is>
       </c>
-      <c r="K1259" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1259" t="n">
-        <v>2.8</v>
-      </c>
+      <c r="K1259" t="inlineStr"/>
+      <c r="L1259" t="inlineStr"/>
     </row>
     <row r="1260">
       <c r="A1260" s="1" t="n">
@@ -56822,7 +55298,7 @@
       <c r="G1263" t="inlineStr"/>
       <c r="H1263" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1263" t="inlineStr">
@@ -56835,14 +55311,8 @@
           <t>N1LRP453a</t>
         </is>
       </c>
-      <c r="K1263" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1263" t="n">
-        <v>15.1</v>
-      </c>
+      <c r="K1263" t="inlineStr"/>
+      <c r="L1263" t="inlineStr"/>
     </row>
     <row r="1264">
       <c r="A1264" s="1" t="n">
@@ -56870,7 +55340,7 @@
       <c r="G1264" t="inlineStr"/>
       <c r="H1264" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1264" t="inlineStr">
@@ -56912,7 +55382,7 @@
       <c r="G1265" t="inlineStr"/>
       <c r="H1265" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1265" t="inlineStr">
@@ -56954,7 +55424,7 @@
       <c r="G1266" t="inlineStr"/>
       <c r="H1266" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1266" t="inlineStr">
@@ -56996,7 +55466,7 @@
       <c r="G1267" t="inlineStr"/>
       <c r="H1267" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1267" t="inlineStr">
@@ -57080,7 +55550,7 @@
       <c r="G1269" t="inlineStr"/>
       <c r="H1269" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1269" t="inlineStr">
@@ -57093,14 +55563,8 @@
           <t>N1LRP454a</t>
         </is>
       </c>
-      <c r="K1269" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1269" t="n">
-        <v>9</v>
-      </c>
+      <c r="K1269" t="inlineStr"/>
+      <c r="L1269" t="inlineStr"/>
     </row>
     <row r="1270">
       <c r="A1270" s="1" t="n">
@@ -57226,7 +55690,7 @@
       <c r="G1272" t="inlineStr"/>
       <c r="H1272" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1272" t="inlineStr">
@@ -57310,7 +55774,7 @@
       <c r="G1274" t="inlineStr"/>
       <c r="H1274" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1274" t="inlineStr">
@@ -57323,14 +55787,8 @@
           <t>N1LRP455a</t>
         </is>
       </c>
-      <c r="K1274" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="L1274" t="n">
-        <v>37.3</v>
-      </c>
+      <c r="K1274" t="inlineStr"/>
+      <c r="L1274" t="inlineStr"/>
     </row>
     <row r="1275">
       <c r="A1275" s="1" t="n">
@@ -57492,7 +55950,7 @@
       <c r="G1278" t="inlineStr"/>
       <c r="H1278" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1278" t="inlineStr">
@@ -57505,14 +55963,8 @@
           <t>N1LRP456a</t>
         </is>
       </c>
-      <c r="K1278" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="L1278" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K1278" t="inlineStr"/>
+      <c r="L1278" t="inlineStr"/>
     </row>
     <row r="1279">
       <c r="A1279" s="1" t="n">
@@ -57540,7 +55992,7 @@
       <c r="G1279" t="inlineStr"/>
       <c r="H1279" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1279" t="inlineStr">
@@ -57553,14 +56005,8 @@
           <t>N1LRP456b</t>
         </is>
       </c>
-      <c r="K1279" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1279" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="K1279" t="inlineStr"/>
+      <c r="L1279" t="inlineStr"/>
     </row>
     <row r="1280">
       <c r="A1280" s="1" t="n">
@@ -57588,7 +56034,7 @@
       <c r="G1280" t="inlineStr"/>
       <c r="H1280" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1280" t="inlineStr">
@@ -57601,14 +56047,8 @@
           <t>N1LRP456c</t>
         </is>
       </c>
-      <c r="K1280" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="L1280" t="n">
-        <v>35.9</v>
-      </c>
+      <c r="K1280" t="inlineStr"/>
+      <c r="L1280" t="inlineStr"/>
     </row>
     <row r="1281">
       <c r="A1281" s="1" t="n">
@@ -57636,7 +56076,7 @@
       <c r="G1281" t="inlineStr"/>
       <c r="H1281" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1281" t="inlineStr">
@@ -57996,7 +56436,7 @@
       <c r="G1289" t="inlineStr"/>
       <c r="H1289" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1289" t="inlineStr">
@@ -58080,7 +56520,7 @@
       <c r="G1291" t="inlineStr"/>
       <c r="H1291" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1291" t="inlineStr">
@@ -58214,7 +56654,7 @@
       <c r="G1294" t="inlineStr"/>
       <c r="H1294" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1294" t="inlineStr">
@@ -58256,7 +56696,7 @@
       <c r="G1295" t="inlineStr"/>
       <c r="H1295" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1295" t="inlineStr">
@@ -58298,7 +56738,7 @@
       <c r="G1296" t="inlineStr"/>
       <c r="H1296" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1296" t="inlineStr">
@@ -58474,7 +56914,7 @@
       <c r="G1300" t="inlineStr"/>
       <c r="H1300" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1300" t="inlineStr">
@@ -58516,7 +56956,7 @@
       <c r="G1301" t="inlineStr"/>
       <c r="H1301" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1301" t="inlineStr">
@@ -58600,7 +57040,7 @@
       <c r="G1303" t="inlineStr"/>
       <c r="H1303" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1303" t="inlineStr">
@@ -58642,7 +57082,7 @@
       <c r="G1304" t="inlineStr"/>
       <c r="H1304" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1304" t="inlineStr">
@@ -58684,7 +57124,7 @@
       <c r="G1305" t="inlineStr"/>
       <c r="H1305" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1305" t="inlineStr">
@@ -58818,7 +57258,7 @@
       <c r="G1308" t="inlineStr"/>
       <c r="H1308" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1308" t="inlineStr">
@@ -58994,7 +57434,7 @@
       <c r="G1312" t="inlineStr"/>
       <c r="H1312" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1312" t="inlineStr">
@@ -59036,7 +57476,7 @@
       <c r="G1313" t="inlineStr"/>
       <c r="H1313" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1313" t="inlineStr">
@@ -59170,7 +57610,7 @@
       <c r="G1316" t="inlineStr"/>
       <c r="H1316" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1316" t="inlineStr">
@@ -59212,7 +57652,7 @@
       <c r="G1317" t="inlineStr"/>
       <c r="H1317" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1317" t="inlineStr">
@@ -59254,7 +57694,7 @@
       <c r="G1318" t="inlineStr"/>
       <c r="H1318" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1318" t="inlineStr">
@@ -59388,7 +57828,7 @@
       <c r="G1321" t="inlineStr"/>
       <c r="H1321" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1321" t="inlineStr">
@@ -59430,7 +57870,7 @@
       <c r="G1322" t="inlineStr"/>
       <c r="H1322" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1322" t="inlineStr">
@@ -59782,7 +58222,7 @@
       <c r="G1330" t="inlineStr"/>
       <c r="H1330" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1330" t="inlineStr">
@@ -59824,7 +58264,7 @@
       <c r="G1331" t="inlineStr"/>
       <c r="H1331" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1331" t="inlineStr">
@@ -60042,7 +58482,7 @@
       <c r="G1336" t="inlineStr"/>
       <c r="H1336" t="inlineStr">
         <is>
-          <t>bridge</t>
+          <t>road</t>
         </is>
       </c>
       <c r="I1336" t="inlineStr">
@@ -60218,7 +58658,7 @@
       <c r="G1340" t="inlineStr"/>
       <c r="H1340" t="inlineStr">
         <is>
-          <t>road</t>
+          <t>sink</t>
         </is>
       </c>
       <c r="I1340" t="inlineStr">
